--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B2" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D2" t="n">
-        <v>3.974427098301137</v>
+        <v>4.025101464013768</v>
       </c>
       <c r="E2" t="n">
-        <v>3.297640878293424</v>
+        <v>3.347602598664839</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6767862200077132</v>
+        <v>-0.6774988653489288</v>
       </c>
       <c r="G2" t="n">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="H2" t="n">
-        <v>162.3182909690137</v>
+        <v>158.2683535592142</v>
       </c>
       <c r="I2" t="n">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K2" t="n">
-        <v>611.4710218142745</v>
+        <v>528.1480963805063</v>
       </c>
       <c r="L2" t="n">
-        <v>16.48522616386803</v>
+        <v>16.63763575900625</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6171990683921178</v>
+        <v>0.8264290120448107</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6728395061728395</v>
+        <v>0.2606060606060606</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3784613835341541</v>
+        <v>0.1313759697209628</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9097023047325857</v>
+        <v>0.9059030286384546</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B3" t="n">
         <v>323</v>
       </c>
       <c r="C3" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D3" t="n">
-        <v>2.132734074625358</v>
+        <v>2.171618195645565</v>
       </c>
       <c r="E3" t="n">
-        <v>1.455947854617645</v>
+        <v>1.494119330296636</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6767862200077132</v>
+        <v>-0.6774988653489288</v>
       </c>
       <c r="G3" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H3" t="n">
-        <v>27.61660708831772</v>
+        <v>26.15134094148931</v>
       </c>
       <c r="I3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K3" t="n">
-        <v>117.0820643237535</v>
+        <v>107.8025399532495</v>
       </c>
       <c r="L3" t="n">
-        <v>8.846206685390031</v>
+        <v>8.976318453039054</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.6914925786748358</v>
+        <v>0.6671551062469114</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05811309108499473</v>
+        <v>0.05780187314794463</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9420802043017893</v>
+        <v>0.9557425245145045</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>390</v>
+        <v>1072</v>
       </c>
       <c r="B4" t="n">
-        <v>430</v>
+        <v>1099</v>
       </c>
       <c r="C4" t="n">
-        <v>560</v>
+        <v>1151</v>
       </c>
       <c r="D4" t="n">
-        <v>2.721458650823333</v>
+        <v>2.870855370894501</v>
       </c>
       <c r="E4" t="n">
-        <v>2.046771941690653</v>
+        <v>2.193356505545573</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6746867091326803</v>
+        <v>-0.6774988653489288</v>
       </c>
       <c r="G4" t="n">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="H4" t="n">
-        <v>139.26966211119</v>
+        <v>134.6503460556138</v>
       </c>
       <c r="I4" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="K4" t="n">
-        <v>313.7555575465046</v>
+        <v>189.732843930129</v>
       </c>
       <c r="L4" t="n">
-        <v>11.85925288507565</v>
+        <v>11.86659427216023</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,20 +778,20 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8831550640151979</v>
+        <v>0.6948029412154364</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3530523633321745</v>
+        <v>0.1099112808646274</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8318860641751913</v>
+        <v>0.9265910151669716</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>560</v>
+        <v>1723</v>
       </c>
       <c r="B5" t="n">
-        <v>664</v>
+        <v>1742</v>
       </c>
       <c r="C5" t="n">
-        <v>826</v>
+        <v>1796</v>
       </c>
       <c r="D5" t="n">
-        <v>2.417809105244609</v>
+        <v>1.184450041957338</v>
       </c>
       <c r="E5" t="n">
-        <v>1.743122396111928</v>
+        <v>0.5069511766084088</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6746867091326803</v>
+        <v>-0.6774988653489288</v>
       </c>
       <c r="G5" t="n">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="H5" t="n">
-        <v>107.997495190532</v>
+        <v>26.50746921493419</v>
       </c>
       <c r="I5" t="n">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="K5" t="n">
-        <v>387.2510585168459</v>
+        <v>43.46807462897397</v>
       </c>
       <c r="L5" t="n">
-        <v>10.53604455767117</v>
+        <v>4.895888600327332</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,20 +864,20 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6356111217265783</v>
+        <v>0.9373808775700252</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6419753086419753</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3049970957044925</v>
+        <v>0.2053273105996484</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8111976862762331</v>
+        <v>0.9901364697335647</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1706</v>
+        <v>392</v>
       </c>
       <c r="B6" t="n">
-        <v>1773</v>
+        <v>444</v>
       </c>
       <c r="C6" t="n">
-        <v>1865</v>
+        <v>562</v>
       </c>
       <c r="D6" t="n">
-        <v>3.503574576028663</v>
+        <v>2.703911560323553</v>
       </c>
       <c r="E6" t="n">
-        <v>2.828887866895982</v>
+        <v>2.03121348157587</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6746867091326803</v>
+        <v>-0.6726980787476821</v>
       </c>
       <c r="G6" t="n">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H6" t="n">
-        <v>209.1954066702251</v>
+        <v>116.7082049015581</v>
       </c>
       <c r="I6" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="J6" t="n">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="K6" t="n">
-        <v>413.6557152804228</v>
+        <v>314.8623555619001</v>
       </c>
       <c r="L6" t="n">
-        <v>15.26746580782163</v>
+        <v>11.7694629285093</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.5855962658876768</v>
+        <v>0.7532704578250267</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7282608695652174</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1749542066536264</v>
+        <v>0.1792333061726971</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9188351012348928</v>
+        <v>0.8323695888728085</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2775</v>
+        <v>640</v>
       </c>
       <c r="B7" t="n">
-        <v>2802</v>
+        <v>665</v>
       </c>
       <c r="C7" t="n">
-        <v>2909</v>
+        <v>770</v>
       </c>
       <c r="D7" t="n">
-        <v>1.827010945262472</v>
+        <v>2.489997293175342</v>
       </c>
       <c r="E7" t="n">
-        <v>1.152324236129792</v>
+        <v>1.817299214427661</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6746867091326803</v>
+        <v>-0.6726980787476821</v>
       </c>
       <c r="G7" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H7" t="n">
-        <v>40.99096566049502</v>
+        <v>108.6771880525218</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K7" t="n">
-        <v>124.453774848305</v>
+        <v>206.1990820002659</v>
       </c>
       <c r="L7" t="n">
-        <v>7.961533722775386</v>
+        <v>10.8383466619777</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.933805843581889</v>
+        <v>0.8742702786432714</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2523364485981308</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3203466411623038</v>
+        <v>0.3033615710716772</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9356219125473166</v>
+        <v>0.8288492431826651</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2909</v>
+        <v>770</v>
       </c>
       <c r="B8" t="n">
-        <v>2945</v>
+        <v>795</v>
       </c>
       <c r="C8" t="n">
-        <v>2998</v>
+        <v>827</v>
       </c>
       <c r="D8" t="n">
-        <v>1.892336383898129</v>
+        <v>1.083954520106961</v>
       </c>
       <c r="E8" t="n">
-        <v>1.217649674765449</v>
+        <v>0.4112564413592793</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6746867091326803</v>
+        <v>-0.6726980787476821</v>
       </c>
       <c r="G8" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="H8" t="n">
-        <v>28.26931001421235</v>
+        <v>18.20245183717964</v>
       </c>
       <c r="I8" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J8" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="K8" t="n">
-        <v>106.7613551435066</v>
+        <v>45.46067851137999</v>
       </c>
       <c r="L8" t="n">
-        <v>8.2462012470732</v>
+        <v>4.718187801624098</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7420471948636513</v>
+        <v>0.7447340638478576</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6792452830188679</v>
+        <v>0.78125</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1666798783070705</v>
+        <v>0.1863575836165976</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8894957282298237</v>
+        <v>0.9222925137513712</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>900</v>
+        <v>1706</v>
       </c>
       <c r="B9" t="n">
-        <v>939</v>
+        <v>1774</v>
       </c>
       <c r="C9" t="n">
-        <v>1091</v>
+        <v>1867</v>
       </c>
       <c r="D9" t="n">
-        <v>5.031774998983719</v>
+        <v>3.529115768413172</v>
       </c>
       <c r="E9" t="n">
-        <v>4.45734815392707</v>
+        <v>2.85641768966549</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5744268450566491</v>
+        <v>-0.6726980787476821</v>
       </c>
       <c r="G9" t="n">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="H9" t="n">
-        <v>123.1913497808264</v>
+        <v>211.2465331793946</v>
       </c>
       <c r="I9" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J9" t="n">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="K9" t="n">
-        <v>536.8602971422788</v>
+        <v>416.1844488768546</v>
       </c>
       <c r="L9" t="n">
-        <v>26.86394806102949</v>
+        <v>15.36137417223299</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,20 +1208,20 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.9102633968120268</v>
+        <v>0.5660970157212923</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2565789473684211</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2001071586421619</v>
+        <v>0.187247524628347</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9738285163133802</v>
+        <v>0.9110839065923401</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U9" t="n">
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>850</v>
+        <v>2776</v>
       </c>
       <c r="B10" t="n">
-        <v>876</v>
+        <v>2800</v>
       </c>
       <c r="C10" t="n">
-        <v>950</v>
+        <v>2910</v>
       </c>
       <c r="D10" t="n">
-        <v>1.940166552607025</v>
+        <v>1.920086713120321</v>
       </c>
       <c r="E10" t="n">
-        <v>1.272027623639121</v>
+        <v>1.247388634372639</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6681389289679039</v>
+        <v>-0.6726980787476821</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="H10" t="n">
-        <v>60.23996911722031</v>
+        <v>45.5455779378467</v>
       </c>
       <c r="I10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
-        <v>143.5860630352265</v>
+        <v>124.977412690066</v>
       </c>
       <c r="L10" t="n">
-        <v>5.489876702815355</v>
+        <v>8.357665879755601</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,20 +1294,20 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8272736409299692</v>
+        <v>0.9317089987036018</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4726580938844848</v>
+        <v>0.307621061404114</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6057224137011054</v>
+        <v>0.9305081071999446</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U10" t="n">
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1613</v>
+        <v>2910</v>
       </c>
       <c r="B11" t="n">
-        <v>1657</v>
+        <v>2945</v>
       </c>
       <c r="C11" t="n">
-        <v>1796</v>
+        <v>2998</v>
       </c>
       <c r="D11" t="n">
-        <v>2.52239848737075</v>
+        <v>1.91324121980996</v>
       </c>
       <c r="E11" t="n">
-        <v>1.854259558402846</v>
+        <v>1.240543141062278</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6681389289679039</v>
+        <v>-0.6726980787476821</v>
       </c>
       <c r="G11" t="n">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="H11" t="n">
-        <v>117.3643354844653</v>
+        <v>32.05071181373432</v>
       </c>
       <c r="I11" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J11" t="n">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="K11" t="n">
-        <v>283.6404317963873</v>
+        <v>106.2835710383792</v>
       </c>
       <c r="L11" t="n">
-        <v>7.137354611348242</v>
+        <v>8.327869128661417</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,20 +1380,20 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8380380761214954</v>
+        <v>0.7807515922074858</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.316546762589928</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1553192695008882</v>
+        <v>0.194946871451011</v>
       </c>
       <c r="S11" t="n">
-        <v>0.860528492357804</v>
+        <v>0.8264092120732658</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2824</v>
+        <v>902</v>
       </c>
       <c r="B12" t="n">
-        <v>2861</v>
+        <v>938</v>
       </c>
       <c r="C12" t="n">
-        <v>2998</v>
+        <v>1094</v>
       </c>
       <c r="D12" t="n">
-        <v>3.037603378410786</v>
+        <v>5.053834073135213</v>
       </c>
       <c r="E12" t="n">
-        <v>2.369464449442882</v>
+        <v>4.478318980801136</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6681389289679039</v>
+        <v>-0.5755150923340767</v>
       </c>
       <c r="G12" t="n">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="H12" t="n">
-        <v>61.13968390402806</v>
+        <v>121.8316373010608</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="K12" t="n">
-        <v>224.8702180461297</v>
+        <v>536.2602900021378</v>
       </c>
       <c r="L12" t="n">
-        <v>8.595173438652859</v>
+        <v>26.96829693630728</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,20 +1466,20 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.9019003894997091</v>
+        <v>0.906363572247688</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2700729927007299</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3628947758173003</v>
+        <v>0.2088120888033382</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6474867593072755</v>
+        <v>0.9767432935859917</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U12" t="n">
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2614</v>
+        <v>2210</v>
       </c>
       <c r="B13" t="n">
-        <v>2641</v>
+        <v>2237</v>
       </c>
       <c r="C13" t="n">
-        <v>2735</v>
+        <v>2373</v>
       </c>
       <c r="D13" t="n">
-        <v>3.061808810313067</v>
+        <v>3.360290624361715</v>
       </c>
       <c r="E13" t="n">
-        <v>2.451534302150407</v>
+        <v>2.784775532027639</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6102745081626605</v>
+        <v>-0.5755150923340767</v>
       </c>
       <c r="G13" t="n">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="H13" t="n">
-        <v>35.24119623048045</v>
+        <v>66.30207220907005</v>
       </c>
       <c r="I13" t="n">
         <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="K13" t="n">
-        <v>253.4114636477153</v>
+        <v>258.3267246665632</v>
       </c>
       <c r="L13" t="n">
-        <v>6.86578393169105</v>
+        <v>17.93120115118026</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,20 +1552,20 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.9413259015980331</v>
+        <v>0.9322764586489152</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2872340425531915</v>
+        <v>0.1985294117647059</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2384712600441323</v>
+        <v>0.2814142871296877</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9529676058064425</v>
+        <v>0.9239088127187689</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U13" t="n">
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2735</v>
+        <v>1170</v>
       </c>
       <c r="B14" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="C14" t="n">
-        <v>2998</v>
+        <v>1255</v>
       </c>
       <c r="D14" t="n">
-        <v>2.780675554494525</v>
+        <v>2.769868051481409</v>
       </c>
       <c r="E14" t="n">
-        <v>2.170401046331865</v>
+        <v>2.161879080669066</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6102745081626605</v>
+        <v>-0.6079889708123437</v>
       </c>
       <c r="G14" t="n">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="H14" t="n">
-        <v>54.53553354181759</v>
+        <v>164.2037568335236</v>
       </c>
       <c r="I14" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J14" t="n">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="K14" t="n">
-        <v>342.9065329432293</v>
+        <v>159.9796020650739</v>
       </c>
       <c r="L14" t="n">
-        <v>6.23537220122589</v>
+        <v>5.537641667695592</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,20 +1638,20 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7791987111873078</v>
+        <v>0.7885028015063426</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3282828282828283</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2218119620647777</v>
+        <v>0.2349310696660536</v>
       </c>
       <c r="S14" t="n">
-        <v>0.890348782028491</v>
+        <v>0.9452183132617481</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U14" t="n">
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1174</v>
+        <v>1480</v>
       </c>
       <c r="B15" t="n">
-        <v>1243</v>
+        <v>1514</v>
       </c>
       <c r="C15" t="n">
-        <v>1395</v>
+        <v>1584</v>
       </c>
       <c r="D15" t="n">
-        <v>2.286312204755474</v>
+        <v>2.427804031216624</v>
       </c>
       <c r="E15" t="n">
-        <v>1.661333688541</v>
+        <v>1.81981506040428</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6249785162144746</v>
+        <v>-0.6079889708123437</v>
       </c>
       <c r="G15" t="n">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="H15" t="n">
-        <v>39.27474067338653</v>
+        <v>44.78272943312004</v>
       </c>
       <c r="I15" t="n">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="J15" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="K15" t="n">
-        <v>251.9017082154527</v>
+        <v>185.566681166325</v>
       </c>
       <c r="L15" t="n">
-        <v>5.205410315187954</v>
+        <v>4.853772278818149</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.6240481481817685</v>
+        <v>0.8653464836567123</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4539473684210527</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3229546978941826</v>
+        <v>0.2019871296712501</v>
       </c>
       <c r="S15" t="n">
-        <v>0.88744681956836</v>
+        <v>0.9682593543334319</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U15" t="n">
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2184</v>
+        <v>2254</v>
       </c>
       <c r="B16" t="n">
-        <v>2238</v>
+        <v>2283</v>
       </c>
       <c r="C16" t="n">
-        <v>2351</v>
+        <v>2472</v>
       </c>
       <c r="D16" t="n">
-        <v>4.141104326975967</v>
+        <v>2.100408514675491</v>
       </c>
       <c r="E16" t="n">
-        <v>3.576117907177024</v>
+        <v>1.492419543863148</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5649864197989428</v>
+        <v>-0.6079889708123437</v>
       </c>
       <c r="G16" t="n">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="H16" t="n">
-        <v>102.0275942587014</v>
+        <v>122.6718970648753</v>
       </c>
       <c r="I16" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="J16" t="n">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="K16" t="n">
-        <v>396.3207241261996</v>
+        <v>249.0097512981876</v>
       </c>
       <c r="L16" t="n">
-        <v>14.5232400205811</v>
+        <v>4.199228805801357</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,20 +1810,20 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8155371915304848</v>
+        <v>0.824090124675428</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4778761061946903</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="R16" t="n">
-        <v>0.203607917333949</v>
+        <v>0.2195785159674118</v>
       </c>
       <c r="S16" t="n">
-        <v>0.985554424379092</v>
+        <v>0.6860877088148019</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U16" t="n">
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2351</v>
+        <v>2882</v>
       </c>
       <c r="B17" t="n">
-        <v>2387</v>
+        <v>2932</v>
       </c>
       <c r="C17" t="n">
-        <v>2455</v>
+        <v>2998</v>
       </c>
       <c r="D17" t="n">
-        <v>2.386724142119899</v>
+        <v>2.828096591121222</v>
       </c>
       <c r="E17" t="n">
-        <v>1.821737722320956</v>
+        <v>2.220107620308878</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5649864197989428</v>
+        <v>-0.6079889708123437</v>
       </c>
       <c r="G17" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H17" t="n">
-        <v>49.44206090914759</v>
+        <v>40.56557236953859</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J17" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K17" t="n">
-        <v>174.6671715266082</v>
+        <v>182.7899598305382</v>
       </c>
       <c r="L17" t="n">
-        <v>8.370464697815368</v>
+        <v>5.654054717474637</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,20 +1896,20 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.6918539110677209</v>
+        <v>0.7705577302425344</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06028929342917137</v>
+        <v>0.7193867796186699</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8890769916647487</v>
+        <v>0.8120435022281536</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U17" t="n">
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2455</v>
+        <v>1094</v>
       </c>
       <c r="B18" t="n">
-        <v>2484</v>
+        <v>1125</v>
       </c>
       <c r="C18" t="n">
-        <v>2556</v>
+        <v>1217</v>
       </c>
       <c r="D18" t="n">
-        <v>1.915947500291439</v>
+        <v>4.116982136715709</v>
       </c>
       <c r="E18" t="n">
-        <v>1.350961080492496</v>
+        <v>3.439112372123991</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5649864197989428</v>
+        <v>-0.6778697645917181</v>
       </c>
       <c r="G18" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="H18" t="n">
-        <v>53.09014528547186</v>
+        <v>105.6451896912597</v>
       </c>
       <c r="I18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J18" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="K18" t="n">
-        <v>137.9658471289136</v>
+        <v>315.4480031890237</v>
       </c>
       <c r="L18" t="n">
-        <v>6.719407002693084</v>
+        <v>11.54840021924356</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,20 +1982,20 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7580015255831301</v>
+        <v>0.8240224130659609</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.3369565217391304</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07792790143525177</v>
+        <v>0.1411248472896659</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9381902264529316</v>
+        <v>0.9657271180621925</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U18" t="n">
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>214</v>
+        <v>1614</v>
       </c>
       <c r="B19" t="n">
-        <v>242</v>
+        <v>1659</v>
       </c>
       <c r="C19" t="n">
-        <v>293</v>
+        <v>1795</v>
       </c>
       <c r="D19" t="n">
-        <v>3.082637145725023</v>
+        <v>2.582019863877679</v>
       </c>
       <c r="E19" t="n">
-        <v>2.430878638924479</v>
+        <v>1.904150099285961</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6517585068005438</v>
+        <v>-0.6778697645917181</v>
       </c>
       <c r="G19" t="n">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="H19" t="n">
-        <v>27.87204550852476</v>
+        <v>116.1638537294066</v>
       </c>
       <c r="I19" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J19" t="n">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="K19" t="n">
-        <v>158.3165731045414</v>
+        <v>284.2640881171679</v>
       </c>
       <c r="L19" t="n">
-        <v>11.55495792348801</v>
+        <v>7.242732120738192</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,20 +2068,20 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.8459629521472588</v>
+        <v>0.8229031103214679</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.3308823529411765</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1962544654972339</v>
+        <v>0.148239369422509</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9928909006760708</v>
+        <v>0.8546195198879585</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U19" t="n">
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>355</v>
+        <v>2823</v>
       </c>
       <c r="B20" t="n">
-        <v>381</v>
+        <v>2866</v>
       </c>
       <c r="C20" t="n">
-        <v>414</v>
+        <v>2998</v>
       </c>
       <c r="D20" t="n">
-        <v>3.889544754491699</v>
+        <v>2.980641104797958</v>
       </c>
       <c r="E20" t="n">
-        <v>3.237786247691155</v>
+        <v>2.30277134020624</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6517585068005438</v>
+        <v>-0.6778697645917181</v>
       </c>
       <c r="G20" t="n">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="H20" t="n">
-        <v>38.78916685921297</v>
+        <v>61.96321200438433</v>
       </c>
       <c r="I20" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J20" t="n">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="K20" t="n">
-        <v>159.6579681349642</v>
+        <v>227.0756761152358</v>
       </c>
       <c r="L20" t="n">
-        <v>14.57957062575542</v>
+        <v>8.36089039132793</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,20 +2154,20 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.619353060118548</v>
+        <v>0.8564389680216417</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.3257575757575757</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05977984641037069</v>
+        <v>0.4328480987900054</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9900686790389542</v>
+        <v>0.5933125997892477</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U20" t="n">
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>414</v>
+        <v>1448</v>
       </c>
       <c r="B21" t="n">
-        <v>458</v>
+        <v>1478</v>
       </c>
       <c r="C21" t="n">
-        <v>551</v>
+        <v>1558</v>
       </c>
       <c r="D21" t="n">
-        <v>2.665929607522461</v>
+        <v>1.789712323944524</v>
       </c>
       <c r="E21" t="n">
-        <v>2.014171100721917</v>
+        <v>1.239235020602546</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6517585068005438</v>
+        <v>-0.5504773033419776</v>
       </c>
       <c r="G21" t="n">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="H21" t="n">
-        <v>45.03450601601139</v>
+        <v>31.23312507058768</v>
       </c>
       <c r="I21" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J21" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>308.3519763637456</v>
+        <v>140.9044868807279</v>
       </c>
       <c r="L21" t="n">
-        <v>9.992971272867022</v>
+        <v>6.328989556398205</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,20 +2240,20 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.5444669680381192</v>
+        <v>0.7849890696716051</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4731182795698925</v>
+        <v>0.375</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1090384653873358</v>
+        <v>0.1588973769978081</v>
       </c>
       <c r="S21" t="n">
-        <v>0.2641170263997729</v>
+        <v>0.7136339928352373</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U21" t="n">
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>551</v>
+        <v>1023</v>
       </c>
       <c r="B22" t="n">
-        <v>580</v>
+        <v>1057</v>
       </c>
       <c r="C22" t="n">
-        <v>689</v>
+        <v>1129</v>
       </c>
       <c r="D22" t="n">
-        <v>2.614451743997384</v>
+        <v>2.354613734879215</v>
       </c>
       <c r="E22" t="n">
-        <v>1.96269323719684</v>
+        <v>1.73898963038182</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6517585068005438</v>
+        <v>-0.6156241044973947</v>
       </c>
       <c r="G22" t="n">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="H22" t="n">
-        <v>33.50432864008974</v>
+        <v>203.3631177157408</v>
       </c>
       <c r="I22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J22" t="n">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="K22" t="n">
-        <v>257.8551507250276</v>
+        <v>170.9979875045315</v>
       </c>
       <c r="L22" t="n">
-        <v>9.800011635094465</v>
+        <v>5.274630444037516</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,20 +2326,20 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8541658971834938</v>
+        <v>0.7914024153050224</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2660550458715596</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2214704952054524</v>
+        <v>0.652835439195757</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6865282112704396</v>
+        <v>0.8399675728534772</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U22" t="n">
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>64</v>
+        <v>1129</v>
       </c>
       <c r="B23" t="n">
-        <v>105</v>
+        <v>1159</v>
       </c>
       <c r="C23" t="n">
-        <v>350</v>
+        <v>1245</v>
       </c>
       <c r="D23" t="n">
-        <v>2.27931260015747</v>
+        <v>1.912760342585731</v>
       </c>
       <c r="E23" t="n">
-        <v>1.809945235833329</v>
+        <v>1.297136238088336</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4693673643241407</v>
+        <v>-0.6156241044973947</v>
       </c>
       <c r="G23" t="n">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="H23" t="n">
-        <v>38.02083810298849</v>
+        <v>67.06650914603119</v>
       </c>
       <c r="I23" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2149035903853</v>
+        <v>170.8050464502456</v>
       </c>
       <c r="L23" t="n">
-        <v>7.65815299698985</v>
+        <v>4.284823360069234</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,20 +2412,20 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7223331470852206</v>
+        <v>0.7696477476036903</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1673469387755102</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5048822409915529</v>
+        <v>0.105731425617692</v>
       </c>
       <c r="S23" t="n">
-        <v>0.5351029801465074</v>
+        <v>0.7973296561173242</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U23" t="n">
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="B24" t="n">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C24" t="n">
-        <v>2168</v>
+        <v>2078</v>
       </c>
       <c r="D24" t="n">
-        <v>4.228407287731633</v>
+        <v>1.990636160880615</v>
       </c>
       <c r="E24" t="n">
-        <v>3.759039923407492</v>
+        <v>1.375012056383221</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4693673643241407</v>
+        <v>-0.6156241044973947</v>
       </c>
       <c r="G24" t="n">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="H24" t="n">
-        <v>126.7085175545403</v>
+        <v>37.85865953735379</v>
       </c>
       <c r="I24" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J24" t="n">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="K24" t="n">
-        <v>397.0907057669165</v>
+        <v>82.14873652959514</v>
       </c>
       <c r="L24" t="n">
-        <v>14.20682268013549</v>
+        <v>4.459274972215972</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,20 +2498,20 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8855545060514064</v>
+        <v>0.7622702941266544</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.78125</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4201315187470954</v>
+        <v>0.4400549322306658</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9579206144907838</v>
+        <v>0.9741248319383701</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U24" t="n">
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>201</v>
+        <v>2614</v>
       </c>
       <c r="B25" t="n">
-        <v>216</v>
+        <v>2639</v>
       </c>
       <c r="C25" t="n">
-        <v>244</v>
+        <v>2744</v>
       </c>
       <c r="D25" t="n">
-        <v>2.623131709554404</v>
+        <v>3.110003342434855</v>
       </c>
       <c r="E25" t="n">
-        <v>2.025873137668259</v>
+        <v>2.49437923793746</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5972585718861448</v>
+        <v>-0.6156241044973947</v>
       </c>
       <c r="G25" t="n">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="H25" t="n">
-        <v>13.10075645694172</v>
+        <v>37.10925211388849</v>
       </c>
       <c r="I25" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J25" t="n">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="K25" t="n">
-        <v>90.20464054190299</v>
+        <v>262.2935755613494</v>
       </c>
       <c r="L25" t="n">
-        <v>11.45865167748867</v>
+        <v>6.966798022142178</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,20 +2584,20 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8015263663071313</v>
+        <v>0.920699537053697</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1691709025746727</v>
+        <v>0.254816044993158</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9882270266521507</v>
+        <v>0.9565879225605265</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U25" t="n">
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>332</v>
+        <v>2744</v>
       </c>
       <c r="B26" t="n">
-        <v>353</v>
+        <v>2798</v>
       </c>
       <c r="C26" t="n">
-        <v>385</v>
+        <v>2998</v>
       </c>
       <c r="D26" t="n">
-        <v>2.725692143818347</v>
+        <v>2.842780637170929</v>
       </c>
       <c r="E26" t="n">
-        <v>2.128433571932202</v>
+        <v>2.227156532673535</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5972585718861448</v>
+        <v>-0.6156241044973947</v>
       </c>
       <c r="G26" t="n">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="H26" t="n">
-        <v>16.55704038545468</v>
+        <v>52.53426093334565</v>
       </c>
       <c r="I26" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J26" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
-        <v>103.8703056965052</v>
+        <v>335.8459224252253</v>
       </c>
       <c r="L26" t="n">
-        <v>11.90666741678302</v>
+        <v>6.368185606167517</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,20 +2670,20 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.813036076737066</v>
+        <v>0.8198202108493495</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.65625</v>
+        <v>0.27</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2812934728248948</v>
+        <v>0.2456830947819305</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9765823367416467</v>
+        <v>0.8900169221554581</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -2707,69 +2707,69 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>385</v>
+        <v>2248</v>
       </c>
       <c r="B27" t="n">
-        <v>417</v>
+        <v>2280</v>
       </c>
       <c r="C27" t="n">
-        <v>574</v>
+        <v>2422</v>
       </c>
       <c r="D27" t="n">
-        <v>2.037749269184003</v>
+        <v>2.867768261867097</v>
       </c>
       <c r="E27" t="n">
-        <v>1.440490697297858</v>
+        <v>2.25586517616632</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5972585718861448</v>
+        <v>-0.6119030857007773</v>
       </c>
       <c r="G27" t="n">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="H27" t="n">
-        <v>43.87156533389617</v>
+        <v>294.9410186136404</v>
       </c>
       <c r="I27" t="n">
         <v>32</v>
       </c>
       <c r="J27" t="n">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K27" t="n">
-        <v>209.6217624400026</v>
+        <v>279.0212311357959</v>
       </c>
       <c r="L27" t="n">
-        <v>8.901519888074191</v>
+        <v>5.631771565150074</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(484), 'value': np.float64(0.959898082158781), 'amplitude': np.float64(1.5571566540449258), 'start_idx': np.int64(457), 'end_idx': np.int64(507), 'duration': np.float64(50.0), 'fwhm': np.float64(26.730084925416406), 'rise_time': np.float64(27.0), 'decay_time': np.float64(23.0), 'auc': np.float64(55.47443962448466)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7828074815699487</v>
+        <v>0.8394058176439079</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2038216560509554</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3361868108605763</v>
+        <v>0.2872543306847716</v>
       </c>
       <c r="S27" t="n">
-        <v>0.5319782978140992</v>
+        <v>0.7764135360030484</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U27" t="n">
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>574</v>
+        <v>128</v>
       </c>
       <c r="B28" t="n">
-        <v>607</v>
+        <v>152</v>
       </c>
       <c r="C28" t="n">
-        <v>676</v>
+        <v>184</v>
       </c>
       <c r="D28" t="n">
-        <v>2.322810449432056</v>
+        <v>2.377620994783363</v>
       </c>
       <c r="E28" t="n">
-        <v>1.725551877545911</v>
+        <v>1.737349838121008</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5972585718861448</v>
+        <v>-0.6402711566623545</v>
       </c>
       <c r="G28" t="n">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="H28" t="n">
-        <v>35.76258088090196</v>
+        <v>39.34743894375495</v>
       </c>
       <c r="I28" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J28" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="K28" t="n">
-        <v>127.1816392056281</v>
+        <v>67.07568669884928</v>
       </c>
       <c r="L28" t="n">
-        <v>10.14675540535255</v>
+        <v>5.403184929180562</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,20 +2842,20 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8520107417679895</v>
+        <v>0.6671231281972986</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.75</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1849593776858588</v>
+        <v>0.1223376997218895</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9587297393155713</v>
+        <v>0.9288756336041641</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U28" t="n">
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>371</v>
+        <v>848</v>
       </c>
       <c r="B29" t="n">
-        <v>457</v>
+        <v>873</v>
       </c>
       <c r="C29" t="n">
-        <v>612</v>
+        <v>948</v>
       </c>
       <c r="D29" t="n">
-        <v>4.400384991643883</v>
+        <v>2.146076747324629</v>
       </c>
       <c r="E29" t="n">
-        <v>3.826917363811982</v>
+        <v>1.505805590662274</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.573467627831901</v>
+        <v>-0.6402711566623545</v>
       </c>
       <c r="G29" t="n">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>188.2281047381611</v>
+        <v>68.76844304507688</v>
       </c>
       <c r="I29" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="J29" t="n">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="K29" t="n">
-        <v>716.6397288128135</v>
+        <v>146.1091627907509</v>
       </c>
       <c r="L29" t="n">
-        <v>22.37572982865134</v>
+        <v>4.87699661276999</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,20 +2928,20 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.7794397165729967</v>
+        <v>0.8347331918526275</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.5548387096774193</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6063282686430841</v>
+        <v>0.333284871632433</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8210856076173269</v>
+        <v>0.6352652292767829</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U29" t="n">
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>811</v>
+        <v>1176</v>
       </c>
       <c r="B30" t="n">
-        <v>846</v>
+        <v>1243</v>
       </c>
       <c r="C30" t="n">
-        <v>995</v>
+        <v>1397</v>
       </c>
       <c r="D30" t="n">
-        <v>2.193076401014605</v>
+        <v>2.332284473523641</v>
       </c>
       <c r="E30" t="n">
-        <v>1.619608773182704</v>
+        <v>1.692013316861287</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.573467627831901</v>
+        <v>-0.6402711566623545</v>
       </c>
       <c r="G30" t="n">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="H30" t="n">
-        <v>155.5290929548748</v>
+        <v>92.26101001521215</v>
       </c>
       <c r="I30" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="J30" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K30" t="n">
-        <v>247.3768256863898</v>
+        <v>254.1472321319247</v>
       </c>
       <c r="L30" t="n">
-        <v>11.15167994070486</v>
+        <v>5.300156898662047</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,20 +3014,20 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.8802879585313053</v>
+        <v>0.7354562563527607</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2348993288590604</v>
+        <v>0.435064935064935</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3077470677307068</v>
+        <v>0.3521629760597129</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8655781260939008</v>
+        <v>0.8863601895369403</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U30" t="n">
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>386</v>
+        <v>1674</v>
       </c>
       <c r="B31" t="n">
-        <v>411</v>
+        <v>1703</v>
       </c>
       <c r="C31" t="n">
-        <v>458</v>
+        <v>1801</v>
       </c>
       <c r="D31" t="n">
-        <v>2.594032571186544</v>
+        <v>2.46060211046134</v>
       </c>
       <c r="E31" t="n">
-        <v>2.040662999061936</v>
+        <v>1.820330953798985</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5533695721246084</v>
+        <v>-0.6402711566623545</v>
       </c>
       <c r="G31" t="n">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="H31" t="n">
-        <v>37.14754227648802</v>
+        <v>21.4410209052337</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J31" t="n">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="K31" t="n">
-        <v>133.1404860534414</v>
+        <v>269.522115346024</v>
       </c>
       <c r="L31" t="n">
-        <v>6.936334601111954</v>
+        <v>5.5917609531228</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,20 +3100,20 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8450868632950531</v>
+        <v>0.7171443093263605</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5319148936170213</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="R31" t="n">
-        <v>0.402298287170118</v>
+        <v>0.1230169454860932</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9660483484620092</v>
+        <v>0.6336652947262734</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U31" t="n">
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>638</v>
+        <v>2434</v>
       </c>
       <c r="B32" t="n">
-        <v>671</v>
+        <v>2454</v>
       </c>
       <c r="C32" t="n">
-        <v>725</v>
+        <v>2492</v>
       </c>
       <c r="D32" t="n">
-        <v>2.068544717050657</v>
+        <v>1.846544591703366</v>
       </c>
       <c r="E32" t="n">
-        <v>1.601289334812585</v>
+        <v>1.314553939680798</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.4672553822380723</v>
+        <v>-0.5319906520225672</v>
       </c>
       <c r="G32" t="n">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="H32" t="n">
-        <v>47.78378565177786</v>
+        <v>30.95432779313796</v>
       </c>
       <c r="I32" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J32" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="K32" t="n">
-        <v>110.2071886089882</v>
+        <v>74.23477137013325</v>
       </c>
       <c r="L32" t="n">
-        <v>5.869423556051075</v>
+        <v>4.695814134213786</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,20 +3186,20 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.7912773092395502</v>
+        <v>0.7786539897315122</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2191470757077281</v>
+        <v>0.1607446989807598</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8618513583237379</v>
+        <v>0.9137450796405991</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U32" t="n">
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>453</v>
+        <v>2606</v>
       </c>
       <c r="B33" t="n">
-        <v>482</v>
+        <v>2621</v>
       </c>
       <c r="C33" t="n">
-        <v>573</v>
+        <v>2659</v>
       </c>
       <c r="D33" t="n">
-        <v>2.611306033984951</v>
+        <v>1.505979867991409</v>
       </c>
       <c r="E33" t="n">
-        <v>2.043423972927594</v>
+        <v>0.973989215968842</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5678820610573571</v>
+        <v>-0.5319906520225672</v>
       </c>
       <c r="G33" t="n">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="H33" t="n">
-        <v>35.43914120702465</v>
+        <v>30.0648957543317</v>
       </c>
       <c r="I33" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J33" t="n">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K33" t="n">
-        <v>191.6889418219578</v>
+        <v>55.15546421446494</v>
       </c>
       <c r="L33" t="n">
-        <v>7.463668091101938</v>
+        <v>3.82974859189943</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,20 +3272,20 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8841591605487098</v>
+        <v>0.8696197961732582</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.3186813186813187</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3607499887960831</v>
+        <v>0.5956751241040891</v>
       </c>
       <c r="S33" t="n">
-        <v>0.7602457225558095</v>
+        <v>0.8704328912615154</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U33" t="n">
@@ -3309,69 +3309,69 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>573</v>
+        <v>2659</v>
       </c>
       <c r="B34" t="n">
-        <v>605</v>
+        <v>2680</v>
       </c>
       <c r="C34" t="n">
-        <v>733</v>
+        <v>2779</v>
       </c>
       <c r="D34" t="n">
-        <v>2.55378846244781</v>
+        <v>1.732653534554446</v>
       </c>
       <c r="E34" t="n">
-        <v>1.985906401390453</v>
+        <v>1.200662882531879</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5678820610573571</v>
+        <v>-0.5319906520225672</v>
       </c>
       <c r="G34" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H34" t="n">
-        <v>97.81891765457567</v>
+        <v>30.89837956160272</v>
       </c>
       <c r="I34" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J34" t="n">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="K34" t="n">
-        <v>311.6471427636136</v>
+        <v>71.51276664334821</v>
       </c>
       <c r="L34" t="n">
-        <v>7.299270637194815</v>
+        <v>4.406186015660145</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2724), 'value': np.float64(0.11152931590672997), 'amplitude': np.float64(0.6435199679292972), 'start_idx': np.int64(2709), 'end_idx': np.int64(2739), 'duration': np.float64(30.0), 'fwhm': np.float64(21.75865277432149), 'rise_time': np.float64(15.0), 'decay_time': np.float64(15.0), 'auc': np.float64(14.183680951815235)}]</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8559313765319625</v>
+        <v>0.7576188942431201</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.25</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1984363656625666</v>
+        <v>0.6083230429180702</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7344205476680064</v>
+        <v>0.3397379240827192</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U34" t="n">
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>245</v>
+        <v>2185</v>
       </c>
       <c r="B35" t="n">
-        <v>278</v>
+        <v>2236</v>
       </c>
       <c r="C35" t="n">
-        <v>327</v>
+        <v>2353</v>
       </c>
       <c r="D35" t="n">
-        <v>3.719526997092907</v>
+        <v>4.234433416780629</v>
       </c>
       <c r="E35" t="n">
-        <v>3.157581956480519</v>
+        <v>3.661406699996262</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5619450406123881</v>
+        <v>-0.5730267167843667</v>
       </c>
       <c r="G35" t="n">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="H35" t="n">
-        <v>58.98921835170847</v>
+        <v>102.4861226701155</v>
       </c>
       <c r="I35" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J35" t="n">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="K35" t="n">
-        <v>216.8073676358603</v>
+        <v>399.7005926427127</v>
       </c>
       <c r="L35" t="n">
-        <v>11.43138396973476</v>
+        <v>14.84363656786642</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,20 +3444,20 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7539667837634786</v>
+        <v>0.8563383508374182</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.673469387755102</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2575349957589209</v>
+        <v>0.2045441978664268</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8432179965623575</v>
+        <v>0.9771848757029484</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U35" t="n">
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2248</v>
+        <v>2353</v>
       </c>
       <c r="B36" t="n">
-        <v>2380</v>
+        <v>2387</v>
       </c>
       <c r="C36" t="n">
-        <v>2791</v>
+        <v>2456</v>
       </c>
       <c r="D36" t="n">
-        <v>2.79289398276747</v>
+        <v>2.34046780268632</v>
       </c>
       <c r="E36" t="n">
-        <v>2.182586854405443</v>
+        <v>1.767441085901954</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.6103071283620269</v>
+        <v>-0.5730267167843667</v>
       </c>
       <c r="G36" t="n">
-        <v>543</v>
+        <v>103</v>
       </c>
       <c r="H36" t="n">
-        <v>91.121129667079</v>
+        <v>50.87277580735235</v>
       </c>
       <c r="I36" t="n">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="J36" t="n">
-        <v>411</v>
+        <v>69</v>
       </c>
       <c r="K36" t="n">
-        <v>463.4002076272021</v>
+        <v>174.3897216055919</v>
       </c>
       <c r="L36" t="n">
-        <v>11.67369850176436</v>
+        <v>8.204416043996201</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,20 +3530,20 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.6075806326062887</v>
+        <v>0.7037995736023869</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.3211678832116788</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="R36" t="n">
-        <v>0.7984504064495099</v>
+        <v>0.07402854647683214</v>
       </c>
       <c r="S36" t="n">
-        <v>0.570325320747439</v>
+        <v>0.8456230907315159</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U36" t="n">
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2918</v>
+        <v>2456</v>
       </c>
       <c r="B37" t="n">
-        <v>2942</v>
+        <v>2481</v>
       </c>
       <c r="C37" t="n">
-        <v>2998</v>
+        <v>2555</v>
       </c>
       <c r="D37" t="n">
-        <v>3.131175705531495</v>
+        <v>2.031681953344834</v>
       </c>
       <c r="E37" t="n">
-        <v>2.520868577169468</v>
+        <v>1.458655236560468</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.6103071283620269</v>
+        <v>-0.5730267167843667</v>
       </c>
       <c r="G37" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H37" t="n">
-        <v>19.03639339473239</v>
+        <v>48.31081407164083</v>
       </c>
       <c r="I37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J37" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="K37" t="n">
-        <v>201.5369155597393</v>
+        <v>136.7177869255908</v>
       </c>
       <c r="L37" t="n">
-        <v>13.0876436298539</v>
+        <v>7.121979629537301</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,20 +3616,20 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.7861528482169018</v>
+        <v>0.8468591581615174</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1684699736921001</v>
+        <v>0.1436920693751923</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8937965848527922</v>
+        <v>0.9004984812716557</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U37" t="n">
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2233</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>2378</v>
+        <v>17</v>
       </c>
       <c r="C38" t="n">
-        <v>2792</v>
+        <v>72</v>
       </c>
       <c r="D38" t="n">
-        <v>3.128822417523458</v>
+        <v>1.338245328340875</v>
       </c>
       <c r="E38" t="n">
-        <v>2.603999117159862</v>
+        <v>0.6797823021981014</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5248233003635963</v>
+        <v>-0.6584630261427739</v>
       </c>
       <c r="G38" t="n">
-        <v>559</v>
+        <v>72</v>
       </c>
       <c r="H38" t="n">
-        <v>76.26809617516756</v>
+        <v>24.45437061811002</v>
       </c>
       <c r="I38" t="n">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="J38" t="n">
-        <v>414</v>
+        <v>55</v>
       </c>
       <c r="K38" t="n">
-        <v>452.0391963441569</v>
+        <v>68.83634959863693</v>
       </c>
       <c r="L38" t="n">
-        <v>8.081194208152919</v>
+        <v>4.960928708917279</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,20 +3702,20 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.5381598228265473</v>
+        <v>0.8867110124622342</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3502415458937198</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="R38" t="n">
-        <v>0.4957001798045469</v>
+        <v>0.1901560104784672</v>
       </c>
       <c r="S38" t="n">
-        <v>0.3756366298821604</v>
+        <v>0.7737492830879903</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U38" t="n">
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2792</v>
+        <v>215</v>
       </c>
       <c r="B39" t="n">
-        <v>2847</v>
+        <v>242</v>
       </c>
       <c r="C39" t="n">
-        <v>2916</v>
+        <v>293</v>
       </c>
       <c r="D39" t="n">
-        <v>3.137524862695885</v>
+        <v>3.1854449479149</v>
       </c>
       <c r="E39" t="n">
-        <v>2.612701562332289</v>
+        <v>2.526981921772126</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5248233003635963</v>
+        <v>-0.6584630261427739</v>
       </c>
       <c r="G39" t="n">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="H39" t="n">
-        <v>43.64515241242361</v>
+        <v>24.51528641772504</v>
       </c>
       <c r="I39" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J39" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K39" t="n">
-        <v>298.7782347882497</v>
+        <v>157.2369590675878</v>
       </c>
       <c r="L39" t="n">
-        <v>8.103671082880711</v>
+        <v>11.80857123736679</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,20 +3788,20 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.6355295822305144</v>
+        <v>0.8355173415268251</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7971014492753623</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4497774090051554</v>
+        <v>0.20188738391224</v>
       </c>
       <c r="S39" t="n">
-        <v>0.5678732735346912</v>
+        <v>0.9761939601163407</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U39" t="n">
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2916</v>
+        <v>612</v>
       </c>
       <c r="B40" t="n">
-        <v>2944</v>
+        <v>638</v>
       </c>
       <c r="C40" t="n">
-        <v>2998</v>
+        <v>691</v>
       </c>
       <c r="D40" t="n">
-        <v>3.239662169445491</v>
+        <v>2.210779246339826</v>
       </c>
       <c r="E40" t="n">
-        <v>2.714838869081895</v>
+        <v>1.552316220197052</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5248233003635963</v>
+        <v>-0.6584630261427739</v>
       </c>
       <c r="G40" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H40" t="n">
-        <v>35.63522773229124</v>
+        <v>17.55561659067394</v>
       </c>
       <c r="I40" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J40" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40" t="n">
-        <v>196.9835232133666</v>
+        <v>127.3558218256555</v>
       </c>
       <c r="L40" t="n">
-        <v>8.367473658290079</v>
+        <v>8.19544667930432</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,20 +3874,20 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8337533374556944</v>
+        <v>0.7980674521817014</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1949617946185078</v>
+        <v>0.2089843403029849</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9126755700016721</v>
+        <v>0.927454572652737</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U40" t="n">
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1768</v>
+        <v>1672</v>
       </c>
       <c r="B41" t="n">
-        <v>1800</v>
+        <v>1739</v>
       </c>
       <c r="C41" t="n">
-        <v>1859</v>
+        <v>1823</v>
       </c>
       <c r="D41" t="n">
-        <v>5.75824605147645</v>
+        <v>3.578263818150568</v>
       </c>
       <c r="E41" t="n">
-        <v>5.304420631732948</v>
+        <v>3.115500310749384</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4538254197435027</v>
+        <v>-0.462763507401184</v>
       </c>
       <c r="G41" t="n">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="H41" t="n">
-        <v>66.23806324735165</v>
+        <v>130.466483074355</v>
       </c>
       <c r="I41" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="J41" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="K41" t="n">
-        <v>321.2700123683168</v>
+        <v>402.71764594739</v>
       </c>
       <c r="L41" t="n">
-        <v>19.16587939457104</v>
+        <v>9.826495598216594</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,20 +3960,20 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.8112907346725254</v>
+        <v>0.5447700538559191</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.5423728813559322</v>
+        <v>0.7976190476190477</v>
       </c>
       <c r="R41" t="n">
-        <v>0.3017417263970167</v>
+        <v>0.1175957166034095</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9327045127148047</v>
+        <v>0.708983155777037</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U41" t="n">
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2790</v>
+        <v>2001</v>
       </c>
       <c r="B42" t="n">
-        <v>2838</v>
+        <v>2046</v>
       </c>
       <c r="C42" t="n">
-        <v>2940</v>
+        <v>2128</v>
       </c>
       <c r="D42" t="n">
-        <v>4.520446858547691</v>
+        <v>4.20538596723487</v>
       </c>
       <c r="E42" t="n">
-        <v>4.081317920512895</v>
+        <v>3.730130552530335</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4391289380347967</v>
+        <v>-0.4752554147045345</v>
       </c>
       <c r="G42" t="n">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="H42" t="n">
-        <v>98.01356721860793</v>
+        <v>127.930073832141</v>
       </c>
       <c r="I42" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J42" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="K42" t="n">
-        <v>513.6306834934836</v>
+        <v>324.4189006976311</v>
       </c>
       <c r="L42" t="n">
-        <v>14.84214827492337</v>
+        <v>13.82444877114999</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,20 +4046,20 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8093377086517057</v>
+        <v>0.8017446577108144</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5487804878048781</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2386677597869754</v>
+        <v>0.7009002305882323</v>
       </c>
       <c r="S42" t="n">
-        <v>0.7814972849700053</v>
+        <v>0.9544357798754357</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U42" t="n">
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2203</v>
+        <v>2128</v>
       </c>
       <c r="B43" t="n">
-        <v>2234</v>
+        <v>2141</v>
       </c>
       <c r="C43" t="n">
-        <v>2375</v>
+        <v>2171</v>
       </c>
       <c r="D43" t="n">
-        <v>3.041663530411786</v>
+        <v>2.269874226147106</v>
       </c>
       <c r="E43" t="n">
-        <v>2.531196741520386</v>
+        <v>1.794618811442571</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5104667888913993</v>
+        <v>-0.4752554147045345</v>
       </c>
       <c r="G43" t="n">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="H43" t="n">
-        <v>51.79200388251138</v>
+        <v>11.57936311724779</v>
       </c>
       <c r="I43" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J43" t="n">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="K43" t="n">
-        <v>266.6908325783349</v>
+        <v>78.46255189826354</v>
       </c>
       <c r="L43" t="n">
-        <v>10.12989583591648</v>
+        <v>7.461802602855319</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,20 +4132,20 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.894846911649462</v>
+        <v>0.7610372123006353</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.2198581560283688</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3481232100042832</v>
+        <v>0.1322286646885673</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8451179797410751</v>
+        <v>0.8649077316399667</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U43" t="n">
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2938</v>
+        <v>201</v>
       </c>
       <c r="B44" t="n">
-        <v>2962</v>
+        <v>216</v>
       </c>
       <c r="C44" t="n">
-        <v>2998</v>
+        <v>244</v>
       </c>
       <c r="D44" t="n">
-        <v>1.857700285780457</v>
+        <v>2.675328539717045</v>
       </c>
       <c r="E44" t="n">
-        <v>1.347233496889058</v>
+        <v>2.07820094976679</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5104667888913993</v>
+        <v>-0.5971275899502554</v>
       </c>
       <c r="G44" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H44" t="n">
-        <v>36.06692771116468</v>
+        <v>13.97326213738299</v>
       </c>
       <c r="I44" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J44" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K44" t="n">
-        <v>92.62200197277622</v>
+        <v>90.54850127754462</v>
       </c>
       <c r="L44" t="n">
-        <v>6.186848151071019</v>
+        <v>11.53832004666754</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,20 +4218,20 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.5830546475078646</v>
+        <v>0.8100587655240732</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1857293048597016</v>
+        <v>0.1702098697994033</v>
       </c>
       <c r="S44" t="n">
-        <v>0.5390998932610913</v>
+        <v>0.9773832329883958</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U44" t="n">
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>765</v>
+        <v>333</v>
       </c>
       <c r="B45" t="n">
-        <v>834</v>
+        <v>354</v>
       </c>
       <c r="C45" t="n">
-        <v>998</v>
+        <v>383</v>
       </c>
       <c r="D45" t="n">
-        <v>5.495990994091793</v>
+        <v>2.812916599330557</v>
       </c>
       <c r="E45" t="n">
-        <v>5.092099608278152</v>
+        <v>2.215789009380301</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.4038913858136407</v>
+        <v>-0.5971275899502554</v>
       </c>
       <c r="G45" t="n">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>128.3814500354757</v>
+        <v>16.59206091311751</v>
       </c>
       <c r="I45" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="J45" t="n">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="K45" t="n">
-        <v>712.9731896038923</v>
+        <v>100.0359946770826</v>
       </c>
       <c r="L45" t="n">
-        <v>34.39259238933919</v>
+        <v>12.1317182192107</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,20 +4304,20 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.7642040163336281</v>
+        <v>0.8053668982696115</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.4207317073170732</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3599854193338884</v>
+        <v>0.2818436735648104</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9698249564419406</v>
+        <v>0.9748424029156024</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U45" t="n">
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>242</v>
+        <v>456</v>
       </c>
       <c r="B46" t="n">
-        <v>263</v>
+        <v>481</v>
       </c>
       <c r="C46" t="n">
-        <v>298</v>
+        <v>577</v>
       </c>
       <c r="D46" t="n">
-        <v>3.886389301991331</v>
+        <v>1.553579476523249</v>
       </c>
       <c r="E46" t="n">
-        <v>3.449323793611384</v>
+        <v>0.9564518865729938</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.4370655083799475</v>
+        <v>-0.5971275899502554</v>
       </c>
       <c r="G46" t="n">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="H46" t="n">
-        <v>23.24332453001051</v>
+        <v>28.97208677093704</v>
       </c>
       <c r="I46" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J46" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="K46" t="n">
-        <v>164.530542018148</v>
+        <v>104.3592689017237</v>
       </c>
       <c r="L46" t="n">
-        <v>13.91347481797531</v>
+        <v>6.700372291455228</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,20 +4390,20 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.7698530482337328</v>
+        <v>0.8427258640422297</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1388666327252009</v>
+        <v>0.2224734204336116</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9445092014423676</v>
+        <v>0.6562519142020635</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U46" t="n">
@@ -4420,6 +4420,3532 @@
         </is>
       </c>
       <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>577</v>
+      </c>
+      <c r="B47" t="n">
+        <v>606</v>
+      </c>
+      <c r="C47" t="n">
+        <v>677</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.406623140740015</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.809495550789759</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.5971275899502554</v>
+      </c>
+      <c r="G47" t="n">
+        <v>100</v>
+      </c>
+      <c r="H47" t="n">
+        <v>35.11737395265197</v>
+      </c>
+      <c r="I47" t="n">
+        <v>29</v>
+      </c>
+      <c r="J47" t="n">
+        <v>71</v>
+      </c>
+      <c r="K47" t="n">
+        <v>126.2007850784686</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10.37943101840921</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.9111912074424957</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.2238393260747063</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.9534728406009931</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>46</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>305</v>
+      </c>
+      <c r="B48" t="n">
+        <v>331</v>
+      </c>
+      <c r="C48" t="n">
+        <v>374</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7229171740762734</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1459454348087562</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5769717392675172</v>
+      </c>
+      <c r="G48" t="n">
+        <v>69</v>
+      </c>
+      <c r="H48" t="n">
+        <v>34.7814852490738</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>43</v>
+      </c>
+      <c r="K48" t="n">
+        <v>32.11482259774627</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.651716016183078</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7368349455307822</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.6046511627906976</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.1244250222343911</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9632561118792702</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>47</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>483</v>
+      </c>
+      <c r="B49" t="n">
+        <v>500</v>
+      </c>
+      <c r="C49" t="n">
+        <v>542</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.221719664219345</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.644747924951828</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.5769717392675172</v>
+      </c>
+      <c r="G49" t="n">
+        <v>59</v>
+      </c>
+      <c r="H49" t="n">
+        <v>23.11606518369962</v>
+      </c>
+      <c r="I49" t="n">
+        <v>17</v>
+      </c>
+      <c r="J49" t="n">
+        <v>42</v>
+      </c>
+      <c r="K49" t="n">
+        <v>227.8302982048853</v>
+      </c>
+      <c r="L49" t="n">
+        <v>21.32543238215871</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.7801935000912852</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.06451551466705299</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9383472128801225</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>48</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>542</v>
+      </c>
+      <c r="B50" t="n">
+        <v>552</v>
+      </c>
+      <c r="C50" t="n">
+        <v>613</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.547660333974499</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.970688594706982</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.5769717392675172</v>
+      </c>
+      <c r="G50" t="n">
+        <v>71</v>
+      </c>
+      <c r="H50" t="n">
+        <v>11.42321435550775</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>61</v>
+      </c>
+      <c r="K50" t="n">
+        <v>200.095336033126</v>
+      </c>
+      <c r="L50" t="n">
+        <v>17.92051499966886</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.7991717070108516</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.1639344262295082</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.2072102213910367</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.8976322574501217</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>49</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>613</v>
+      </c>
+      <c r="B51" t="n">
+        <v>640</v>
+      </c>
+      <c r="C51" t="n">
+        <v>720</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.027730816344663</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.450759077077145</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.5769717392675172</v>
+      </c>
+      <c r="G51" t="n">
+        <v>107</v>
+      </c>
+      <c r="H51" t="n">
+        <v>26.92748011652805</v>
+      </c>
+      <c r="I51" t="n">
+        <v>27</v>
+      </c>
+      <c r="J51" t="n">
+        <v>80</v>
+      </c>
+      <c r="K51" t="n">
+        <v>202.2270951227792</v>
+      </c>
+      <c r="L51" t="n">
+        <v>15.29416302616478</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8765407870740202</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.2333228497282737</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.8706616366827882</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>50</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>879</v>
+      </c>
+      <c r="B52" t="n">
+        <v>896</v>
+      </c>
+      <c r="C52" t="n">
+        <v>995</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.720740301534986</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.143768562267469</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.5769717392675172</v>
+      </c>
+      <c r="G52" t="n">
+        <v>116</v>
+      </c>
+      <c r="H52" t="n">
+        <v>16.50685350614185</v>
+      </c>
+      <c r="I52" t="n">
+        <v>17</v>
+      </c>
+      <c r="J52" t="n">
+        <v>99</v>
+      </c>
+      <c r="K52" t="n">
+        <v>145.2992275084484</v>
+      </c>
+      <c r="L52" t="n">
+        <v>8.692081394851513</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.7580847396578579</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.1717171717171717</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2431832731541565</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.6745359354695388</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>51</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>995</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.56977075007235</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9927990108048326</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.5769717392675172</v>
+      </c>
+      <c r="G53" t="n">
+        <v>105</v>
+      </c>
+      <c r="H53" t="n">
+        <v>62.75112629483954</v>
+      </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>65</v>
+      </c>
+      <c r="K53" t="n">
+        <v>136.2381598664374</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.929479607535391</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.655900990489083</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.05877911805751133</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.9432079091232074</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>52</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1738</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1791</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.7820159601683088</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2050442209007916</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.5769717392675172</v>
+      </c>
+      <c r="G54" t="n">
+        <v>53</v>
+      </c>
+      <c r="H54" t="n">
+        <v>28.59968581388421</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" t="n">
+        <v>31</v>
+      </c>
+      <c r="K54" t="n">
+        <v>34.2481358607054</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.950245351836256</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.6219079913732554</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.03245165847711434</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.9743428366714381</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>53</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="n">
+        <v>41</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.802890252056684</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.274140356856967</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.5287498951997173</v>
+      </c>
+      <c r="G55" t="n">
+        <v>41</v>
+      </c>
+      <c r="H55" t="n">
+        <v>17.0573214350382</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>30</v>
+      </c>
+      <c r="K55" t="n">
+        <v>51.828988094225</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.673172006919682</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.9232944454725116</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.3000328695265743</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.9091367656613665</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>54</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>388</v>
+      </c>
+      <c r="B56" t="n">
+        <v>410</v>
+      </c>
+      <c r="C56" t="n">
+        <v>459</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.592197772836919</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.063447877637202</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.5287498951997173</v>
+      </c>
+      <c r="G56" t="n">
+        <v>71</v>
+      </c>
+      <c r="H56" t="n">
+        <v>40.10162926826035</v>
+      </c>
+      <c r="I56" t="n">
+        <v>22</v>
+      </c>
+      <c r="J56" t="n">
+        <v>49</v>
+      </c>
+      <c r="K56" t="n">
+        <v>133.6237161444758</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6.719092332216</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8634200819845718</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.3164425630250405</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9447794553330719</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>55</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>459</v>
+      </c>
+      <c r="B57" t="n">
+        <v>471</v>
+      </c>
+      <c r="C57" t="n">
+        <v>499</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.943361481954996</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.414611586755279</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5287498951997173</v>
+      </c>
+      <c r="G57" t="n">
+        <v>40</v>
+      </c>
+      <c r="H57" t="n">
+        <v>27.94263483880002</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12</v>
+      </c>
+      <c r="J57" t="n">
+        <v>28</v>
+      </c>
+      <c r="K57" t="n">
+        <v>69.47082525615657</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.037279704872742</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.654282125147496</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.07003960976224292</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.6368586147718873</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>56</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>378</v>
+      </c>
+      <c r="B58" t="n">
+        <v>412</v>
+      </c>
+      <c r="C58" t="n">
+        <v>581</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.966884541585033</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.410693956508984</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5561905850760488</v>
+      </c>
+      <c r="G58" t="n">
+        <v>203</v>
+      </c>
+      <c r="H58" t="n">
+        <v>108.0385537827846</v>
+      </c>
+      <c r="I58" t="n">
+        <v>34</v>
+      </c>
+      <c r="J58" t="n">
+        <v>169</v>
+      </c>
+      <c r="K58" t="n">
+        <v>468.4574290647142</v>
+      </c>
+      <c r="L58" t="n">
+        <v>11.10220555457277</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8797479410522071</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.2011834319526627</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.281325866528597</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.8178707090177439</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>57</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>672</v>
+      </c>
+      <c r="B59" t="n">
+        <v>692</v>
+      </c>
+      <c r="C59" t="n">
+        <v>735</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.225142286249564</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.668951701173515</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5561905850760488</v>
+      </c>
+      <c r="G59" t="n">
+        <v>63</v>
+      </c>
+      <c r="H59" t="n">
+        <v>23.94889199081501</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>43</v>
+      </c>
+      <c r="K59" t="n">
+        <v>87.70813004893007</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6.227553837562356</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.9034700847930128</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.4651162790697674</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.4326841192531855</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.9640155729338016</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>58</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2038</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.657686130991751</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.101495545915702</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5561905850760488</v>
+      </c>
+      <c r="G60" t="n">
+        <v>107</v>
+      </c>
+      <c r="H60" t="n">
+        <v>73.28511869179965</v>
+      </c>
+      <c r="I60" t="n">
+        <v>34</v>
+      </c>
+      <c r="J60" t="n">
+        <v>73</v>
+      </c>
+      <c r="K60" t="n">
+        <v>125.8620517375809</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4.639402024007801</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.761041162129052</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.3041375233771647</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.5654844857455776</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>59</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>109</v>
+      </c>
+      <c r="B61" t="n">
+        <v>140</v>
+      </c>
+      <c r="C61" t="n">
+        <v>181</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.841949160760818</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.390666757159359</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.4512824036014595</v>
+      </c>
+      <c r="G61" t="n">
+        <v>72</v>
+      </c>
+      <c r="H61" t="n">
+        <v>32.75298342834748</v>
+      </c>
+      <c r="I61" t="n">
+        <v>31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>41</v>
+      </c>
+      <c r="K61" t="n">
+        <v>77.82749215104263</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5.16243887597676</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7351872745304296</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.7560975609756098</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.2291354497968402</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.8848412131587865</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>60</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>638</v>
+      </c>
+      <c r="B62" t="n">
+        <v>670</v>
+      </c>
+      <c r="C62" t="n">
+        <v>718</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.149083844952991</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.697801441351531</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.4512824036014595</v>
+      </c>
+      <c r="G62" t="n">
+        <v>80</v>
+      </c>
+      <c r="H62" t="n">
+        <v>46.49302070592933</v>
+      </c>
+      <c r="I62" t="n">
+        <v>32</v>
+      </c>
+      <c r="J62" t="n">
+        <v>48</v>
+      </c>
+      <c r="K62" t="n">
+        <v>105.7463492791411</v>
+      </c>
+      <c r="L62" t="n">
+        <v>6.023246583166463</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.7524985420448991</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.4084063505785243</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.7706034205466299</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>61</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>454</v>
+      </c>
+      <c r="B63" t="n">
+        <v>480</v>
+      </c>
+      <c r="C63" t="n">
+        <v>575</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.618172557928781</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.040755371948818</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5774171859799624</v>
+      </c>
+      <c r="G63" t="n">
+        <v>121</v>
+      </c>
+      <c r="H63" t="n">
+        <v>35.10897506662263</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>95</v>
+      </c>
+      <c r="K63" t="n">
+        <v>195.8951661137006</v>
+      </c>
+      <c r="L63" t="n">
+        <v>7.436050469222365</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8963303141732233</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.2736842105263158</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.3439011137218599</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.7486465431655352</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>62</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>575</v>
+      </c>
+      <c r="B64" t="n">
+        <v>606</v>
+      </c>
+      <c r="C64" t="n">
+        <v>735</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.585943080665086</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.008525894685123</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.5774171859799624</v>
+      </c>
+      <c r="G64" t="n">
+        <v>160</v>
+      </c>
+      <c r="H64" t="n">
+        <v>99.00475650208386</v>
+      </c>
+      <c r="I64" t="n">
+        <v>31</v>
+      </c>
+      <c r="J64" t="n">
+        <v>129</v>
+      </c>
+      <c r="K64" t="n">
+        <v>312.5830730311865</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.344513332449727</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8270830541804531</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.2403100775193799</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.1712829475232273</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.742057814607489</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>63</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>245</v>
+      </c>
+      <c r="B65" t="n">
+        <v>276</v>
+      </c>
+      <c r="C65" t="n">
+        <v>326</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.847087705859046</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.274726237625611</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.5723614682334351</v>
+      </c>
+      <c r="G65" t="n">
+        <v>81</v>
+      </c>
+      <c r="H65" t="n">
+        <v>58.38632132598815</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31</v>
+      </c>
+      <c r="J65" t="n">
+        <v>50</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.5331401071338</v>
+      </c>
+      <c r="L65" t="n">
+        <v>11.786084016837</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.7465345204375393</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.341100922801697</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.7444884545014026</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>64</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>449</v>
+      </c>
+      <c r="B66" t="n">
+        <v>477</v>
+      </c>
+      <c r="C66" t="n">
+        <v>549</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.173798577327142</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.601437109093707</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.5723614682334351</v>
+      </c>
+      <c r="G66" t="n">
+        <v>100</v>
+      </c>
+      <c r="H66" t="n">
+        <v>75.00349119147751</v>
+      </c>
+      <c r="I66" t="n">
+        <v>28</v>
+      </c>
+      <c r="J66" t="n">
+        <v>72</v>
+      </c>
+      <c r="K66" t="n">
+        <v>191.2031240354732</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9.723369869609618</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.8240442188235767</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.4210646248345421</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.7265212176634424</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>65</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>549</v>
+      </c>
+      <c r="B67" t="n">
+        <v>563</v>
+      </c>
+      <c r="C67" t="n">
+        <v>590</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.865667944162672</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.293306475929237</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.5723614682334351</v>
+      </c>
+      <c r="G67" t="n">
+        <v>41</v>
+      </c>
+      <c r="H67" t="n">
+        <v>20.27878914868768</v>
+      </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>27</v>
+      </c>
+      <c r="K67" t="n">
+        <v>65.21090341542865</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5.71573117606133</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.6868135264442689</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.03726486967819086</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.9627282913186176</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>66</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>590</v>
+      </c>
+      <c r="B68" t="n">
+        <v>603</v>
+      </c>
+      <c r="C68" t="n">
+        <v>656</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.776237013245074</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.203875545011639</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.5723614682334351</v>
+      </c>
+      <c r="G68" t="n">
+        <v>66</v>
+      </c>
+      <c r="H68" t="n">
+        <v>17.0787079646758</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>53</v>
+      </c>
+      <c r="K68" t="n">
+        <v>87.02458511951421</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5.441747179311407</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.8922705198026164</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.2452830188679245</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.1972288448725441</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9666854904433878</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>67</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>656</v>
+      </c>
+      <c r="B69" t="n">
+        <v>681</v>
+      </c>
+      <c r="C69" t="n">
+        <v>714</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.240602070415888</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.668240602182453</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.5723614682334351</v>
+      </c>
+      <c r="G69" t="n">
+        <v>58</v>
+      </c>
+      <c r="H69" t="n">
+        <v>29.89348095957132</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+      <c r="J69" t="n">
+        <v>33</v>
+      </c>
+      <c r="K69" t="n">
+        <v>56.54930769947388</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3.800755623822869</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.7712962319513619</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.2094585287371047</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9530810670733094</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>68</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2251</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2582</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.820046657401736</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.20911763388102</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.6109290235207163</v>
+      </c>
+      <c r="G70" t="n">
+        <v>331</v>
+      </c>
+      <c r="H70" t="n">
+        <v>88.46570075059844</v>
+      </c>
+      <c r="I70" t="n">
+        <v>128</v>
+      </c>
+      <c r="J70" t="n">
+        <v>203</v>
+      </c>
+      <c r="K70" t="n">
+        <v>338.027359954634</v>
+      </c>
+      <c r="L70" t="n">
+        <v>11.75672696928172</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.6363071929480107</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.6305418719211823</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.410206841203661</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.969672919681918</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>69</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2917</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2943</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.180064567990498</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.569135544469781</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.6109290235207163</v>
+      </c>
+      <c r="G71" t="n">
+        <v>81</v>
+      </c>
+      <c r="H71" t="n">
+        <v>18.9365272855307</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26</v>
+      </c>
+      <c r="J71" t="n">
+        <v>55</v>
+      </c>
+      <c r="K71" t="n">
+        <v>204.3593712402277</v>
+      </c>
+      <c r="L71" t="n">
+        <v>13.25763556869586</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.7507474309036045</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.1707976483071087</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.8129236575358822</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>70</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2794</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.19074076544123</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.651528399310194</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.5392123661310362</v>
+      </c>
+      <c r="G72" t="n">
+        <v>559</v>
+      </c>
+      <c r="H72" t="n">
+        <v>75.78565125454998</v>
+      </c>
+      <c r="I72" t="n">
+        <v>144</v>
+      </c>
+      <c r="J72" t="n">
+        <v>415</v>
+      </c>
+      <c r="K72" t="n">
+        <v>461.1771923420098</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.208040075792912</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.5394771964381652</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.3469879518072289</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.4651094307991765</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.3756853070726286</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>71</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2794</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2845</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2918</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.129480067018799</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.590267700887762</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.5392123661310362</v>
+      </c>
+      <c r="G73" t="n">
+        <v>124</v>
+      </c>
+      <c r="H73" t="n">
+        <v>49.2477342175689</v>
+      </c>
+      <c r="I73" t="n">
+        <v>51</v>
+      </c>
+      <c r="J73" t="n">
+        <v>73</v>
+      </c>
+      <c r="K73" t="n">
+        <v>304.6011727389937</v>
+      </c>
+      <c r="L73" t="n">
+        <v>8.050449627465516</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.6998500916626028</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.6986301369863014</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.4196020576495275</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.5630412260866773</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>72</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2918</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2943</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.343957875125017</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.804745508993981</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.5392123661310362</v>
+      </c>
+      <c r="G74" t="n">
+        <v>80</v>
+      </c>
+      <c r="H74" t="n">
+        <v>34.0943816946542</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+      <c r="J74" t="n">
+        <v>55</v>
+      </c>
+      <c r="K74" t="n">
+        <v>193.2958635290983</v>
+      </c>
+      <c r="L74" t="n">
+        <v>8.602184341664595</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.8561286789356994</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.1912617600425182</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.9101925801229064</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>73</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>280</v>
+      </c>
+      <c r="B75" t="n">
+        <v>296</v>
+      </c>
+      <c r="C75" t="n">
+        <v>317</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.460549826036856</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9672793203160726</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.4932705057207833</v>
+      </c>
+      <c r="G75" t="n">
+        <v>37</v>
+      </c>
+      <c r="H75" t="n">
+        <v>20.96892517476789</v>
+      </c>
+      <c r="I75" t="n">
+        <v>16</v>
+      </c>
+      <c r="J75" t="n">
+        <v>21</v>
+      </c>
+      <c r="K75" t="n">
+        <v>32.79992232425966</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3.381248467558267</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.7186542748635425</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.1795385189655947</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.8773904890451083</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>74</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1243</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1289</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1386</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.442399785831824</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.94912928011104</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.4932705057207833</v>
+      </c>
+      <c r="G76" t="n">
+        <v>143</v>
+      </c>
+      <c r="H76" t="n">
+        <v>104.7865181574045</v>
+      </c>
+      <c r="I76" t="n">
+        <v>46</v>
+      </c>
+      <c r="J76" t="n">
+        <v>97</v>
+      </c>
+      <c r="K76" t="n">
+        <v>294.7654105681361</v>
+      </c>
+      <c r="L76" t="n">
+        <v>7.96933373519367</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.7156586967314116</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.4742268041237113</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.1044647462369129</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.8669311184516078</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>75</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1770</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1798</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1858</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5.842638135272646</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5.383334266061429</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.4593038692112157</v>
+      </c>
+      <c r="G77" t="n">
+        <v>88</v>
+      </c>
+      <c r="H77" t="n">
+        <v>64.99040347190521</v>
+      </c>
+      <c r="I77" t="n">
+        <v>28</v>
+      </c>
+      <c r="J77" t="n">
+        <v>60</v>
+      </c>
+      <c r="K77" t="n">
+        <v>319.4836495817485</v>
+      </c>
+      <c r="L77" t="n">
+        <v>19.38045681574745</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.8321625021469297</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.2957486625423</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.907616376572994</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>76</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1858</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2199</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4.215359353315572</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.756055484104356</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.4593038692112157</v>
+      </c>
+      <c r="G78" t="n">
+        <v>341</v>
+      </c>
+      <c r="H78" t="n">
+        <v>70.16724179614448</v>
+      </c>
+      <c r="I78" t="n">
+        <v>60</v>
+      </c>
+      <c r="J78" t="n">
+        <v>281</v>
+      </c>
+      <c r="K78" t="n">
+        <v>488.1681385267195</v>
+      </c>
+      <c r="L78" t="n">
+        <v>13.98265441369445</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.7148179993961657</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.2135231316725979</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.6532849365217066</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.6227800625039319</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>77</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2297</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2328</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2395</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.49387738380407</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.034573514592854</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.4593038692112157</v>
+      </c>
+      <c r="G79" t="n">
+        <v>98</v>
+      </c>
+      <c r="H79" t="n">
+        <v>96.7867938008053</v>
+      </c>
+      <c r="I79" t="n">
+        <v>31</v>
+      </c>
+      <c r="J79" t="n">
+        <v>67</v>
+      </c>
+      <c r="K79" t="n">
+        <v>93.71236117232877</v>
+      </c>
+      <c r="L79" t="n">
+        <v>4.955300235017125</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.8150069764124588</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.4626865671641791</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.314684588173065</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.8723837116741768</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>78</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2790</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2842</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2931</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.533961004314844</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.085597817401959</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.4483631869128851</v>
+      </c>
+      <c r="G80" t="n">
+        <v>141</v>
+      </c>
+      <c r="H80" t="n">
+        <v>96.87606372302434</v>
+      </c>
+      <c r="I80" t="n">
+        <v>52</v>
+      </c>
+      <c r="J80" t="n">
+        <v>89</v>
+      </c>
+      <c r="K80" t="n">
+        <v>493.8690600148138</v>
+      </c>
+      <c r="L80" t="n">
+        <v>14.7731362209868</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.7480152692248794</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.5842696629213483</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.2539104718394359</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.6922851818561135</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>79</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2896</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2914</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2938</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.310965161506297</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.790297781030417</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.5206673804758795</v>
+      </c>
+      <c r="G81" t="n">
+        <v>42</v>
+      </c>
+      <c r="H81" t="n">
+        <v>108.5923958933604</v>
+      </c>
+      <c r="I81" t="n">
+        <v>18</v>
+      </c>
+      <c r="J81" t="n">
+        <v>24</v>
+      </c>
+      <c r="K81" t="n">
+        <v>108.6589530663621</v>
+      </c>
+      <c r="L81" t="n">
+        <v>10.8262103130143</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.7273805764593321</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.2450649258473152</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.9318950230988141</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>80</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>456</v>
+      </c>
+      <c r="B82" t="n">
+        <v>480</v>
+      </c>
+      <c r="C82" t="n">
+        <v>695</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.421301846333076</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.010199695005495</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.4111021513275813</v>
+      </c>
+      <c r="G82" t="n">
+        <v>239</v>
+      </c>
+      <c r="H82" t="n">
+        <v>68.93905746383507</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>215</v>
+      </c>
+      <c r="K82" t="n">
+        <v>152.0864610763089</v>
+      </c>
+      <c r="L82" t="n">
+        <v>8.761583570617573</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.8361305259396152</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.1116279069767442</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.3632638599666668</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.8268501436598755</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>81</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>767</v>
+      </c>
+      <c r="B83" t="n">
+        <v>836</v>
+      </c>
+      <c r="C83" t="n">
+        <v>955</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5.584177925274417</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.173075773946835</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.4111021513275813</v>
+      </c>
+      <c r="G83" t="n">
+        <v>188</v>
+      </c>
+      <c r="H83" t="n">
+        <v>128.5307084309441</v>
+      </c>
+      <c r="I83" t="n">
+        <v>69</v>
+      </c>
+      <c r="J83" t="n">
+        <v>119</v>
+      </c>
+      <c r="K83" t="n">
+        <v>662.0676097691485</v>
+      </c>
+      <c r="L83" t="n">
+        <v>34.42354042648868</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.6451622423969871</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.5798319327731093</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.2832228711981898</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.9789202981790051</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>82</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>955</v>
+      </c>
+      <c r="B84" t="n">
+        <v>968</v>
+      </c>
+      <c r="C84" t="n">
+        <v>998</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.500811342158845</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.089709190831264</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.4111021513275813</v>
+      </c>
+      <c r="G84" t="n">
+        <v>43</v>
+      </c>
+      <c r="H84" t="n">
+        <v>18.88649617208887</v>
+      </c>
+      <c r="I84" t="n">
+        <v>13</v>
+      </c>
+      <c r="J84" t="n">
+        <v>30</v>
+      </c>
+      <c r="K84" t="n">
+        <v>51.99109308711387</v>
+      </c>
+      <c r="L84" t="n">
+        <v>9.251718086471774</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.8449985271186042</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.1767024840176106</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.8986806554474712</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>83</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>561</v>
+      </c>
+      <c r="B85" t="n">
+        <v>576</v>
+      </c>
+      <c r="C85" t="n">
+        <v>598</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.78875846645878</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.324901700693738</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.4638567657650415</v>
+      </c>
+      <c r="G85" t="n">
+        <v>37</v>
+      </c>
+      <c r="H85" t="n">
+        <v>20.96098884929393</v>
+      </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="n">
+        <v>22</v>
+      </c>
+      <c r="K85" t="n">
+        <v>46.32026605036578</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4.589565319868757</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.6401455441490237</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.05824820584903408</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.9372700894636724</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>84</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>598</v>
+      </c>
+      <c r="B86" t="n">
+        <v>628</v>
+      </c>
+      <c r="C86" t="n">
+        <v>675</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.927399732271223</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.463542966506181</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.4638567657650415</v>
+      </c>
+      <c r="G86" t="n">
+        <v>77</v>
+      </c>
+      <c r="H86" t="n">
+        <v>30.42001700496314</v>
+      </c>
+      <c r="I86" t="n">
+        <v>30</v>
+      </c>
+      <c r="J86" t="n">
+        <v>47</v>
+      </c>
+      <c r="K86" t="n">
+        <v>117.3866779309503</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4.945288665086621</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.7957231631519178</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.2113058164047447</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.7784807779044268</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>85</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>237</v>
+      </c>
+      <c r="B87" t="n">
+        <v>263</v>
+      </c>
+      <c r="C87" t="n">
+        <v>297</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4.041682314314556</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.59355315678112</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.4481291575334363</v>
+      </c>
+      <c r="G87" t="n">
+        <v>60</v>
+      </c>
+      <c r="H87" t="n">
+        <v>22.31425362474593</v>
+      </c>
+      <c r="I87" t="n">
+        <v>26</v>
+      </c>
+      <c r="J87" t="n">
+        <v>34</v>
+      </c>
+      <c r="K87" t="n">
+        <v>176.786294800206</v>
+      </c>
+      <c r="L87" t="n">
+        <v>14.29375288222458</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.6417917304738321</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.1251956671065429</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.9358320686765129</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>86</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X87"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>131</v>
@@ -566,31 +566,31 @@
         <v>296</v>
       </c>
       <c r="D2" t="n">
-        <v>4.025101464013768</v>
+        <v>4.003990131892082</v>
       </c>
       <c r="E2" t="n">
-        <v>3.347602598664839</v>
+        <v>3.326622805743577</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6774988653489288</v>
+        <v>-0.6773673261485048</v>
       </c>
       <c r="G2" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H2" t="n">
-        <v>158.2683535592142</v>
+        <v>160.4781609917518</v>
       </c>
       <c r="I2" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>165</v>
       </c>
       <c r="K2" t="n">
-        <v>528.1480963805063</v>
+        <v>522.0882506565096</v>
       </c>
       <c r="L2" t="n">
-        <v>16.63763575900625</v>
+        <v>16.56598648017359</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8264290120448107</v>
+        <v>0.8025100527091578</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2606060606060606</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1313759697209628</v>
+        <v>0.1201013134060788</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9059030286384546</v>
+        <v>0.9083260332292223</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -652,19 +652,19 @@
         <v>360</v>
       </c>
       <c r="D3" t="n">
-        <v>2.171618195645565</v>
+        <v>2.158786121446781</v>
       </c>
       <c r="E3" t="n">
-        <v>1.494119330296636</v>
+        <v>1.481418795298276</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6774988653489288</v>
+        <v>-0.6773673261485048</v>
       </c>
       <c r="G3" t="n">
         <v>64</v>
       </c>
       <c r="H3" t="n">
-        <v>26.15134094148931</v>
+        <v>26.46988084456825</v>
       </c>
       <c r="I3" t="n">
         <v>27</v>
@@ -673,10 +673,10 @@
         <v>37</v>
       </c>
       <c r="K3" t="n">
-        <v>107.8025399532495</v>
+        <v>107.8461339039658</v>
       </c>
       <c r="L3" t="n">
-        <v>8.976318453039054</v>
+        <v>8.931695764338524</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.6671551062469114</v>
+        <v>0.6596796747708031</v>
       </c>
       <c r="Q3" t="n">
         <v>0.7297297297297297</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05780187314794463</v>
+        <v>0.05064459323399811</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9557425245145045</v>
+        <v>0.9593414996346704</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B4" t="n">
         <v>1099</v>
@@ -738,31 +738,31 @@
         <v>1151</v>
       </c>
       <c r="D4" t="n">
-        <v>2.870855370894501</v>
+        <v>2.845352178508437</v>
       </c>
       <c r="E4" t="n">
-        <v>2.193356505545573</v>
+        <v>2.167984852359932</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6774988653489288</v>
+        <v>-0.6773673261485048</v>
       </c>
       <c r="G4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>134.6503460556138</v>
+        <v>134.853448835211</v>
       </c>
       <c r="I4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
         <v>52</v>
       </c>
       <c r="K4" t="n">
-        <v>189.732843930129</v>
+        <v>187.3694475085529</v>
       </c>
       <c r="L4" t="n">
-        <v>11.86659427216023</v>
+        <v>11.77227319944196</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6948029412154364</v>
+        <v>0.705727095617934</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1099112808646274</v>
+        <v>0.1134412900913027</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9265910151669716</v>
+        <v>0.9316259737848098</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -818,37 +818,37 @@
         <v>1723</v>
       </c>
       <c r="B5" t="n">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C5" t="n">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D5" t="n">
-        <v>1.184450041957338</v>
+        <v>1.167550479521241</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5069511766084088</v>
+        <v>0.4901831533727358</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6774988653489288</v>
+        <v>-0.6773673261485048</v>
       </c>
       <c r="G5" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" t="n">
-        <v>26.50746921493419</v>
+        <v>26.80258178071176</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5" t="n">
-        <v>43.46807462897397</v>
+        <v>43.09820383840565</v>
       </c>
       <c r="L5" t="n">
-        <v>4.895888600327332</v>
+        <v>4.83058769416327</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.9373808775700252</v>
+        <v>0.9306885574210376</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2053273105996484</v>
+        <v>0.2100638574098149</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9901364697335647</v>
+        <v>0.991244953020605</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B6" t="n">
         <v>444</v>
       </c>
       <c r="C6" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D6" t="n">
-        <v>2.703911560323553</v>
+        <v>2.702516842783859</v>
       </c>
       <c r="E6" t="n">
-        <v>2.03121348157587</v>
+        <v>2.028383349647656</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6726980787476821</v>
+        <v>-0.6741334931362032</v>
       </c>
       <c r="G6" t="n">
         <v>170</v>
       </c>
       <c r="H6" t="n">
-        <v>116.7082049015581</v>
+        <v>116.9361888817784</v>
       </c>
       <c r="I6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K6" t="n">
-        <v>314.8623555619001</v>
+        <v>314.3985999955773</v>
       </c>
       <c r="L6" t="n">
-        <v>11.7694629285093</v>
+        <v>11.76930471002033</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.7532704578250267</v>
+        <v>0.7498094246455937</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.452991452991453</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1792333061726971</v>
+        <v>0.1941004894561376</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8323695888728085</v>
+        <v>0.8330823949732205</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -993,34 +993,34 @@
         <v>665</v>
       </c>
       <c r="C7" t="n">
-        <v>770</v>
+        <v>827</v>
       </c>
       <c r="D7" t="n">
-        <v>2.489997293175342</v>
+        <v>2.464993841422364</v>
       </c>
       <c r="E7" t="n">
-        <v>1.817299214427661</v>
+        <v>1.790860348286161</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6726980787476821</v>
+        <v>-0.6741334931362032</v>
       </c>
       <c r="G7" t="n">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="H7" t="n">
-        <v>108.6771880525218</v>
+        <v>108.4850064141688</v>
       </c>
       <c r="I7" t="n">
         <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="K7" t="n">
-        <v>206.1990820002659</v>
+        <v>251.8787299286754</v>
       </c>
       <c r="L7" t="n">
-        <v>10.8383466619777</v>
+        <v>10.73490576219273</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8742702786432714</v>
+        <v>0.8474785936806655</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3033615710716772</v>
+        <v>0.414783930500165</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8288492431826651</v>
+        <v>0.7992220103211534</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>770</v>
+        <v>1706</v>
       </c>
       <c r="B8" t="n">
-        <v>795</v>
+        <v>1774</v>
       </c>
       <c r="C8" t="n">
-        <v>827</v>
+        <v>1866</v>
       </c>
       <c r="D8" t="n">
-        <v>1.083954520106961</v>
+        <v>3.521480864429523</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4112564413592793</v>
+        <v>2.847347371293319</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6726980787476821</v>
+        <v>-0.6741334931362032</v>
       </c>
       <c r="G8" t="n">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="H8" t="n">
-        <v>18.20245183717964</v>
+        <v>210.7050425226676</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="J8" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="K8" t="n">
-        <v>45.46067851137999</v>
+        <v>415.0071621948254</v>
       </c>
       <c r="L8" t="n">
-        <v>4.718187801624098</v>
+        <v>15.33584570791574</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7447340638478576</v>
+        <v>0.5716568137416536</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.78125</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1863575836165976</v>
+        <v>0.1841816314602717</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9222925137513712</v>
+        <v>0.9120392097119688</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1706</v>
+        <v>2776</v>
       </c>
       <c r="B9" t="n">
-        <v>1774</v>
+        <v>2801</v>
       </c>
       <c r="C9" t="n">
-        <v>1867</v>
+        <v>2910</v>
       </c>
       <c r="D9" t="n">
-        <v>3.529115768413172</v>
+        <v>1.889844763718285</v>
       </c>
       <c r="E9" t="n">
-        <v>2.85641768966549</v>
+        <v>1.215711270582082</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6726980787476821</v>
+        <v>-0.6741334931362032</v>
       </c>
       <c r="G9" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="H9" t="n">
-        <v>211.2465331793946</v>
+        <v>45.93001597220473</v>
       </c>
       <c r="I9" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J9" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="K9" t="n">
-        <v>416.1844488768546</v>
+        <v>125.0670416467131</v>
       </c>
       <c r="L9" t="n">
-        <v>15.36137417223299</v>
+        <v>8.230164758538654</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.5660970157212923</v>
+        <v>0.9391195449954516</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="R9" t="n">
-        <v>0.187247524628347</v>
+        <v>0.3168233043603397</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9110839065923401</v>
+        <v>0.9326001086882773</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2776</v>
+        <v>2910</v>
       </c>
       <c r="B10" t="n">
-        <v>2800</v>
+        <v>2945</v>
       </c>
       <c r="C10" t="n">
-        <v>2910</v>
+        <v>2998</v>
       </c>
       <c r="D10" t="n">
-        <v>1.920086713120321</v>
+        <v>1.912350432274859</v>
       </c>
       <c r="E10" t="n">
-        <v>1.247388634372639</v>
+        <v>1.238216939138656</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6726980787476821</v>
+        <v>-0.6741334931362032</v>
       </c>
       <c r="G10" t="n">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="H10" t="n">
-        <v>45.5455779378467</v>
+        <v>30.66351895567368</v>
       </c>
       <c r="I10" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="K10" t="n">
-        <v>124.977412690066</v>
+        <v>106.3498976421912</v>
       </c>
       <c r="L10" t="n">
-        <v>8.357665879755601</v>
+        <v>8.328175644817609</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.9317089987036018</v>
+        <v>0.7699866817246935</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2181818181818182</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="R10" t="n">
-        <v>0.307621061404114</v>
+        <v>0.1833718572685308</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9305081071999446</v>
+        <v>0.8583916018342178</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2910</v>
+        <v>902</v>
       </c>
       <c r="B11" t="n">
-        <v>2945</v>
+        <v>938</v>
       </c>
       <c r="C11" t="n">
-        <v>2998</v>
+        <v>1092</v>
       </c>
       <c r="D11" t="n">
-        <v>1.91324121980996</v>
+        <v>5.055500874335028</v>
       </c>
       <c r="E11" t="n">
-        <v>1.240543141062278</v>
+        <v>4.47821895753361</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6726980787476821</v>
+        <v>-0.5772819168014176</v>
       </c>
       <c r="G11" t="n">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="H11" t="n">
-        <v>32.05071181373432</v>
+        <v>122.1572440194313</v>
       </c>
       <c r="I11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J11" t="n">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="K11" t="n">
-        <v>106.2835710383792</v>
+        <v>534.4627143465849</v>
       </c>
       <c r="L11" t="n">
-        <v>8.327869128661417</v>
+        <v>26.99357035759236</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,20 +1380,20 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7807515922074858</v>
+        <v>0.9021414571842834</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.660377358490566</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="R11" t="n">
-        <v>0.194946871451011</v>
+        <v>0.2035618687724742</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8264092120732658</v>
+        <v>0.9759368091123741</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>902</v>
+        <v>2210</v>
       </c>
       <c r="B12" t="n">
-        <v>938</v>
+        <v>2238</v>
       </c>
       <c r="C12" t="n">
-        <v>1094</v>
+        <v>2373</v>
       </c>
       <c r="D12" t="n">
-        <v>5.053834073135213</v>
+        <v>3.345559794702043</v>
       </c>
       <c r="E12" t="n">
-        <v>4.478318980801136</v>
+        <v>2.768277877900625</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5755150923340767</v>
+        <v>-0.5772819168014176</v>
       </c>
       <c r="G12" t="n">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="H12" t="n">
-        <v>121.8316373010608</v>
+        <v>67.00114446553926</v>
       </c>
       <c r="I12" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J12" t="n">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="K12" t="n">
-        <v>536.2602900021378</v>
+        <v>258.6654746785709</v>
       </c>
       <c r="L12" t="n">
-        <v>26.96829693630728</v>
+        <v>17.86343350513227</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.906363572247688</v>
+        <v>0.9350474241338055</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2088120888033382</v>
+        <v>0.2793264763907391</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9767432935859917</v>
+        <v>0.9241476841732381</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2210</v>
+        <v>1170</v>
       </c>
       <c r="B13" t="n">
-        <v>2237</v>
+        <v>1201</v>
       </c>
       <c r="C13" t="n">
-        <v>2373</v>
+        <v>1254</v>
       </c>
       <c r="D13" t="n">
-        <v>3.360290624361715</v>
+        <v>2.734465183315018</v>
       </c>
       <c r="E13" t="n">
-        <v>2.784775532027639</v>
+        <v>2.128555635108015</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5755150923340767</v>
+        <v>-0.6059095482070032</v>
       </c>
       <c r="G13" t="n">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="H13" t="n">
-        <v>66.30207220907005</v>
+        <v>165.1403335114333</v>
       </c>
       <c r="I13" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J13" t="n">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="K13" t="n">
-        <v>258.3267246665632</v>
+        <v>158.4777186399521</v>
       </c>
       <c r="L13" t="n">
-        <v>17.93120115118026</v>
+        <v>5.465258381977974</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,20 +1552,20 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.9322764586489152</v>
+        <v>0.7762879750424596</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1985294117647059</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2814142871296877</v>
+        <v>0.2237003227322766</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9239088127187689</v>
+        <v>0.9474170375440685</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1170</v>
+        <v>1480</v>
       </c>
       <c r="B14" t="n">
-        <v>1200</v>
+        <v>1514</v>
       </c>
       <c r="C14" t="n">
-        <v>1255</v>
+        <v>1583</v>
       </c>
       <c r="D14" t="n">
-        <v>2.769868051481409</v>
+        <v>2.414795275941323</v>
       </c>
       <c r="E14" t="n">
-        <v>2.161879080669066</v>
+        <v>1.80888572773432</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6079889708123437</v>
+        <v>-0.6059095482070032</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H14" t="n">
-        <v>164.2037568335236</v>
+        <v>44.1318021560669</v>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J14" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K14" t="n">
-        <v>159.9796020650739</v>
+        <v>183.9171262335707</v>
       </c>
       <c r="L14" t="n">
-        <v>5.537641667695592</v>
+        <v>4.826347836910362</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,16 +1638,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7885028015063426</v>
+        <v>0.8628711293859291</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2349310696660536</v>
+        <v>0.2010870324547759</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9452183132617481</v>
+        <v>0.9695283675197983</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1480</v>
+        <v>2254</v>
       </c>
       <c r="B15" t="n">
-        <v>1514</v>
+        <v>2284</v>
       </c>
       <c r="C15" t="n">
-        <v>1584</v>
+        <v>2472</v>
       </c>
       <c r="D15" t="n">
-        <v>2.427804031216624</v>
+        <v>2.110665305849726</v>
       </c>
       <c r="E15" t="n">
-        <v>1.81981506040428</v>
+        <v>1.504755757642723</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6079889708123437</v>
+        <v>-0.6059095482070032</v>
       </c>
       <c r="G15" t="n">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="H15" t="n">
-        <v>44.78272943312004</v>
+        <v>121.6769766338998</v>
       </c>
       <c r="I15" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J15" t="n">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="K15" t="n">
-        <v>185.566681166325</v>
+        <v>248.5447387137446</v>
       </c>
       <c r="L15" t="n">
-        <v>4.853772278818149</v>
+        <v>4.218496298556243</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8653464836567123</v>
+        <v>0.8291232097898794</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2019871296712501</v>
+        <v>0.2186712629756805</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9682593543334319</v>
+        <v>0.697659483687046</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2254</v>
+        <v>2882</v>
       </c>
       <c r="B16" t="n">
-        <v>2283</v>
+        <v>2933</v>
       </c>
       <c r="C16" t="n">
-        <v>2472</v>
+        <v>2998</v>
       </c>
       <c r="D16" t="n">
-        <v>2.100408514675491</v>
+        <v>2.814423313759071</v>
       </c>
       <c r="E16" t="n">
-        <v>1.492419543863148</v>
+        <v>2.208513765552067</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6079889708123437</v>
+        <v>-0.6059095482070032</v>
       </c>
       <c r="G16" t="n">
-        <v>218</v>
+        <v>116</v>
       </c>
       <c r="H16" t="n">
-        <v>122.6718970648753</v>
+        <v>40.1617373132417</v>
       </c>
       <c r="I16" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="J16" t="n">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="K16" t="n">
-        <v>249.0097512981876</v>
+        <v>182.3890163097392</v>
       </c>
       <c r="L16" t="n">
-        <v>4.199228805801357</v>
+        <v>5.62506727085433</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.824090124675428</v>
+        <v>0.7634118446816091</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1534391534391534</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2195785159674118</v>
+        <v>0.671565548050723</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6860877088148019</v>
+        <v>0.8127487551380791</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2882</v>
+        <v>1093</v>
       </c>
       <c r="B17" t="n">
-        <v>2932</v>
+        <v>1125</v>
       </c>
       <c r="C17" t="n">
-        <v>2998</v>
+        <v>1215</v>
       </c>
       <c r="D17" t="n">
-        <v>2.828096591121222</v>
+        <v>4.054005320214908</v>
       </c>
       <c r="E17" t="n">
-        <v>2.220107620308878</v>
+        <v>3.379800882223089</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6079889708123437</v>
+        <v>-0.6742044379918187</v>
       </c>
       <c r="G17" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H17" t="n">
-        <v>40.56557236953859</v>
+        <v>106.1451141035477</v>
       </c>
       <c r="I17" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J17" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K17" t="n">
-        <v>182.7899598305382</v>
+        <v>313.4589278218095</v>
       </c>
       <c r="L17" t="n">
-        <v>5.654054717474637</v>
+        <v>11.40445758144652</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,20 +1896,20 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7705577302425344</v>
+        <v>0.8159328807519598</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="R17" t="n">
-        <v>0.7193867796186699</v>
+        <v>0.1419701422745142</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8120435022281536</v>
+        <v>0.9690733984671658</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U17" t="n">
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1094</v>
+        <v>1613</v>
       </c>
       <c r="B18" t="n">
-        <v>1125</v>
+        <v>1658</v>
       </c>
       <c r="C18" t="n">
-        <v>1217</v>
+        <v>1795</v>
       </c>
       <c r="D18" t="n">
-        <v>4.116982136715709</v>
+        <v>2.560061123261507</v>
       </c>
       <c r="E18" t="n">
-        <v>3.439112372123991</v>
+        <v>1.885856685269689</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6778697645917181</v>
+        <v>-0.6742044379918187</v>
       </c>
       <c r="G18" t="n">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="H18" t="n">
-        <v>105.6451896912597</v>
+        <v>116.5137021388298</v>
       </c>
       <c r="I18" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J18" t="n">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="K18" t="n">
-        <v>315.4480031890237</v>
+        <v>284.3315938132656</v>
       </c>
       <c r="L18" t="n">
-        <v>11.54840021924356</v>
+        <v>7.201793332772063</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,16 +1982,16 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8240224130659609</v>
+        <v>0.8348927220060388</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3369565217391304</v>
+        <v>0.3284671532846715</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1411248472896659</v>
+        <v>0.1594816995958123</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9657271180621925</v>
+        <v>0.8564096675750967</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1614</v>
+        <v>2823</v>
       </c>
       <c r="B19" t="n">
-        <v>1659</v>
+        <v>2860</v>
       </c>
       <c r="C19" t="n">
-        <v>1795</v>
+        <v>2998</v>
       </c>
       <c r="D19" t="n">
-        <v>2.582019863877679</v>
+        <v>2.994692641439999</v>
       </c>
       <c r="E19" t="n">
-        <v>1.904150099285961</v>
+        <v>2.32048820344818</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6778697645917181</v>
+        <v>-0.6742044379918187</v>
       </c>
       <c r="G19" t="n">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H19" t="n">
-        <v>116.1638537294066</v>
+        <v>61.7104741570447</v>
       </c>
       <c r="I19" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J19" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19" t="n">
-        <v>284.2640881171679</v>
+        <v>226.4325202806003</v>
       </c>
       <c r="L19" t="n">
-        <v>7.242732120738192</v>
+        <v>8.424469753029829</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,16 +2068,16 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.8229031103214679</v>
+        <v>0.9005812524500824</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3308823529411765</v>
+        <v>0.2681159420289855</v>
       </c>
       <c r="R19" t="n">
-        <v>0.148239369422509</v>
+        <v>0.3352818277318709</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8546195198879585</v>
+        <v>0.6437143804281457</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2823</v>
+        <v>1302</v>
       </c>
       <c r="B20" t="n">
-        <v>2866</v>
+        <v>1353</v>
       </c>
       <c r="C20" t="n">
-        <v>2998</v>
+        <v>1448</v>
       </c>
       <c r="D20" t="n">
-        <v>2.980641104797958</v>
+        <v>2.876695914353542</v>
       </c>
       <c r="E20" t="n">
-        <v>2.30277134020624</v>
+        <v>2.324947116321769</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6778697645917181</v>
+        <v>-0.551748798031773</v>
       </c>
       <c r="G20" t="n">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="H20" t="n">
-        <v>61.96321200438433</v>
+        <v>70.04115884523048</v>
       </c>
       <c r="I20" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J20" t="n">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="K20" t="n">
-        <v>227.0756761152358</v>
+        <v>232.860040139374</v>
       </c>
       <c r="L20" t="n">
-        <v>8.36089039132793</v>
+        <v>10.18489635884467</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,20 +2154,20 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8564389680216417</v>
+        <v>0.8175934285798404</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3257575757575757</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4328480987900054</v>
+        <v>0.5759166942298897</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5933125997892477</v>
+        <v>0.8164139242266979</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U20" t="n">
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1448</v>
+        <v>1022</v>
       </c>
       <c r="B21" t="n">
-        <v>1478</v>
+        <v>1058</v>
       </c>
       <c r="C21" t="n">
-        <v>1558</v>
+        <v>1128</v>
       </c>
       <c r="D21" t="n">
-        <v>1.789712323944524</v>
+        <v>2.349134107852699</v>
       </c>
       <c r="E21" t="n">
-        <v>1.239235020602546</v>
+        <v>1.735003142857328</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5504773033419776</v>
+        <v>-0.614130964995372</v>
       </c>
       <c r="G21" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H21" t="n">
-        <v>31.23312507058768</v>
+        <v>203.7934014726923</v>
       </c>
       <c r="I21" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K21" t="n">
-        <v>140.9044868807279</v>
+        <v>169.8814012726564</v>
       </c>
       <c r="L21" t="n">
-        <v>6.328989556398205</v>
+        <v>5.264780665204082</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,20 +2240,20 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7849890696716051</v>
+        <v>0.7763187174494368</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.375</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1588973769978081</v>
+        <v>0.6568221698888272</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7136339928352373</v>
+        <v>0.841435007089501</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U21" t="n">
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1023</v>
+        <v>2021</v>
       </c>
       <c r="B22" t="n">
-        <v>1057</v>
+        <v>2046</v>
       </c>
       <c r="C22" t="n">
-        <v>1129</v>
+        <v>2135</v>
       </c>
       <c r="D22" t="n">
-        <v>2.354613734879215</v>
+        <v>1.994147240079167</v>
       </c>
       <c r="E22" t="n">
-        <v>1.73898963038182</v>
+        <v>1.380016275083795</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6156241044973947</v>
+        <v>-0.614130964995372</v>
       </c>
       <c r="G22" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H22" t="n">
-        <v>203.3631177157408</v>
+        <v>36.70589068122672</v>
       </c>
       <c r="I22" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J22" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K22" t="n">
-        <v>170.9979875045315</v>
+        <v>167.1393545184734</v>
       </c>
       <c r="L22" t="n">
-        <v>5.274630444037516</v>
+        <v>4.469199011688436</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7914024153050224</v>
+        <v>0.8341561783962343</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="R22" t="n">
-        <v>0.652835439195757</v>
+        <v>0.462415001106775</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8399675728534772</v>
+        <v>0.3804844958591139</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1129</v>
+        <v>2614</v>
       </c>
       <c r="B23" t="n">
-        <v>1159</v>
+        <v>2640</v>
       </c>
       <c r="C23" t="n">
-        <v>1245</v>
+        <v>2745</v>
       </c>
       <c r="D23" t="n">
-        <v>1.912760342585731</v>
+        <v>3.093277856970898</v>
       </c>
       <c r="E23" t="n">
-        <v>1.297136238088336</v>
+        <v>2.479146891975526</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6156241044973947</v>
+        <v>-0.614130964995372</v>
       </c>
       <c r="G23" t="n">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H23" t="n">
-        <v>67.06650914603119</v>
+        <v>36.54347345262295</v>
       </c>
       <c r="I23" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J23" t="n">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="K23" t="n">
-        <v>170.8050464502456</v>
+        <v>263.014439561909</v>
       </c>
       <c r="L23" t="n">
-        <v>4.284823360069234</v>
+        <v>6.932524371020484</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,16 +2412,16 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7696477476036903</v>
+        <v>0.9227309246401959</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3488372093023256</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="R23" t="n">
-        <v>0.105731425617692</v>
+        <v>0.2679862242692276</v>
       </c>
       <c r="S23" t="n">
-        <v>0.7973296561173242</v>
+        <v>0.9583540945048706</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2021</v>
+        <v>2745</v>
       </c>
       <c r="B24" t="n">
-        <v>2046</v>
+        <v>2798</v>
       </c>
       <c r="C24" t="n">
-        <v>2078</v>
+        <v>2998</v>
       </c>
       <c r="D24" t="n">
-        <v>1.990636160880615</v>
+        <v>2.820201630488403</v>
       </c>
       <c r="E24" t="n">
-        <v>1.375012056383221</v>
+        <v>2.206070665493031</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6156241044973947</v>
+        <v>-0.614130964995372</v>
       </c>
       <c r="G24" t="n">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="H24" t="n">
-        <v>37.85865953735379</v>
+        <v>53.19632637149243</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J24" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>82.14873652959514</v>
+        <v>334.6485551784867</v>
       </c>
       <c r="L24" t="n">
-        <v>4.459274972215972</v>
+        <v>6.320517405344909</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,16 +2498,16 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7622702941266544</v>
+        <v>0.8177717833243111</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.78125</v>
+        <v>0.265</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4400549322306658</v>
+        <v>0.2504239081509592</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9741248319383701</v>
+        <v>0.8907338965390907</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2614</v>
+        <v>2248</v>
       </c>
       <c r="B25" t="n">
-        <v>2639</v>
+        <v>2283</v>
       </c>
       <c r="C25" t="n">
-        <v>2744</v>
+        <v>2422</v>
       </c>
       <c r="D25" t="n">
-        <v>3.110003342434855</v>
+        <v>2.847164929411653</v>
       </c>
       <c r="E25" t="n">
-        <v>2.49437923793746</v>
+        <v>2.238807898822912</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6156241044973947</v>
+        <v>-0.6083570305887412</v>
       </c>
       <c r="G25" t="n">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="H25" t="n">
-        <v>37.10925211388849</v>
+        <v>295.1861288840955</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J25" t="n">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2935755613494</v>
+        <v>278.5307165635032</v>
       </c>
       <c r="L25" t="n">
-        <v>6.966798022142178</v>
+        <v>5.588690179187708</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,20 +2584,20 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.920699537053697</v>
+        <v>0.8507390943155272</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2517985611510791</v>
       </c>
       <c r="R25" t="n">
-        <v>0.254816044993158</v>
+        <v>0.3209202498245851</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9565879225605265</v>
+        <v>0.7660084292343887</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U25" t="n">
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2744</v>
+        <v>848</v>
       </c>
       <c r="B26" t="n">
-        <v>2798</v>
+        <v>874</v>
       </c>
       <c r="C26" t="n">
-        <v>2998</v>
+        <v>948</v>
       </c>
       <c r="D26" t="n">
-        <v>2.842780637170929</v>
+        <v>2.126440870983194</v>
       </c>
       <c r="E26" t="n">
-        <v>2.227156532673535</v>
+        <v>1.489588320629171</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6156241044973947</v>
+        <v>-0.6368525503540235</v>
       </c>
       <c r="G26" t="n">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>52.53426093334565</v>
+        <v>68.56585207179921</v>
       </c>
       <c r="I26" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="K26" t="n">
-        <v>335.8459224252253</v>
+        <v>145.7830250398875</v>
       </c>
       <c r="L26" t="n">
-        <v>6.368185606167517</v>
+        <v>4.834500740773334</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,20 +2670,20 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8198202108493495</v>
+        <v>0.8290866042202849</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.27</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2456830947819305</v>
+        <v>0.3003638025107561</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8900169221554581</v>
+        <v>0.6493721777050615</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2248</v>
+        <v>1175</v>
       </c>
       <c r="B27" t="n">
-        <v>2280</v>
+        <v>1243</v>
       </c>
       <c r="C27" t="n">
-        <v>2422</v>
+        <v>1397</v>
       </c>
       <c r="D27" t="n">
-        <v>2.867768261867097</v>
+        <v>2.326107400481144</v>
       </c>
       <c r="E27" t="n">
-        <v>2.25586517616632</v>
+        <v>1.68925485012712</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6119030857007773</v>
+        <v>-0.6368525503540235</v>
       </c>
       <c r="G27" t="n">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="H27" t="n">
-        <v>294.9410186136404</v>
+        <v>92.27971295092698</v>
       </c>
       <c r="I27" t="n">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="J27" t="n">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K27" t="n">
-        <v>279.0212311357959</v>
+        <v>254.0674712257743</v>
       </c>
       <c r="L27" t="n">
-        <v>5.631771565150074</v>
+        <v>5.288446109270301</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,20 +2756,20 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.8394058176439079</v>
+        <v>0.7260354987355864</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2253521126760563</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2872543306847716</v>
+        <v>0.3435657637310421</v>
       </c>
       <c r="S27" t="n">
-        <v>0.7764135360030484</v>
+        <v>0.8880918397658617</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U27" t="n">
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>128</v>
+        <v>2433</v>
       </c>
       <c r="B28" t="n">
-        <v>152</v>
+        <v>2454</v>
       </c>
       <c r="C28" t="n">
-        <v>184</v>
+        <v>2491</v>
       </c>
       <c r="D28" t="n">
-        <v>2.377620994783363</v>
+        <v>1.804822582089442</v>
       </c>
       <c r="E28" t="n">
-        <v>1.737349838121008</v>
+        <v>1.282870587452278</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6402711566623545</v>
+        <v>-0.5219519946371645</v>
       </c>
       <c r="G28" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H28" t="n">
-        <v>39.34743894375495</v>
+        <v>31.28634416157502</v>
       </c>
       <c r="I28" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J28" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K28" t="n">
-        <v>67.07568669884928</v>
+        <v>73.65281798021081</v>
       </c>
       <c r="L28" t="n">
-        <v>5.403184929180562</v>
+        <v>4.613779076059418</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,20 +2842,20 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.6671231281972986</v>
+        <v>0.7414803925926091</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.75</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1223376997218895</v>
+        <v>0.1370703406115946</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9288756336041641</v>
+        <v>0.9082519245564143</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U28" t="n">
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>848</v>
+        <v>2185</v>
       </c>
       <c r="B29" t="n">
-        <v>873</v>
+        <v>2236</v>
       </c>
       <c r="C29" t="n">
-        <v>948</v>
+        <v>2352</v>
       </c>
       <c r="D29" t="n">
-        <v>2.146076747324629</v>
+        <v>4.202134014797087</v>
       </c>
       <c r="E29" t="n">
-        <v>1.505805590662274</v>
+        <v>3.632258083160379</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6402711566623545</v>
+        <v>-0.5698759316367082</v>
       </c>
       <c r="G29" t="n">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="H29" t="n">
-        <v>68.76844304507688</v>
+        <v>102.2352419523277</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J29" t="n">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="K29" t="n">
-        <v>146.1091627907509</v>
+        <v>398.2384109826772</v>
       </c>
       <c r="L29" t="n">
-        <v>4.87699661276999</v>
+        <v>14.74460809038225</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,20 +2928,20 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8347331918526275</v>
+        <v>0.8183354370913078</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4396551724137931</v>
       </c>
       <c r="R29" t="n">
-        <v>0.333284871632433</v>
+        <v>0.1932716858632642</v>
       </c>
       <c r="S29" t="n">
-        <v>0.6352652292767829</v>
+        <v>0.9802647196674894</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U29" t="n">
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1176</v>
+        <v>2352</v>
       </c>
       <c r="B30" t="n">
-        <v>1243</v>
+        <v>2387</v>
       </c>
       <c r="C30" t="n">
-        <v>1397</v>
+        <v>2456</v>
       </c>
       <c r="D30" t="n">
-        <v>2.332284473523641</v>
+        <v>2.367900440961392</v>
       </c>
       <c r="E30" t="n">
-        <v>1.692013316861287</v>
+        <v>1.798024509324683</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6402711566623545</v>
+        <v>-0.5698759316367082</v>
       </c>
       <c r="G30" t="n">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="H30" t="n">
-        <v>92.26101001521215</v>
+        <v>50.11451752949824</v>
       </c>
       <c r="I30" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="J30" t="n">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="K30" t="n">
-        <v>254.1472321319247</v>
+        <v>174.9628761548361</v>
       </c>
       <c r="L30" t="n">
-        <v>5.300156898662047</v>
+        <v>8.308579373260411</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,20 +3014,20 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7354562563527607</v>
+        <v>0.7003234394616746</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.435064935064935</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3521629760597129</v>
+        <v>0.06956999200405045</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8863601895369403</v>
+        <v>0.8606529727318587</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U30" t="n">
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1674</v>
+        <v>2456</v>
       </c>
       <c r="B31" t="n">
-        <v>1703</v>
+        <v>2482</v>
       </c>
       <c r="C31" t="n">
-        <v>1801</v>
+        <v>2555</v>
       </c>
       <c r="D31" t="n">
-        <v>2.46060211046134</v>
+        <v>1.98539695501518</v>
       </c>
       <c r="E31" t="n">
-        <v>1.820330953798985</v>
+        <v>1.415521023378471</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6402711566623545</v>
+        <v>-0.5698759316367082</v>
       </c>
       <c r="G31" t="n">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="H31" t="n">
-        <v>21.4410209052337</v>
+        <v>50.28877106713344</v>
       </c>
       <c r="I31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J31" t="n">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="K31" t="n">
-        <v>269.522115346024</v>
+        <v>136.5431896850285</v>
       </c>
       <c r="L31" t="n">
-        <v>5.5917609531228</v>
+        <v>6.966436554011399</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,20 +3100,20 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7171443093263605</v>
+        <v>0.8109593848717739</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2959183673469388</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1230169454860932</v>
+        <v>0.1148452650129923</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6336652947262734</v>
+        <v>0.9150424409615144</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U31" t="n">
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2434</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>2454</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>2492</v>
+        <v>77</v>
       </c>
       <c r="D32" t="n">
-        <v>1.846544591703366</v>
+        <v>1.335184813039622</v>
       </c>
       <c r="E32" t="n">
-        <v>1.314553939680798</v>
+        <v>0.6808540450650077</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5319906520225672</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G32" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H32" t="n">
-        <v>30.95432779313796</v>
+        <v>24.60215515413388</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J32" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K32" t="n">
-        <v>74.23477137013325</v>
+        <v>71.93659444367125</v>
       </c>
       <c r="L32" t="n">
-        <v>4.695814134213786</v>
+        <v>4.968812341593744</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,20 +3186,20 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.7786539897315122</v>
+        <v>0.9162134519860623</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1607446989807598</v>
+        <v>0.2076571266608208</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9137450796405991</v>
+        <v>0.8161286857123076</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U32" t="n">
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2606</v>
+        <v>77</v>
       </c>
       <c r="B33" t="n">
-        <v>2621</v>
+        <v>109</v>
       </c>
       <c r="C33" t="n">
-        <v>2659</v>
+        <v>155</v>
       </c>
       <c r="D33" t="n">
-        <v>1.505979867991409</v>
+        <v>2.07311150968987</v>
       </c>
       <c r="E33" t="n">
-        <v>0.973989215968842</v>
+        <v>1.418780741715256</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5319906520225672</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G33" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="H33" t="n">
-        <v>30.0648957543317</v>
+        <v>33.41363535898221</v>
       </c>
       <c r="I33" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J33" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K33" t="n">
-        <v>55.15546421446494</v>
+        <v>106.4477380441333</v>
       </c>
       <c r="L33" t="n">
-        <v>3.82974859189943</v>
+        <v>7.714963467414294</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,20 +3272,20 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8696197961732582</v>
+        <v>0.7800450703136466</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="R33" t="n">
-        <v>0.5956751241040891</v>
+        <v>0.1796476650608337</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8704328912615154</v>
+        <v>0.9589203633937345</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U33" t="n">
@@ -3309,69 +3309,69 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2659</v>
+        <v>215</v>
       </c>
       <c r="B34" t="n">
-        <v>2680</v>
+        <v>242</v>
       </c>
       <c r="C34" t="n">
-        <v>2779</v>
+        <v>293</v>
       </c>
       <c r="D34" t="n">
-        <v>1.732653534554446</v>
+        <v>3.161621137313585</v>
       </c>
       <c r="E34" t="n">
-        <v>1.200662882531879</v>
+        <v>2.507290369338971</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5319906520225672</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G34" t="n">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="H34" t="n">
-        <v>30.89837956160272</v>
+        <v>25.55195869201438</v>
       </c>
       <c r="I34" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J34" t="n">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="K34" t="n">
-        <v>71.51276664334821</v>
+        <v>156.928205174436</v>
       </c>
       <c r="L34" t="n">
-        <v>4.406186015660145</v>
+        <v>11.76578850591016</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2724), 'value': np.float64(0.11152931590672997), 'amplitude': np.float64(0.6435199679292972), 'start_idx': np.int64(2709), 'end_idx': np.int64(2739), 'duration': np.float64(30.0), 'fwhm': np.float64(21.75865277432149), 'rise_time': np.float64(15.0), 'decay_time': np.float64(15.0), 'auc': np.float64(14.183680951815235)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.7576188942431201</v>
+        <v>0.8450139346893817</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6083230429180702</v>
+        <v>0.2035191069221161</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3397379240827192</v>
+        <v>0.9831636438747269</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U34" t="n">
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2185</v>
+        <v>413</v>
       </c>
       <c r="B35" t="n">
-        <v>2236</v>
+        <v>447</v>
       </c>
       <c r="C35" t="n">
-        <v>2353</v>
+        <v>493</v>
       </c>
       <c r="D35" t="n">
-        <v>4.234433416780629</v>
+        <v>2.672799981231557</v>
       </c>
       <c r="E35" t="n">
-        <v>3.661406699996262</v>
+        <v>2.018469213256943</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5730267167843667</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G35" t="n">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="H35" t="n">
-        <v>102.4861226701155</v>
+        <v>44.64884412580551</v>
       </c>
       <c r="I35" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J35" t="n">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="K35" t="n">
-        <v>399.7005926427127</v>
+        <v>182.1113590561954</v>
       </c>
       <c r="L35" t="n">
-        <v>14.84363656786642</v>
+        <v>9.94666910801717</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,20 +3444,20 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8563383508374182</v>
+        <v>0.6562888071177042</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2045441978664268</v>
+        <v>0.08874977862879029</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9771848757029484</v>
+        <v>0.9411105446834813</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U35" t="n">
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2353</v>
+        <v>613</v>
       </c>
       <c r="B36" t="n">
-        <v>2387</v>
+        <v>638</v>
       </c>
       <c r="C36" t="n">
-        <v>2456</v>
+        <v>690</v>
       </c>
       <c r="D36" t="n">
-        <v>2.34046780268632</v>
+        <v>2.177075341087501</v>
       </c>
       <c r="E36" t="n">
-        <v>1.767441085901954</v>
+        <v>1.522744573112887</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5730267167843667</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G36" t="n">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H36" t="n">
-        <v>50.87277580735235</v>
+        <v>18.67670372427301</v>
       </c>
       <c r="I36" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J36" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="K36" t="n">
-        <v>174.3897216055919</v>
+        <v>124.4470221731342</v>
       </c>
       <c r="L36" t="n">
-        <v>8.204416043996201</v>
+        <v>8.101858797171607</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,20 +3530,20 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7037995736023869</v>
+        <v>0.8101719736755452</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.4927536231884058</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07402854647683214</v>
+        <v>0.2070977915492699</v>
       </c>
       <c r="S36" t="n">
-        <v>0.8456230907315159</v>
+        <v>0.9263094642088442</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U36" t="n">
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2456</v>
+        <v>2001</v>
       </c>
       <c r="B37" t="n">
-        <v>2481</v>
+        <v>2046</v>
       </c>
       <c r="C37" t="n">
-        <v>2555</v>
+        <v>2129</v>
       </c>
       <c r="D37" t="n">
-        <v>2.031681953344834</v>
+        <v>4.221599529364047</v>
       </c>
       <c r="E37" t="n">
-        <v>1.458655236560468</v>
+        <v>3.751797702326273</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5730267167843667</v>
+        <v>-0.4698018270377747</v>
       </c>
       <c r="G37" t="n">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="H37" t="n">
-        <v>48.31081407164083</v>
+        <v>127.5121600735208</v>
       </c>
       <c r="I37" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J37" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K37" t="n">
-        <v>136.7177869255908</v>
+        <v>325.5537118707409</v>
       </c>
       <c r="L37" t="n">
-        <v>7.121979629537301</v>
+        <v>13.98665176874811</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,20 +3616,20 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.8468591581615174</v>
+        <v>0.8064748571303825</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1436920693751923</v>
+        <v>0.6914504001897017</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9004984812716557</v>
+        <v>0.9645679514492758</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U37" t="n">
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>2129</v>
       </c>
       <c r="B38" t="n">
-        <v>17</v>
+        <v>2141</v>
       </c>
       <c r="C38" t="n">
-        <v>72</v>
+        <v>2170</v>
       </c>
       <c r="D38" t="n">
-        <v>1.338245328340875</v>
+        <v>2.27978173572542</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6797823021981014</v>
+        <v>1.809979908687646</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.6584630261427739</v>
+        <v>-0.4698018270377747</v>
       </c>
       <c r="G38" t="n">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="H38" t="n">
-        <v>24.45437061811002</v>
+        <v>10.58923329152367</v>
       </c>
       <c r="I38" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J38" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="K38" t="n">
-        <v>68.83634959863693</v>
+        <v>74.81295545621242</v>
       </c>
       <c r="L38" t="n">
-        <v>4.960928708917279</v>
+        <v>7.553182869325139</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,20 +3702,20 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.8867110124622342</v>
+        <v>0.7624877489118224</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3090909090909091</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1901560104784672</v>
+        <v>0.1306941793927022</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7737492830879903</v>
+        <v>0.8662925909528458</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U38" t="n">
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B39" t="n">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C39" t="n">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="D39" t="n">
-        <v>3.1854449479149</v>
+        <v>2.666864123904012</v>
       </c>
       <c r="E39" t="n">
-        <v>2.526981921772126</v>
+        <v>2.070932496784004</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6584630261427739</v>
+        <v>-0.595931627120008</v>
       </c>
       <c r="G39" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="H39" t="n">
-        <v>24.51528641772504</v>
+        <v>13.51853665238573</v>
       </c>
       <c r="I39" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J39" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K39" t="n">
-        <v>157.2369590675878</v>
+        <v>90.37290381162575</v>
       </c>
       <c r="L39" t="n">
-        <v>11.80857123736679</v>
+        <v>11.55091920688669</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,20 +3788,20 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.8355173415268251</v>
+        <v>0.8052554159159035</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="R39" t="n">
-        <v>0.20188738391224</v>
+        <v>0.1696009454100207</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9761939601163407</v>
+        <v>0.9815431783352941</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U39" t="n">
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>612</v>
+        <v>332</v>
       </c>
       <c r="B40" t="n">
-        <v>638</v>
+        <v>354</v>
       </c>
       <c r="C40" t="n">
-        <v>691</v>
+        <v>383</v>
       </c>
       <c r="D40" t="n">
-        <v>2.210779246339826</v>
+        <v>2.787992430004071</v>
       </c>
       <c r="E40" t="n">
-        <v>1.552316220197052</v>
+        <v>2.192060802884063</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6584630261427739</v>
+        <v>-0.595931627120008</v>
       </c>
       <c r="G40" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H40" t="n">
-        <v>17.55561659067394</v>
+        <v>16.48353728677438</v>
       </c>
       <c r="I40" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J40" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="K40" t="n">
-        <v>127.3558218256555</v>
+        <v>102.0430075070633</v>
       </c>
       <c r="L40" t="n">
-        <v>8.19544667930432</v>
+        <v>12.07555908819441</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,20 +3874,20 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.7980674521817014</v>
+        <v>0.7938995400766872</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4905660377358491</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2089843403029849</v>
+        <v>0.2765911501669013</v>
       </c>
       <c r="S40" t="n">
-        <v>0.927454572652737</v>
+        <v>0.9765676523870906</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U40" t="n">
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1672</v>
+        <v>456</v>
       </c>
       <c r="B41" t="n">
-        <v>1739</v>
+        <v>482</v>
       </c>
       <c r="C41" t="n">
-        <v>1823</v>
+        <v>576</v>
       </c>
       <c r="D41" t="n">
-        <v>3.578263818150568</v>
+        <v>1.54910802762373</v>
       </c>
       <c r="E41" t="n">
-        <v>3.115500310749384</v>
+        <v>0.9531764005037221</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.462763507401184</v>
+        <v>-0.595931627120008</v>
       </c>
       <c r="G41" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="H41" t="n">
-        <v>130.466483074355</v>
+        <v>28.24944373585282</v>
       </c>
       <c r="I41" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="J41" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K41" t="n">
-        <v>402.71764594739</v>
+        <v>103.6919107206668</v>
       </c>
       <c r="L41" t="n">
-        <v>9.826495598216594</v>
+        <v>6.709611303191143</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,20 +3960,20 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.5447700538559191</v>
+        <v>0.8556251966299983</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.7976190476190477</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1175957166034095</v>
+        <v>0.2280243699151664</v>
       </c>
       <c r="S41" t="n">
-        <v>0.708983155777037</v>
+        <v>0.6840631149740996</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U41" t="n">
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2001</v>
+        <v>576</v>
       </c>
       <c r="B42" t="n">
-        <v>2046</v>
+        <v>606</v>
       </c>
       <c r="C42" t="n">
-        <v>2128</v>
+        <v>677</v>
       </c>
       <c r="D42" t="n">
-        <v>4.20538596723487</v>
+        <v>2.38334910116192</v>
       </c>
       <c r="E42" t="n">
-        <v>3.730130552530335</v>
+        <v>1.787417474041912</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4752554147045345</v>
+        <v>-0.595931627120008</v>
       </c>
       <c r="G42" t="n">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H42" t="n">
-        <v>127.930073832141</v>
+        <v>35.32400831379255</v>
       </c>
       <c r="I42" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J42" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K42" t="n">
-        <v>324.4189006976311</v>
+        <v>126.5603164091334</v>
       </c>
       <c r="L42" t="n">
-        <v>13.82444877114999</v>
+        <v>10.32293796394339</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,20 +4046,20 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8017446577108144</v>
+        <v>0.8911565419885134</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.5487804878048781</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="R42" t="n">
-        <v>0.7009002305882323</v>
+        <v>0.2047091124967553</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9544357798754357</v>
+        <v>0.9559667649752502</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U42" t="n">
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2128</v>
+        <v>306</v>
       </c>
       <c r="B43" t="n">
-        <v>2141</v>
+        <v>331</v>
       </c>
       <c r="C43" t="n">
-        <v>2171</v>
+        <v>372</v>
       </c>
       <c r="D43" t="n">
-        <v>2.269874226147106</v>
+        <v>0.7224605833714582</v>
       </c>
       <c r="E43" t="n">
-        <v>1.794618811442571</v>
+        <v>0.146056678300795</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4752554147045345</v>
+        <v>-0.5764039050706632</v>
       </c>
       <c r="G43" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H43" t="n">
-        <v>11.57936311724779</v>
+        <v>35.05490837374714</v>
       </c>
       <c r="I43" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J43" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K43" t="n">
-        <v>78.46255189826354</v>
+        <v>31.40563665313808</v>
       </c>
       <c r="L43" t="n">
-        <v>7.461802602855319</v>
+        <v>3.656564049680722</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,20 +4132,20 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.7610372123006353</v>
+        <v>0.719674842288198</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1322286646885673</v>
+        <v>0.1100330504917904</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8649077316399667</v>
+        <v>0.9728755110272896</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U43" t="n">
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>201</v>
+        <v>483</v>
       </c>
       <c r="B44" t="n">
-        <v>216</v>
+        <v>503</v>
       </c>
       <c r="C44" t="n">
-        <v>244</v>
+        <v>612</v>
       </c>
       <c r="D44" t="n">
-        <v>2.675328539717045</v>
+        <v>4.224417949016212</v>
       </c>
       <c r="E44" t="n">
-        <v>2.07820094976679</v>
+        <v>3.648014043945549</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5971275899502554</v>
+        <v>-0.5764039050706632</v>
       </c>
       <c r="G44" t="n">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="H44" t="n">
-        <v>13.97326213738299</v>
+        <v>20.4460632227163</v>
       </c>
       <c r="I44" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J44" t="n">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="K44" t="n">
-        <v>90.54850127754462</v>
+        <v>426.0594512853095</v>
       </c>
       <c r="L44" t="n">
-        <v>11.53832004666754</v>
+        <v>21.38089628518397</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,20 +4218,20 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8100587655240732</v>
+        <v>0.8130450838751325</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1702098697994033</v>
+        <v>0.2205070871140076</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9773832329883958</v>
+        <v>0.8720468633377627</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U44" t="n">
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>333</v>
+        <v>612</v>
       </c>
       <c r="B45" t="n">
-        <v>354</v>
+        <v>640</v>
       </c>
       <c r="C45" t="n">
-        <v>383</v>
+        <v>720</v>
       </c>
       <c r="D45" t="n">
-        <v>2.812916599330557</v>
+        <v>3.000897090432949</v>
       </c>
       <c r="E45" t="n">
-        <v>2.215789009380301</v>
+        <v>2.424493185362286</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5971275899502554</v>
+        <v>-0.5764039050706632</v>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="H45" t="n">
-        <v>16.59206091311751</v>
+        <v>27.09816244813317</v>
       </c>
       <c r="I45" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J45" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0359946770826</v>
+        <v>203.9259229750729</v>
       </c>
       <c r="L45" t="n">
-        <v>12.1317182192107</v>
+        <v>15.18833368937827</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,20 +4304,20 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8053668982696115</v>
+        <v>0.8707227244323515</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.35</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2818436735648104</v>
+        <v>0.2261212734067157</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9748424029156024</v>
+        <v>0.8739860221912827</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U45" t="n">
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>456</v>
+        <v>812</v>
       </c>
       <c r="B46" t="n">
-        <v>481</v>
+        <v>845</v>
       </c>
       <c r="C46" t="n">
-        <v>577</v>
+        <v>996</v>
       </c>
       <c r="D46" t="n">
-        <v>1.553579476523249</v>
+        <v>2.161999344450332</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9564518865729938</v>
+        <v>1.585595439379669</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.5971275899502554</v>
+        <v>-0.5764039050706632</v>
       </c>
       <c r="G46" t="n">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="H46" t="n">
-        <v>28.97208677093704</v>
+        <v>156.7785034990173</v>
       </c>
       <c r="I46" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J46" t="n">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="K46" t="n">
-        <v>104.3592689017237</v>
+        <v>248.8453052624523</v>
       </c>
       <c r="L46" t="n">
-        <v>6.700372291455228</v>
+        <v>10.94245037072937</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,20 +4390,20 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.8427258640422297</v>
+        <v>0.8714082221046058</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2604166666666667</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2224734204336116</v>
+        <v>0.3043463384113252</v>
       </c>
       <c r="S46" t="n">
-        <v>0.6562519142020635</v>
+        <v>0.8640116649572664</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U46" t="n">
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>577</v>
+        <v>996</v>
       </c>
       <c r="B47" t="n">
-        <v>606</v>
+        <v>1036</v>
       </c>
       <c r="C47" t="n">
-        <v>677</v>
+        <v>1099</v>
       </c>
       <c r="D47" t="n">
-        <v>2.406623140740015</v>
+        <v>1.56840396682257</v>
       </c>
       <c r="E47" t="n">
-        <v>1.809495550789759</v>
+        <v>0.9920000617519062</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.5971275899502554</v>
+        <v>-0.5764039050706632</v>
       </c>
       <c r="G47" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H47" t="n">
-        <v>35.11737395265197</v>
+        <v>62.28225278565424</v>
       </c>
       <c r="I47" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J47" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K47" t="n">
-        <v>126.2007850784686</v>
+        <v>134.195287539122</v>
       </c>
       <c r="L47" t="n">
-        <v>10.37943101840921</v>
+        <v>7.938107202606192</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,20 +4476,20 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.9111912074424957</v>
+        <v>0.6438799334156819</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.4084507042253521</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2238393260747063</v>
+        <v>0.05119793388099442</v>
       </c>
       <c r="S47" t="n">
-        <v>0.9534728406009931</v>
+        <v>0.9484403372279522</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U47" t="n">
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>305</v>
+        <v>1738</v>
       </c>
       <c r="B48" t="n">
-        <v>331</v>
+        <v>1759</v>
       </c>
       <c r="C48" t="n">
-        <v>374</v>
+        <v>1791</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7229171740762734</v>
+        <v>0.7733614781559608</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1459454348087562</v>
+        <v>0.1969575730852975</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5769717392675172</v>
+        <v>-0.5764039050706632</v>
       </c>
       <c r="G48" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H48" t="n">
-        <v>34.7814852490738</v>
+        <v>29.10745511315463</v>
       </c>
       <c r="I48" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J48" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K48" t="n">
-        <v>32.11482259774627</v>
+        <v>34.18231978501974</v>
       </c>
       <c r="L48" t="n">
-        <v>3.651716016183078</v>
+        <v>3.914186937696326</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,16 +4562,16 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.7368349455307822</v>
+        <v>0.6270466716071345</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.65625</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1244250222343911</v>
+        <v>0.02894784566274223</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9632561118792702</v>
+        <v>0.9579259838717663</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>483</v>
+        <v>387</v>
       </c>
       <c r="B49" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="C49" t="n">
-        <v>542</v>
+        <v>459</v>
       </c>
       <c r="D49" t="n">
-        <v>4.221719664219345</v>
+        <v>2.60965011638156</v>
       </c>
       <c r="E49" t="n">
-        <v>3.644747924951828</v>
+        <v>2.070285246302458</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5769717392675172</v>
+        <v>-0.5393648700791017</v>
       </c>
       <c r="G49" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H49" t="n">
-        <v>23.11606518369962</v>
+        <v>39.02328865878212</v>
       </c>
       <c r="I49" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J49" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K49" t="n">
-        <v>227.8302982048853</v>
+        <v>134.0767605954446</v>
       </c>
       <c r="L49" t="n">
-        <v>21.32543238215871</v>
+        <v>6.835460445883386</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,20 +4648,20 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.7801935000912852</v>
+        <v>0.860636491797879</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="R49" t="n">
-        <v>0.06451551466705299</v>
+        <v>0.3678670466207974</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9383472128801225</v>
+        <v>0.9536084077117615</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U49" t="n">
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>542</v>
+        <v>459</v>
       </c>
       <c r="B50" t="n">
-        <v>552</v>
+        <v>470</v>
       </c>
       <c r="C50" t="n">
-        <v>613</v>
+        <v>499</v>
       </c>
       <c r="D50" t="n">
-        <v>3.547660333974499</v>
+        <v>1.940563302905509</v>
       </c>
       <c r="E50" t="n">
-        <v>2.970688594706982</v>
+        <v>1.401198432826408</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.5769717392675172</v>
+        <v>-0.5393648700791017</v>
       </c>
       <c r="G50" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="H50" t="n">
-        <v>11.42321435550775</v>
+        <v>28.49063833311021</v>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K50" t="n">
-        <v>200.095336033126</v>
+        <v>69.93323186738658</v>
       </c>
       <c r="L50" t="n">
-        <v>17.92051499966886</v>
+        <v>5.082920356440606</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,20 +4734,20 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.7991717070108516</v>
+        <v>0.6614687726894759</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2072102213910367</v>
+        <v>0.06257936485584102</v>
       </c>
       <c r="S50" t="n">
-        <v>0.8976322574501217</v>
+        <v>0.6069551827465738</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U50" t="n">
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>613</v>
+        <v>1931</v>
       </c>
       <c r="B51" t="n">
-        <v>640</v>
+        <v>1965</v>
       </c>
       <c r="C51" t="n">
-        <v>720</v>
+        <v>2038</v>
       </c>
       <c r="D51" t="n">
-        <v>3.027730816344663</v>
+        <v>1.636132110454286</v>
       </c>
       <c r="E51" t="n">
-        <v>2.450759077077145</v>
+        <v>1.079094337408365</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5769717392675172</v>
+        <v>-0.5570377730459208</v>
       </c>
       <c r="G51" t="n">
         <v>107</v>
       </c>
       <c r="H51" t="n">
-        <v>26.92748011652805</v>
+        <v>72.95116014389146</v>
       </c>
       <c r="I51" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J51" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K51" t="n">
-        <v>202.2270951227792</v>
+        <v>126.169049196538</v>
       </c>
       <c r="L51" t="n">
-        <v>15.29416302616478</v>
+        <v>4.593897978402462</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,20 +4820,20 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.8765407870740202</v>
+        <v>0.7665974172540082</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.3375</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2333228497282737</v>
+        <v>0.3005081731115763</v>
       </c>
       <c r="S51" t="n">
-        <v>0.8706616366827882</v>
+        <v>0.5896215051207103</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U51" t="n">
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>879</v>
+        <v>109</v>
       </c>
       <c r="B52" t="n">
-        <v>896</v>
+        <v>140</v>
       </c>
       <c r="C52" t="n">
-        <v>995</v>
+        <v>179</v>
       </c>
       <c r="D52" t="n">
-        <v>1.720740301534986</v>
+        <v>1.877367563232839</v>
       </c>
       <c r="E52" t="n">
-        <v>1.143768562267469</v>
+        <v>1.418740967734347</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.5769717392675172</v>
+        <v>-0.4586265954984918</v>
       </c>
       <c r="G52" t="n">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="H52" t="n">
-        <v>16.50685350614185</v>
+        <v>32.48011951842315</v>
       </c>
       <c r="I52" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J52" t="n">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="K52" t="n">
-        <v>145.2992275084484</v>
+        <v>77.84782974860545</v>
       </c>
       <c r="L52" t="n">
-        <v>8.692081394851513</v>
+        <v>5.278922911414639</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,20 +4906,20 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.7580847396578579</v>
+        <v>0.7622548695197401</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.1717171717171717</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2431832731541565</v>
+        <v>0.2222260566178779</v>
       </c>
       <c r="S52" t="n">
-        <v>0.6745359354695388</v>
+        <v>0.8554171642588903</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U52" t="n">
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>995</v>
+        <v>638</v>
       </c>
       <c r="B53" t="n">
-        <v>1035</v>
+        <v>671</v>
       </c>
       <c r="C53" t="n">
-        <v>1100</v>
+        <v>726</v>
       </c>
       <c r="D53" t="n">
-        <v>1.56977075007235</v>
+        <v>2.125198738219336</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9927990108048326</v>
+        <v>1.666572142720845</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.5769717392675172</v>
+        <v>-0.4586265954984918</v>
       </c>
       <c r="G53" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H53" t="n">
-        <v>62.75112629483954</v>
+        <v>46.80837203959857</v>
       </c>
       <c r="I53" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J53" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K53" t="n">
-        <v>136.2381598664374</v>
+        <v>109.7050665993767</v>
       </c>
       <c r="L53" t="n">
-        <v>7.929479607535391</v>
+        <v>5.97579319586025</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,20 +4992,20 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.655900990489083</v>
+        <v>0.799885170197187</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="R53" t="n">
-        <v>0.05877911805751133</v>
+        <v>0.2305126849167634</v>
       </c>
       <c r="S53" t="n">
-        <v>0.9432079091232074</v>
+        <v>0.8706596210637008</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U53" t="n">
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1738</v>
+        <v>454</v>
       </c>
       <c r="B54" t="n">
-        <v>1760</v>
+        <v>481</v>
       </c>
       <c r="C54" t="n">
-        <v>1791</v>
+        <v>574</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7820159601683088</v>
+        <v>2.611748273890874</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2050442209007916</v>
+        <v>2.038520959265175</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.5769717392675172</v>
+        <v>-0.5732273146256995</v>
       </c>
       <c r="G54" t="n">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="H54" t="n">
-        <v>28.59968581388421</v>
+        <v>35.28595208528463</v>
       </c>
       <c r="I54" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J54" t="n">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="K54" t="n">
-        <v>34.2481358607054</v>
+        <v>194.0089184221625</v>
       </c>
       <c r="L54" t="n">
-        <v>3.950245351836256</v>
+        <v>7.436485887746412</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,20 +5078,20 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.6219079913732554</v>
+        <v>0.8959226286382551</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="R54" t="n">
-        <v>0.03245165847711434</v>
+        <v>0.340561788327968</v>
       </c>
       <c r="S54" t="n">
-        <v>0.9743428366714381</v>
+        <v>0.7478939992685041</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U54" t="n">
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="B55" t="n">
-        <v>11</v>
+        <v>606</v>
       </c>
       <c r="C55" t="n">
-        <v>41</v>
+        <v>735</v>
       </c>
       <c r="D55" t="n">
-        <v>1.802890252056684</v>
+        <v>2.581719217727404</v>
       </c>
       <c r="E55" t="n">
-        <v>1.274140356856967</v>
+        <v>2.008491903101704</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.5287498951997173</v>
+        <v>-0.5732273146256995</v>
       </c>
       <c r="G55" t="n">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="H55" t="n">
-        <v>17.0573214350382</v>
+        <v>98.31037546233154</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J55" t="n">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="K55" t="n">
-        <v>51.828988094225</v>
+        <v>313.0806807180039</v>
       </c>
       <c r="L55" t="n">
-        <v>4.673172006919682</v>
+        <v>7.350983523443395</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,20 +5164,20 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.9232944454725116</v>
+        <v>0.840181131871058</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="R55" t="n">
-        <v>0.3000328695265743</v>
+        <v>0.180129093214543</v>
       </c>
       <c r="S55" t="n">
-        <v>0.9091367656613665</v>
+        <v>0.7427510593918254</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U55" t="n">
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>388</v>
+        <v>245</v>
       </c>
       <c r="B56" t="n">
-        <v>410</v>
+        <v>277</v>
       </c>
       <c r="C56" t="n">
-        <v>459</v>
+        <v>327</v>
       </c>
       <c r="D56" t="n">
-        <v>2.592197772836919</v>
+        <v>3.800524680226464</v>
       </c>
       <c r="E56" t="n">
-        <v>2.063447877637202</v>
+        <v>3.229883015880877</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.5287498951997173</v>
+        <v>-0.5706416643455866</v>
       </c>
       <c r="G56" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H56" t="n">
-        <v>40.10162926826035</v>
+        <v>58.67121247098316</v>
       </c>
       <c r="I56" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J56" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56" t="n">
-        <v>133.6237161444758</v>
+        <v>217.0400207957995</v>
       </c>
       <c r="L56" t="n">
-        <v>6.719092332216</v>
+        <v>11.66141863088179</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,20 +5250,20 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.8634200819845718</v>
+        <v>0.7499778064952026</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.4489795918367347</v>
+        <v>0.64</v>
       </c>
       <c r="R56" t="n">
-        <v>0.3164425630250405</v>
+        <v>0.3000598857479276</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9447794553330719</v>
+        <v>0.7837570419065315</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U56" t="n">
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B57" t="n">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C57" t="n">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="D57" t="n">
-        <v>1.943361481954996</v>
+        <v>3.124003845347115</v>
       </c>
       <c r="E57" t="n">
-        <v>1.414611586755279</v>
+        <v>2.553362181001528</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.5287498951997173</v>
+        <v>-0.5706416643455866</v>
       </c>
       <c r="G57" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H57" t="n">
-        <v>27.94263483880002</v>
+        <v>77.24657654515528</v>
       </c>
       <c r="I57" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J57" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="K57" t="n">
-        <v>69.47082525615657</v>
+        <v>191.1074225452384</v>
       </c>
       <c r="L57" t="n">
-        <v>5.037279704872742</v>
+        <v>9.585601912972292</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,20 +5336,20 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.654282125147496</v>
+        <v>0.8264151394229639</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="R57" t="n">
-        <v>0.07003960976224292</v>
+        <v>0.4080924618550961</v>
       </c>
       <c r="S57" t="n">
-        <v>0.6368586147718873</v>
+        <v>0.743311423003463</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U57" t="n">
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>378</v>
+        <v>549</v>
       </c>
       <c r="B58" t="n">
-        <v>412</v>
+        <v>564</v>
       </c>
       <c r="C58" t="n">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="D58" t="n">
-        <v>3.966884541585033</v>
+        <v>1.836424635245581</v>
       </c>
       <c r="E58" t="n">
-        <v>3.410693956508984</v>
+        <v>1.265782970899995</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.5561905850760488</v>
+        <v>-0.5706416643455866</v>
       </c>
       <c r="G58" t="n">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="H58" t="n">
-        <v>108.0385537827846</v>
+        <v>20.56269668957873</v>
       </c>
       <c r="I58" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J58" t="n">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="K58" t="n">
-        <v>468.4574290647142</v>
+        <v>65.20701646753403</v>
       </c>
       <c r="L58" t="n">
-        <v>11.10220555457277</v>
+        <v>5.634831571304789</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,20 +5422,20 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.8797479410522071</v>
+        <v>0.6686873403030748</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.2011834319526627</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="R58" t="n">
-        <v>0.281325866528597</v>
+        <v>0.04293292464697981</v>
       </c>
       <c r="S58" t="n">
-        <v>0.8178707090177439</v>
+        <v>0.9501291700476446</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U58" t="n">
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>672</v>
+        <v>590</v>
       </c>
       <c r="B59" t="n">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="C59" t="n">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="D59" t="n">
-        <v>2.225142286249564</v>
+        <v>1.771932240186085</v>
       </c>
       <c r="E59" t="n">
-        <v>1.668951701173515</v>
+        <v>1.201290575840498</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.5561905850760488</v>
+        <v>-0.5706416643455866</v>
       </c>
       <c r="G59" t="n">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="H59" t="n">
-        <v>23.94889199081501</v>
+        <v>16.42743213387314</v>
       </c>
       <c r="I59" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J59" t="n">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="K59" t="n">
-        <v>87.70813004893007</v>
+        <v>143.2343755576411</v>
       </c>
       <c r="L59" t="n">
-        <v>6.227553837562356</v>
+        <v>5.43694499495655</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,20 +5508,20 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.9034700847930128</v>
+        <v>0.714675012909499</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="R59" t="n">
-        <v>0.4326841192531855</v>
+        <v>0.2898506462127272</v>
       </c>
       <c r="S59" t="n">
-        <v>0.9640155729338016</v>
+        <v>0.5980545158201501</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U59" t="n">
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1931</v>
+        <v>2917</v>
       </c>
       <c r="B60" t="n">
-        <v>1965</v>
+        <v>2943</v>
       </c>
       <c r="C60" t="n">
-        <v>2038</v>
+        <v>2998</v>
       </c>
       <c r="D60" t="n">
-        <v>1.657686130991751</v>
+        <v>3.161259287316891</v>
       </c>
       <c r="E60" t="n">
-        <v>1.101495545915702</v>
+        <v>2.552720679469247</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5561905850760488</v>
+        <v>-0.6085386078476447</v>
       </c>
       <c r="G60" t="n">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H60" t="n">
-        <v>73.28511869179965</v>
+        <v>18.8192897655249</v>
       </c>
       <c r="I60" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J60" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K60" t="n">
-        <v>125.8620517375809</v>
+        <v>204.1775004436091</v>
       </c>
       <c r="L60" t="n">
-        <v>4.639402024007801</v>
+        <v>13.19514773292933</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,20 +5594,20 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.761041162129052</v>
+        <v>0.756153937271526</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.4657534246575342</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="R60" t="n">
-        <v>0.3041375233771647</v>
+        <v>0.1718236498388502</v>
       </c>
       <c r="S60" t="n">
-        <v>0.5654844857455776</v>
+        <v>0.836639625787178</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U60" t="n">
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>109</v>
+        <v>2235</v>
       </c>
       <c r="B61" t="n">
-        <v>140</v>
+        <v>2379</v>
       </c>
       <c r="C61" t="n">
-        <v>181</v>
+        <v>2793</v>
       </c>
       <c r="D61" t="n">
-        <v>1.841949160760818</v>
+        <v>3.18958361345502</v>
       </c>
       <c r="E61" t="n">
-        <v>1.390666757159359</v>
+        <v>2.652771330304137</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4512824036014595</v>
+        <v>-0.5368122831508829</v>
       </c>
       <c r="G61" t="n">
-        <v>72</v>
+        <v>558</v>
       </c>
       <c r="H61" t="n">
-        <v>32.75298342834748</v>
+        <v>75.54549457992971</v>
       </c>
       <c r="I61" t="n">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="J61" t="n">
-        <v>41</v>
+        <v>414</v>
       </c>
       <c r="K61" t="n">
-        <v>77.82749215104263</v>
+        <v>459.429760550224</v>
       </c>
       <c r="L61" t="n">
-        <v>5.16243887597676</v>
+        <v>8.216939811612695</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,20 +5680,20 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.7351872745304296</v>
+        <v>0.5385579332315819</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2291354497968402</v>
+        <v>0.4642822893122385</v>
       </c>
       <c r="S61" t="n">
-        <v>0.8848412131587865</v>
+        <v>0.3736474814947754</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U61" t="n">
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>638</v>
+        <v>2793</v>
       </c>
       <c r="B62" t="n">
-        <v>670</v>
+        <v>2846</v>
       </c>
       <c r="C62" t="n">
-        <v>718</v>
+        <v>2917</v>
       </c>
       <c r="D62" t="n">
-        <v>2.149083844952991</v>
+        <v>3.137430877867625</v>
       </c>
       <c r="E62" t="n">
-        <v>1.697801441351531</v>
+        <v>2.600618594716742</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.4512824036014595</v>
+        <v>-0.5368122831508829</v>
       </c>
       <c r="G62" t="n">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="H62" t="n">
-        <v>46.49302070592933</v>
+        <v>46.01234456674956</v>
       </c>
       <c r="I62" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="J62" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="K62" t="n">
-        <v>105.7463492791411</v>
+        <v>302.2414316179145</v>
       </c>
       <c r="L62" t="n">
-        <v>6.023246583166463</v>
+        <v>8.082585005071545</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,20 +5766,20 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.7524985420448991</v>
+        <v>0.6618515007876075</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="R62" t="n">
-        <v>0.4084063505785243</v>
+        <v>0.4340743991553864</v>
       </c>
       <c r="S62" t="n">
-        <v>0.7706034205466299</v>
+        <v>0.5539996129600281</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U62" t="n">
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>454</v>
+        <v>2917</v>
       </c>
       <c r="B63" t="n">
-        <v>480</v>
+        <v>2943</v>
       </c>
       <c r="C63" t="n">
-        <v>575</v>
+        <v>2998</v>
       </c>
       <c r="D63" t="n">
-        <v>2.618172557928781</v>
+        <v>3.312130734971063</v>
       </c>
       <c r="E63" t="n">
-        <v>2.040755371948818</v>
+        <v>2.77531845182018</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5774171859799624</v>
+        <v>-0.5368122831508829</v>
       </c>
       <c r="G63" t="n">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="H63" t="n">
-        <v>35.10897506662263</v>
+        <v>34.8409507519932</v>
       </c>
       <c r="I63" t="n">
         <v>26</v>
       </c>
       <c r="J63" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K63" t="n">
-        <v>195.8951661137006</v>
+        <v>195.536805881581</v>
       </c>
       <c r="L63" t="n">
-        <v>7.436050469222365</v>
+        <v>8.532643189738893</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,20 +5852,20 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.8963303141732233</v>
+        <v>0.8435778589423777</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.2736842105263158</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="R63" t="n">
-        <v>0.3439011137218599</v>
+        <v>0.1859835090462104</v>
       </c>
       <c r="S63" t="n">
-        <v>0.7486465431655352</v>
+        <v>0.9125970582995122</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U63" t="n">
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>575</v>
+        <v>1769</v>
       </c>
       <c r="B64" t="n">
-        <v>606</v>
+        <v>1799</v>
       </c>
       <c r="C64" t="n">
-        <v>735</v>
+        <v>1858</v>
       </c>
       <c r="D64" t="n">
-        <v>2.585943080665086</v>
+        <v>5.820324929803717</v>
       </c>
       <c r="E64" t="n">
-        <v>2.008525894685123</v>
+        <v>5.365410485616481</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5774171859799624</v>
+        <v>-0.4549144441872355</v>
       </c>
       <c r="G64" t="n">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="H64" t="n">
-        <v>99.00475650208386</v>
+        <v>65.23250957846062</v>
       </c>
       <c r="I64" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J64" t="n">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K64" t="n">
-        <v>312.5830730311865</v>
+        <v>319.2116801874742</v>
       </c>
       <c r="L64" t="n">
-        <v>7.344513332449727</v>
+        <v>19.32963415197539</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,20 +5938,20 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.8270830541804531</v>
+        <v>0.8184258979562821</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.2403100775193799</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1712829475232273</v>
+        <v>0.3118895232124314</v>
       </c>
       <c r="S64" t="n">
-        <v>0.742057814607489</v>
+        <v>0.9138242172718287</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U64" t="n">
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>245</v>
+        <v>1858</v>
       </c>
       <c r="B65" t="n">
-        <v>276</v>
+        <v>1918</v>
       </c>
       <c r="C65" t="n">
-        <v>326</v>
+        <v>2199</v>
       </c>
       <c r="D65" t="n">
-        <v>3.847087705859046</v>
+        <v>4.17975956437976</v>
       </c>
       <c r="E65" t="n">
-        <v>3.274726237625611</v>
+        <v>3.724845120192525</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.5723614682334351</v>
+        <v>-0.4549144441872355</v>
       </c>
       <c r="G65" t="n">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="H65" t="n">
-        <v>58.38632132598815</v>
+        <v>69.81349354336317</v>
       </c>
       <c r="I65" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="J65" t="n">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="K65" t="n">
-        <v>215.5331401071338</v>
+        <v>486.681516319887</v>
       </c>
       <c r="L65" t="n">
-        <v>11.786084016837</v>
+        <v>13.88122213056677</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,20 +6024,20 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.7465345204375393</v>
+        <v>0.6815713768604138</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.62</v>
+        <v>0.2135231316725979</v>
       </c>
       <c r="R65" t="n">
-        <v>0.341100922801697</v>
+        <v>0.65410363478182</v>
       </c>
       <c r="S65" t="n">
-        <v>0.7444884545014026</v>
+        <v>0.6285405523317071</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U65" t="n">
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>449</v>
+        <v>2790</v>
       </c>
       <c r="B66" t="n">
-        <v>477</v>
+        <v>2840</v>
       </c>
       <c r="C66" t="n">
-        <v>549</v>
+        <v>2939</v>
       </c>
       <c r="D66" t="n">
-        <v>3.173798577327142</v>
+        <v>4.526968962497195</v>
       </c>
       <c r="E66" t="n">
-        <v>2.601437109093707</v>
+        <v>4.07830256304875</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5723614682334351</v>
+        <v>-0.4486663994484448</v>
       </c>
       <c r="G66" t="n">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="H66" t="n">
-        <v>75.00349119147751</v>
+        <v>96.2491289981117</v>
       </c>
       <c r="I66" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="J66" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="K66" t="n">
-        <v>191.2031240354732</v>
+        <v>512.4727458965556</v>
       </c>
       <c r="L66" t="n">
-        <v>9.723369869609618</v>
+        <v>14.7885928788202</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,20 +6110,20 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.8240442188235767</v>
+        <v>0.7938314163154812</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="R66" t="n">
-        <v>0.4210646248345421</v>
+        <v>0.2314797827047561</v>
       </c>
       <c r="S66" t="n">
-        <v>0.7265212176634424</v>
+        <v>0.7658440892756553</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U66" t="n">
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>549</v>
+        <v>456</v>
       </c>
       <c r="B67" t="n">
-        <v>563</v>
+        <v>481</v>
       </c>
       <c r="C67" t="n">
-        <v>590</v>
+        <v>695</v>
       </c>
       <c r="D67" t="n">
-        <v>1.865667944162672</v>
+        <v>1.428888250766827</v>
       </c>
       <c r="E67" t="n">
-        <v>1.293306475929237</v>
+        <v>1.017177462064498</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5723614682334351</v>
+        <v>-0.4117107887023287</v>
       </c>
       <c r="G67" t="n">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="H67" t="n">
-        <v>20.27878914868768</v>
+        <v>69.00294230437493</v>
       </c>
       <c r="I67" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J67" t="n">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="K67" t="n">
-        <v>65.21090341542865</v>
+        <v>152.1451552497982</v>
       </c>
       <c r="L67" t="n">
-        <v>5.71573117606133</v>
+        <v>8.86784444424301</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,20 +6196,20 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.6868135264442689</v>
+        <v>0.8395717561097851</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.1168224299065421</v>
       </c>
       <c r="R67" t="n">
-        <v>0.03726486967819086</v>
+        <v>0.3664741207302524</v>
       </c>
       <c r="S67" t="n">
-        <v>0.9627282913186176</v>
+        <v>0.832385583693742</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U67" t="n">
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>590</v>
+        <v>766</v>
       </c>
       <c r="B68" t="n">
-        <v>603</v>
+        <v>836</v>
       </c>
       <c r="C68" t="n">
-        <v>656</v>
+        <v>955</v>
       </c>
       <c r="D68" t="n">
-        <v>1.776237013245074</v>
+        <v>5.558429705120036</v>
       </c>
       <c r="E68" t="n">
-        <v>1.203875545011639</v>
+        <v>5.146718916417708</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5723614682334351</v>
+        <v>-0.4117107887023287</v>
       </c>
       <c r="G68" t="n">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="H68" t="n">
-        <v>17.0787079646758</v>
+        <v>128.3830316519075</v>
       </c>
       <c r="I68" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="J68" t="n">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="K68" t="n">
-        <v>87.02458511951421</v>
+        <v>662.4132525494434</v>
       </c>
       <c r="L68" t="n">
-        <v>5.441747179311407</v>
+        <v>34.49625256055634</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,20 +6282,20 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.8922705198026164</v>
+        <v>0.6650344812579028</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.2452830188679245</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="R68" t="n">
-        <v>0.1972288448725441</v>
+        <v>0.2827929306712215</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9666854904433878</v>
+        <v>0.9801146108579617</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U68" t="n">
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>656</v>
+        <v>955</v>
       </c>
       <c r="B69" t="n">
-        <v>681</v>
+        <v>968</v>
       </c>
       <c r="C69" t="n">
-        <v>714</v>
+        <v>998</v>
       </c>
       <c r="D69" t="n">
-        <v>1.240602070415888</v>
+        <v>1.514704247718983</v>
       </c>
       <c r="E69" t="n">
-        <v>0.668240602182453</v>
+        <v>1.102993459016654</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5723614682334351</v>
+        <v>-0.4117107887023287</v>
       </c>
       <c r="G69" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H69" t="n">
-        <v>29.89348095957132</v>
+        <v>16.83644849093741</v>
       </c>
       <c r="I69" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J69" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K69" t="n">
-        <v>56.54930769947388</v>
+        <v>51.96752606854805</v>
       </c>
       <c r="L69" t="n">
-        <v>3.800755623822869</v>
+        <v>9.400428368416891</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,20 +6368,20 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.7712962319513619</v>
+        <v>0.8633838832260645</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2094585287371047</v>
+        <v>0.1762057577851692</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9530810670733094</v>
+        <v>0.9095589064755401</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U69" t="n">
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2251</v>
+        <v>561</v>
       </c>
       <c r="B70" t="n">
-        <v>2379</v>
+        <v>576</v>
       </c>
       <c r="C70" t="n">
-        <v>2582</v>
+        <v>599</v>
       </c>
       <c r="D70" t="n">
-        <v>2.820046657401736</v>
+        <v>1.697859447837979</v>
       </c>
       <c r="E70" t="n">
-        <v>2.20911763388102</v>
+        <v>1.235501738090152</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6109290235207163</v>
+        <v>-0.4623577097478276</v>
       </c>
       <c r="G70" t="n">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="H70" t="n">
-        <v>88.46570075059844</v>
+        <v>21.99633005942508</v>
       </c>
       <c r="I70" t="n">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="J70" t="n">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="K70" t="n">
-        <v>338.027359954634</v>
+        <v>47.06037755648523</v>
       </c>
       <c r="L70" t="n">
-        <v>11.75672696928172</v>
+        <v>4.395603803003337</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,20 +6454,20 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.6363071929480107</v>
+        <v>0.6284617786986003</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6305418719211823</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="R70" t="n">
-        <v>1.410206841203661</v>
+        <v>0.03944610628731402</v>
       </c>
       <c r="S70" t="n">
-        <v>0.969672919681918</v>
+        <v>0.9343068535329483</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U70" t="n">
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2917</v>
+        <v>599</v>
       </c>
       <c r="B71" t="n">
-        <v>2943</v>
+        <v>629</v>
       </c>
       <c r="C71" t="n">
-        <v>2998</v>
+        <v>674</v>
       </c>
       <c r="D71" t="n">
-        <v>3.180064567990498</v>
+        <v>1.900873258737152</v>
       </c>
       <c r="E71" t="n">
-        <v>2.569135544469781</v>
+        <v>1.438515548989324</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6109290235207163</v>
+        <v>-0.4623577097478276</v>
       </c>
       <c r="G71" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H71" t="n">
-        <v>18.9365272855307</v>
+        <v>32.06187942083761</v>
       </c>
       <c r="I71" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J71" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K71" t="n">
-        <v>204.3593712402277</v>
+        <v>115.068142685749</v>
       </c>
       <c r="L71" t="n">
-        <v>13.25763556869586</v>
+        <v>4.921188108810822</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,20 +6540,20 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.7507474309036045</v>
+        <v>0.7638639757106106</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1707976483071087</v>
+        <v>0.181204860479313</v>
       </c>
       <c r="S71" t="n">
-        <v>0.8129236575358822</v>
+        <v>0.8445990073663703</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U71" t="n">
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2235</v>
+        <v>238</v>
       </c>
       <c r="B72" t="n">
-        <v>2379</v>
+        <v>263</v>
       </c>
       <c r="C72" t="n">
-        <v>2794</v>
+        <v>298</v>
       </c>
       <c r="D72" t="n">
-        <v>3.19074076544123</v>
+        <v>4.005191967281403</v>
       </c>
       <c r="E72" t="n">
-        <v>2.651528399310194</v>
+        <v>3.56192881830032</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.5392123661310362</v>
+        <v>-0.4432631489810837</v>
       </c>
       <c r="G72" t="n">
-        <v>559</v>
+        <v>60</v>
       </c>
       <c r="H72" t="n">
-        <v>75.78565125454998</v>
+        <v>21.95840605961584</v>
       </c>
       <c r="I72" t="n">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="J72" t="n">
-        <v>415</v>
+        <v>35</v>
       </c>
       <c r="K72" t="n">
-        <v>461.1771923420098</v>
+        <v>175.4262785379286</v>
       </c>
       <c r="L72" t="n">
-        <v>8.208040075792912</v>
+        <v>14.22595266541112</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,20 +6626,20 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.5394771964381652</v>
+        <v>0.6523326393819036</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.3469879518072289</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R72" t="n">
-        <v>0.4651094307991765</v>
+        <v>0.1297722062385377</v>
       </c>
       <c r="S72" t="n">
-        <v>0.3756853070726286</v>
+        <v>0.9400611607280883</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U72" t="n">
@@ -6656,1296 +6656,6 @@
         </is>
       </c>
       <c r="X72" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>2794</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2845</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2918</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3.129480067018799</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2.590267700887762</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-0.5392123661310362</v>
-      </c>
-      <c r="G73" t="n">
-        <v>124</v>
-      </c>
-      <c r="H73" t="n">
-        <v>49.2477342175689</v>
-      </c>
-      <c r="I73" t="n">
-        <v>51</v>
-      </c>
-      <c r="J73" t="n">
-        <v>73</v>
-      </c>
-      <c r="K73" t="n">
-        <v>304.6011727389937</v>
-      </c>
-      <c r="L73" t="n">
-        <v>8.050449627465516</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>0.6998500916626028</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0.6986301369863014</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0.4196020576495275</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0.5630412260866773</v>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U73" t="n">
-        <v>72</v>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>2918</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2943</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2998</v>
-      </c>
-      <c r="D74" t="n">
-        <v>3.343957875125017</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2.804745508993981</v>
-      </c>
-      <c r="F74" t="n">
-        <v>-0.5392123661310362</v>
-      </c>
-      <c r="G74" t="n">
-        <v>80</v>
-      </c>
-      <c r="H74" t="n">
-        <v>34.0943816946542</v>
-      </c>
-      <c r="I74" t="n">
-        <v>25</v>
-      </c>
-      <c r="J74" t="n">
-        <v>55</v>
-      </c>
-      <c r="K74" t="n">
-        <v>193.2958635290983</v>
-      </c>
-      <c r="L74" t="n">
-        <v>8.602184341664595</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
-        <v>0.8561286789356994</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.1912617600425182</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0.9101925801229064</v>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U74" t="n">
-        <v>73</v>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>280</v>
-      </c>
-      <c r="B75" t="n">
-        <v>296</v>
-      </c>
-      <c r="C75" t="n">
-        <v>317</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.460549826036856</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.9672793203160726</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-0.4932705057207833</v>
-      </c>
-      <c r="G75" t="n">
-        <v>37</v>
-      </c>
-      <c r="H75" t="n">
-        <v>20.96892517476789</v>
-      </c>
-      <c r="I75" t="n">
-        <v>16</v>
-      </c>
-      <c r="J75" t="n">
-        <v>21</v>
-      </c>
-      <c r="K75" t="n">
-        <v>32.79992232425966</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.381248467558267</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P75" t="n">
-        <v>0.7186542748635425</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0.7619047619047619</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0.1795385189655947</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0.8773904890451083</v>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U75" t="n">
-        <v>74</v>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>1243</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1289</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1386</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3.442399785831824</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2.94912928011104</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-0.4932705057207833</v>
-      </c>
-      <c r="G76" t="n">
-        <v>143</v>
-      </c>
-      <c r="H76" t="n">
-        <v>104.7865181574045</v>
-      </c>
-      <c r="I76" t="n">
-        <v>46</v>
-      </c>
-      <c r="J76" t="n">
-        <v>97</v>
-      </c>
-      <c r="K76" t="n">
-        <v>294.7654105681361</v>
-      </c>
-      <c r="L76" t="n">
-        <v>7.96933373519367</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>0.7156586967314116</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.4742268041237113</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.1044647462369129</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.8669311184516078</v>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U76" t="n">
-        <v>75</v>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>1770</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1798</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1858</v>
-      </c>
-      <c r="D77" t="n">
-        <v>5.842638135272646</v>
-      </c>
-      <c r="E77" t="n">
-        <v>5.383334266061429</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-0.4593038692112157</v>
-      </c>
-      <c r="G77" t="n">
-        <v>88</v>
-      </c>
-      <c r="H77" t="n">
-        <v>64.99040347190521</v>
-      </c>
-      <c r="I77" t="n">
-        <v>28</v>
-      </c>
-      <c r="J77" t="n">
-        <v>60</v>
-      </c>
-      <c r="K77" t="n">
-        <v>319.4836495817485</v>
-      </c>
-      <c r="L77" t="n">
-        <v>19.38045681574745</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P77" t="n">
-        <v>0.8321625021469297</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.2957486625423</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0.907616376572994</v>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U77" t="n">
-        <v>76</v>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1858</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1918</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2199</v>
-      </c>
-      <c r="D78" t="n">
-        <v>4.215359353315572</v>
-      </c>
-      <c r="E78" t="n">
-        <v>3.756055484104356</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-0.4593038692112157</v>
-      </c>
-      <c r="G78" t="n">
-        <v>341</v>
-      </c>
-      <c r="H78" t="n">
-        <v>70.16724179614448</v>
-      </c>
-      <c r="I78" t="n">
-        <v>60</v>
-      </c>
-      <c r="J78" t="n">
-        <v>281</v>
-      </c>
-      <c r="K78" t="n">
-        <v>488.1681385267195</v>
-      </c>
-      <c r="L78" t="n">
-        <v>13.98265441369445</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>0.7148179993961657</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.2135231316725979</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.6532849365217066</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0.6227800625039319</v>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U78" t="n">
-        <v>77</v>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>2297</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2328</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2395</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.49387738380407</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1.034573514592854</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-0.4593038692112157</v>
-      </c>
-      <c r="G79" t="n">
-        <v>98</v>
-      </c>
-      <c r="H79" t="n">
-        <v>96.7867938008053</v>
-      </c>
-      <c r="I79" t="n">
-        <v>31</v>
-      </c>
-      <c r="J79" t="n">
-        <v>67</v>
-      </c>
-      <c r="K79" t="n">
-        <v>93.71236117232877</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.955300235017125</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
-        <v>0.8150069764124588</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.4626865671641791</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.314684588173065</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0.8723837116741768</v>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U79" t="n">
-        <v>78</v>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2790</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2842</v>
-      </c>
-      <c r="C80" t="n">
-        <v>2931</v>
-      </c>
-      <c r="D80" t="n">
-        <v>4.533961004314844</v>
-      </c>
-      <c r="E80" t="n">
-        <v>4.085597817401959</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-0.4483631869128851</v>
-      </c>
-      <c r="G80" t="n">
-        <v>141</v>
-      </c>
-      <c r="H80" t="n">
-        <v>96.87606372302434</v>
-      </c>
-      <c r="I80" t="n">
-        <v>52</v>
-      </c>
-      <c r="J80" t="n">
-        <v>89</v>
-      </c>
-      <c r="K80" t="n">
-        <v>493.8690600148138</v>
-      </c>
-      <c r="L80" t="n">
-        <v>14.7731362209868</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>0.7480152692248794</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0.5842696629213483</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0.2539104718394359</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.6922851818561135</v>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U80" t="n">
-        <v>79</v>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>2896</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2914</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2938</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3.310965161506297</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.790297781030417</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-0.5206673804758795</v>
-      </c>
-      <c r="G81" t="n">
-        <v>42</v>
-      </c>
-      <c r="H81" t="n">
-        <v>108.5923958933604</v>
-      </c>
-      <c r="I81" t="n">
-        <v>18</v>
-      </c>
-      <c r="J81" t="n">
-        <v>24</v>
-      </c>
-      <c r="K81" t="n">
-        <v>108.6589530663621</v>
-      </c>
-      <c r="L81" t="n">
-        <v>10.8262103130143</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P81" t="n">
-        <v>0.7273805764593321</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0.2450649258473152</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.9318950230988141</v>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U81" t="n">
-        <v>80</v>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>456</v>
-      </c>
-      <c r="B82" t="n">
-        <v>480</v>
-      </c>
-      <c r="C82" t="n">
-        <v>695</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1.421301846333076</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1.010199695005495</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-0.4111021513275813</v>
-      </c>
-      <c r="G82" t="n">
-        <v>239</v>
-      </c>
-      <c r="H82" t="n">
-        <v>68.93905746383507</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>215</v>
-      </c>
-      <c r="K82" t="n">
-        <v>152.0864610763089</v>
-      </c>
-      <c r="L82" t="n">
-        <v>8.761583570617573</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>0.8361305259396152</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.1116279069767442</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.3632638599666668</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.8268501436598755</v>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U82" t="n">
-        <v>81</v>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>767</v>
-      </c>
-      <c r="B83" t="n">
-        <v>836</v>
-      </c>
-      <c r="C83" t="n">
-        <v>955</v>
-      </c>
-      <c r="D83" t="n">
-        <v>5.584177925274417</v>
-      </c>
-      <c r="E83" t="n">
-        <v>5.173075773946835</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-0.4111021513275813</v>
-      </c>
-      <c r="G83" t="n">
-        <v>188</v>
-      </c>
-      <c r="H83" t="n">
-        <v>128.5307084309441</v>
-      </c>
-      <c r="I83" t="n">
-        <v>69</v>
-      </c>
-      <c r="J83" t="n">
-        <v>119</v>
-      </c>
-      <c r="K83" t="n">
-        <v>662.0676097691485</v>
-      </c>
-      <c r="L83" t="n">
-        <v>34.42354042648868</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>0.6451622423969871</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.5798319327731093</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.2832228711981898</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.9789202981790051</v>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U83" t="n">
-        <v>82</v>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>955</v>
-      </c>
-      <c r="B84" t="n">
-        <v>968</v>
-      </c>
-      <c r="C84" t="n">
-        <v>998</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.500811342158845</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.089709190831264</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-0.4111021513275813</v>
-      </c>
-      <c r="G84" t="n">
-        <v>43</v>
-      </c>
-      <c r="H84" t="n">
-        <v>18.88649617208887</v>
-      </c>
-      <c r="I84" t="n">
-        <v>13</v>
-      </c>
-      <c r="J84" t="n">
-        <v>30</v>
-      </c>
-      <c r="K84" t="n">
-        <v>51.99109308711387</v>
-      </c>
-      <c r="L84" t="n">
-        <v>9.251718086471774</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>0.8449985271186042</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.1767024840176106</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0.8986806554474712</v>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U84" t="n">
-        <v>83</v>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>561</v>
-      </c>
-      <c r="B85" t="n">
-        <v>576</v>
-      </c>
-      <c r="C85" t="n">
-        <v>598</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.78875846645878</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.324901700693738</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-0.4638567657650415</v>
-      </c>
-      <c r="G85" t="n">
-        <v>37</v>
-      </c>
-      <c r="H85" t="n">
-        <v>20.96098884929393</v>
-      </c>
-      <c r="I85" t="n">
-        <v>15</v>
-      </c>
-      <c r="J85" t="n">
-        <v>22</v>
-      </c>
-      <c r="K85" t="n">
-        <v>46.32026605036578</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.589565319868757</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P85" t="n">
-        <v>0.6401455441490237</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0.05824820584903408</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.9372700894636724</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U85" t="n">
-        <v>84</v>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>598</v>
-      </c>
-      <c r="B86" t="n">
-        <v>628</v>
-      </c>
-      <c r="C86" t="n">
-        <v>675</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.927399732271223</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.463542966506181</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-0.4638567657650415</v>
-      </c>
-      <c r="G86" t="n">
-        <v>77</v>
-      </c>
-      <c r="H86" t="n">
-        <v>30.42001700496314</v>
-      </c>
-      <c r="I86" t="n">
-        <v>30</v>
-      </c>
-      <c r="J86" t="n">
-        <v>47</v>
-      </c>
-      <c r="K86" t="n">
-        <v>117.3866779309503</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.945288665086621</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>0.7957231631519178</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.6382978723404256</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.2113058164047447</v>
-      </c>
-      <c r="S86" t="n">
-        <v>0.7784807779044268</v>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U86" t="n">
-        <v>85</v>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>237</v>
-      </c>
-      <c r="B87" t="n">
-        <v>263</v>
-      </c>
-      <c r="C87" t="n">
-        <v>297</v>
-      </c>
-      <c r="D87" t="n">
-        <v>4.041682314314556</v>
-      </c>
-      <c r="E87" t="n">
-        <v>3.59355315678112</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-0.4481291575334363</v>
-      </c>
-      <c r="G87" t="n">
-        <v>60</v>
-      </c>
-      <c r="H87" t="n">
-        <v>22.31425362474593</v>
-      </c>
-      <c r="I87" t="n">
-        <v>26</v>
-      </c>
-      <c r="J87" t="n">
-        <v>34</v>
-      </c>
-      <c r="K87" t="n">
-        <v>176.786294800206</v>
-      </c>
-      <c r="L87" t="n">
-        <v>14.29375288222458</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>0.6417917304738321</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.1251956671065429</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.9358320686765129</v>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>n36</t>
-        </is>
-      </c>
-      <c r="U87" t="n">
-        <v>86</v>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D2" t="n">
-        <v>3.868690368745517</v>
+        <v>4.003990131892082</v>
       </c>
       <c r="E2" t="n">
-        <v>3.182549001527095</v>
+        <v>3.326622805743577</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.686141367218422</v>
+        <v>-0.6773673261485048</v>
       </c>
       <c r="G2" t="n">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="H2" t="n">
-        <v>168.2967700368683</v>
+        <v>160.4781609917518</v>
       </c>
       <c r="I2" t="n">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="K2" t="n">
-        <v>602.9875838737314</v>
+        <v>522.0882506565096</v>
       </c>
       <c r="L2" t="n">
-        <v>16.15028931709904</v>
+        <v>16.56598648017359</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6057113754588861</v>
+        <v>0.8025100527091578</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3840977308224902</v>
+        <v>0.1201013134060788</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9151888929040919</v>
+        <v>0.9083260332292223</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>385</v>
+        <v>296</v>
       </c>
       <c r="B3" t="n">
-        <v>434</v>
+        <v>323</v>
       </c>
       <c r="C3" t="n">
-        <v>556</v>
+        <v>360</v>
       </c>
       <c r="D3" t="n">
-        <v>2.751234332339654</v>
+        <v>2.158786121446781</v>
       </c>
       <c r="E3" t="n">
-        <v>2.072255924954137</v>
+        <v>1.481418795298276</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6789784073855171</v>
+        <v>-0.6773673261485048</v>
       </c>
       <c r="G3" t="n">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="H3" t="n">
-        <v>112.5988678243752</v>
+        <v>26.46988084456825</v>
       </c>
       <c r="I3" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J3" t="n">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="K3" t="n">
-        <v>311.6497019201037</v>
+        <v>107.8461339039658</v>
       </c>
       <c r="L3" t="n">
-        <v>12.02243641238001</v>
+        <v>8.931695764338524</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,20 +692,20 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8493368057381463</v>
+        <v>0.6596796747708031</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4016393442622951</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4156087944255694</v>
+        <v>0.05064459323399811</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8367965316574615</v>
+        <v>0.9593414996346704</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>556</v>
+        <v>1073</v>
       </c>
       <c r="B4" t="n">
-        <v>666</v>
+        <v>1099</v>
       </c>
       <c r="C4" t="n">
-        <v>822</v>
+        <v>1151</v>
       </c>
       <c r="D4" t="n">
-        <v>2.293908072113623</v>
+        <v>2.845352178508437</v>
       </c>
       <c r="E4" t="n">
-        <v>1.614929664728106</v>
+        <v>2.167984852359932</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6789784073855171</v>
+        <v>-0.6773673261485048</v>
       </c>
       <c r="G4" t="n">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>108.8448926345785</v>
+        <v>134.853448835211</v>
       </c>
       <c r="I4" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="K4" t="n">
-        <v>389.8674750111175</v>
+        <v>187.3694475085529</v>
       </c>
       <c r="L4" t="n">
-        <v>10.0239967234556</v>
+        <v>11.77227319944196</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,20 +778,20 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6750834841166745</v>
+        <v>0.705727095617934</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7051282051282052</v>
+        <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2946671751644964</v>
+        <v>0.1134412900913027</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8583559910888036</v>
+        <v>0.9316259737848098</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2772</v>
+        <v>1723</v>
       </c>
       <c r="B5" t="n">
-        <v>2808</v>
+        <v>1743</v>
       </c>
       <c r="C5" t="n">
-        <v>2903</v>
+        <v>1795</v>
       </c>
       <c r="D5" t="n">
-        <v>1.716020367823751</v>
+        <v>1.167550479521241</v>
       </c>
       <c r="E5" t="n">
-        <v>1.037041960438234</v>
+        <v>0.4901831533727358</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6789784073855171</v>
+        <v>-0.6773673261485048</v>
       </c>
       <c r="G5" t="n">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="H5" t="n">
-        <v>42.84842591192728</v>
+        <v>26.80258178071176</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K5" t="n">
-        <v>121.4662392259579</v>
+        <v>43.09820383840565</v>
       </c>
       <c r="L5" t="n">
-        <v>7.498723577269983</v>
+        <v>4.83058769416327</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,20 +864,20 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.9104574099804033</v>
+        <v>0.9306885574210376</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3789473684210526</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3052650056973994</v>
+        <v>0.2100638574098149</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9422735132406087</v>
+        <v>0.991244953020605</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>901</v>
+        <v>391</v>
       </c>
       <c r="B6" t="n">
-        <v>943</v>
+        <v>444</v>
       </c>
       <c r="C6" t="n">
-        <v>1088</v>
+        <v>561</v>
       </c>
       <c r="D6" t="n">
-        <v>4.891269032584712</v>
+        <v>2.702516842783859</v>
       </c>
       <c r="E6" t="n">
-        <v>4.327275946384498</v>
+        <v>2.028383349647656</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5639930862002142</v>
+        <v>-0.6741334931362032</v>
       </c>
       <c r="G6" t="n">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H6" t="n">
-        <v>129.4685784706354</v>
+        <v>116.9361888817784</v>
       </c>
       <c r="I6" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J6" t="n">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="K6" t="n">
-        <v>529.9443448379901</v>
+        <v>314.3985999955773</v>
       </c>
       <c r="L6" t="n">
-        <v>25.92871699478285</v>
+        <v>11.76930471002033</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,20 +950,20 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.9311887115282087</v>
+        <v>0.7498094246455937</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2896551724137931</v>
+        <v>0.452991452991453</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2500663652619791</v>
+        <v>0.1941004894561376</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9708994855190627</v>
+        <v>0.8330823949732205</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1088</v>
+        <v>640</v>
       </c>
       <c r="B7" t="n">
-        <v>1132</v>
+        <v>665</v>
       </c>
       <c r="C7" t="n">
-        <v>1447</v>
+        <v>827</v>
       </c>
       <c r="D7" t="n">
-        <v>3.763526599956588</v>
+        <v>2.464993841422364</v>
       </c>
       <c r="E7" t="n">
-        <v>3.108894346137051</v>
+        <v>1.790860348286161</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6546322538195368</v>
+        <v>-0.6741334931362032</v>
       </c>
       <c r="G7" t="n">
-        <v>359</v>
+        <v>187</v>
       </c>
       <c r="H7" t="n">
-        <v>158.8722988563225</v>
+        <v>108.4850064141688</v>
       </c>
       <c r="I7" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>315</v>
+        <v>162</v>
       </c>
       <c r="K7" t="n">
-        <v>505.9110596802688</v>
+        <v>251.8787299286754</v>
       </c>
       <c r="L7" t="n">
-        <v>10.83785313048069</v>
+        <v>10.73490576219273</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,20 +1036,20 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8808615462724132</v>
+        <v>0.8474785936806655</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1396825396825397</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5132978958192951</v>
+        <v>0.414783930500165</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8623533191880005</v>
+        <v>0.7992220103211534</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1617</v>
+        <v>1706</v>
       </c>
       <c r="B8" t="n">
-        <v>1659</v>
+        <v>1774</v>
       </c>
       <c r="C8" t="n">
-        <v>1794</v>
+        <v>1866</v>
       </c>
       <c r="D8" t="n">
-        <v>2.414027306924194</v>
+        <v>3.521480864429523</v>
       </c>
       <c r="E8" t="n">
-        <v>1.759395053104657</v>
+        <v>2.847347371293319</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6546322538195368</v>
+        <v>-0.6741334931362032</v>
       </c>
       <c r="G8" t="n">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H8" t="n">
-        <v>121.5973923065199</v>
+        <v>210.7050425226676</v>
       </c>
       <c r="I8" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J8" t="n">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="K8" t="n">
-        <v>277.1577884688403</v>
+        <v>415.0071621948254</v>
       </c>
       <c r="L8" t="n">
-        <v>6.951690843826117</v>
+        <v>15.33584570791574</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,20 +1122,20 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7613811753766491</v>
+        <v>0.5716568137416536</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07002314239547863</v>
+        <v>0.1841816314602717</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8693520003881541</v>
+        <v>0.9120392097119688</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2824</v>
+        <v>2776</v>
       </c>
       <c r="B9" t="n">
-        <v>2865</v>
+        <v>2801</v>
       </c>
       <c r="C9" t="n">
-        <v>2998</v>
+        <v>2910</v>
       </c>
       <c r="D9" t="n">
-        <v>3.032538797744097</v>
+        <v>1.889844763718285</v>
       </c>
       <c r="E9" t="n">
-        <v>2.37790654392456</v>
+        <v>1.215711270582082</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6546322538195368</v>
+        <v>-0.6741334931362032</v>
       </c>
       <c r="G9" t="n">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="H9" t="n">
-        <v>57.02561678541679</v>
+        <v>45.93001597220473</v>
       </c>
       <c r="I9" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J9" t="n">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="K9" t="n">
-        <v>222.0086430171387</v>
+        <v>125.0670416467131</v>
       </c>
       <c r="L9" t="n">
-        <v>8.732822587945607</v>
+        <v>8.230164758538654</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,20 +1208,20 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8858012125346532</v>
+        <v>0.9391195449954516</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3082706766917293</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4291324302798198</v>
+        <v>0.3168233043603397</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6702355636436432</v>
+        <v>0.9326001086882773</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U9" t="n">
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2737</v>
+        <v>2910</v>
       </c>
       <c r="B10" t="n">
-        <v>2803</v>
+        <v>2945</v>
       </c>
       <c r="C10" t="n">
         <v>2998</v>
       </c>
       <c r="D10" t="n">
-        <v>2.663147222161534</v>
+        <v>1.912350432274859</v>
       </c>
       <c r="E10" t="n">
-        <v>2.052717702789241</v>
+        <v>1.238216939138656</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6104295193722927</v>
+        <v>-0.6741334931362032</v>
       </c>
       <c r="G10" t="n">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c r="H10" t="n">
-        <v>60.27748068965002</v>
+        <v>30.66351895567368</v>
       </c>
       <c r="I10" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="J10" t="n">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="K10" t="n">
-        <v>341.4075961009502</v>
+        <v>106.3498976421912</v>
       </c>
       <c r="L10" t="n">
-        <v>5.971821464489651</v>
+        <v>8.328175644817609</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,20 +1294,20 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8095956481417901</v>
+        <v>0.7699866817246935</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2609124388444617</v>
+        <v>0.1833718572685308</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8980610720316939</v>
+        <v>0.8583916018342178</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U10" t="n">
@@ -1331,69 +1331,69 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>845</v>
+        <v>902</v>
       </c>
       <c r="B11" t="n">
-        <v>1062</v>
+        <v>938</v>
       </c>
       <c r="C11" t="n">
-        <v>1388</v>
+        <v>1092</v>
       </c>
       <c r="D11" t="n">
-        <v>2.246650656439596</v>
+        <v>5.055500874335028</v>
       </c>
       <c r="E11" t="n">
-        <v>1.62951308066912</v>
+        <v>4.47821895753361</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6171375757704758</v>
+        <v>-0.5772819168014176</v>
       </c>
       <c r="G11" t="n">
-        <v>543</v>
+        <v>190</v>
       </c>
       <c r="H11" t="n">
-        <v>109.0100289162719</v>
+        <v>122.1572440194313</v>
       </c>
       <c r="I11" t="n">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="J11" t="n">
-        <v>326</v>
+        <v>154</v>
       </c>
       <c r="K11" t="n">
-        <v>673.8698832248067</v>
+        <v>534.4627143465849</v>
       </c>
       <c r="L11" t="n">
-        <v>5.145297193683154</v>
+        <v>26.99357035759236</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(881), 'value': np.float64(1.4857547570655374), 'amplitude': np.float64(2.102892332836013), 'start_idx': np.int64(846), 'end_idx': np.int64(898), 'duration': np.float64(52.0), 'fwhm': np.float64(65.33994258131906), 'rise_time': np.float64(35.0), 'decay_time': np.float64(17.0), 'auc': np.float64(77.99325425884291)}, {'index': np.int64(1248), 'value': np.float64(1.4819219765785236), 'amplitude': np.float64(2.0990595523489994), 'start_idx': np.int64(1220), 'end_idx': np.int64(1280), 'duration': np.float64(60.0), 'fwhm': np.float64(79.84796259880136), 'rise_time': np.float64(28.0), 'decay_time': np.float64(32.0), 'auc': np.float64(104.08664785251283)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.4544351210611818</v>
+        <v>0.9021414571842834</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6656441717791411</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5172014322701378</v>
+        <v>0.2035618687724742</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3883327304990239</v>
+        <v>0.9759368091123741</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>834</v>
+        <v>2210</v>
       </c>
       <c r="B12" t="n">
-        <v>875</v>
+        <v>2238</v>
       </c>
       <c r="C12" t="n">
-        <v>941</v>
+        <v>2373</v>
       </c>
       <c r="D12" t="n">
-        <v>2.540499302553368</v>
+        <v>3.345559794702043</v>
       </c>
       <c r="E12" t="n">
-        <v>1.978674469940941</v>
+        <v>2.768277877900625</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5618248326124269</v>
+        <v>-0.5772819168014176</v>
       </c>
       <c r="G12" t="n">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="H12" t="n">
-        <v>57.26508226850035</v>
+        <v>67.00114446553926</v>
       </c>
       <c r="I12" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J12" t="n">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="K12" t="n">
-        <v>142.4197228537556</v>
+        <v>258.6654746785709</v>
       </c>
       <c r="L12" t="n">
-        <v>8.855526462805164</v>
+        <v>17.86343350513227</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,20 +1466,20 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.6601232247477048</v>
+        <v>0.9350474241338055</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6212121212121212</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="R12" t="n">
-        <v>0.07804456735513024</v>
+        <v>0.2793264763907391</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8522103217459545</v>
+        <v>0.9241476841732381</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U12" t="n">
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2180</v>
+        <v>1170</v>
       </c>
       <c r="B13" t="n">
-        <v>2243</v>
+        <v>1201</v>
       </c>
       <c r="C13" t="n">
-        <v>2344</v>
+        <v>1254</v>
       </c>
       <c r="D13" t="n">
-        <v>4.148794024153344</v>
+        <v>2.734465183315018</v>
       </c>
       <c r="E13" t="n">
-        <v>3.586969191540917</v>
+        <v>2.128555635108015</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5618248326124269</v>
+        <v>-0.6059095482070032</v>
       </c>
       <c r="G13" t="n">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="H13" t="n">
-        <v>99.46058436115391</v>
+        <v>165.1403335114333</v>
       </c>
       <c r="I13" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="J13" t="n">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="K13" t="n">
-        <v>387.7956366618978</v>
+        <v>158.4777186399521</v>
       </c>
       <c r="L13" t="n">
-        <v>14.46162777241939</v>
+        <v>5.465258381977974</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,20 +1552,20 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7458199087929277</v>
+        <v>0.7762879750424596</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6237623762376238</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2302542894564428</v>
+        <v>0.2237003227322766</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9954185379143008</v>
+        <v>0.9474170375440685</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2344</v>
+        <v>1480</v>
       </c>
       <c r="B14" t="n">
-        <v>2391</v>
+        <v>1514</v>
       </c>
       <c r="C14" t="n">
-        <v>2451</v>
+        <v>1583</v>
       </c>
       <c r="D14" t="n">
-        <v>2.340669189618615</v>
+        <v>2.414795275941323</v>
       </c>
       <c r="E14" t="n">
-        <v>1.778844357006188</v>
+        <v>1.80888572773432</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5618248326124269</v>
+        <v>-0.6059095482070032</v>
       </c>
       <c r="G14" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H14" t="n">
-        <v>49.65895848551736</v>
+        <v>44.1318021560669</v>
       </c>
       <c r="I14" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1699646751757</v>
+        <v>183.9171262335707</v>
       </c>
       <c r="L14" t="n">
-        <v>8.158970139652277</v>
+        <v>4.826347836910362</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,20 +1638,20 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.6366009100661056</v>
+        <v>0.8628711293859291</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05623534936588907</v>
+        <v>0.2010870324547759</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9504766789400905</v>
+        <v>0.9695283675197983</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U14" t="n">
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2451</v>
+        <v>2254</v>
       </c>
       <c r="B15" t="n">
-        <v>2491</v>
+        <v>2284</v>
       </c>
       <c r="C15" t="n">
-        <v>2572</v>
+        <v>2472</v>
       </c>
       <c r="D15" t="n">
-        <v>1.858922019803702</v>
+        <v>2.110665305849726</v>
       </c>
       <c r="E15" t="n">
-        <v>1.297097187191275</v>
+        <v>1.504755757642723</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5618248326124269</v>
+        <v>-0.6059095482070032</v>
       </c>
       <c r="G15" t="n">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="H15" t="n">
-        <v>51.68034473052512</v>
+        <v>121.6769766338998</v>
       </c>
       <c r="I15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J15" t="n">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="K15" t="n">
-        <v>157.9590417085861</v>
+        <v>248.5447387137446</v>
       </c>
       <c r="L15" t="n">
-        <v>6.479723541792668</v>
+        <v>4.218496298556243</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7517156037499887</v>
+        <v>0.8291232097898794</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4938271604938271</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="R15" t="n">
-        <v>0.09107257584234255</v>
+        <v>0.2186712629756805</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9187478813791505</v>
+        <v>0.697659483687046</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U15" t="n">
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>215</v>
+        <v>2882</v>
       </c>
       <c r="B16" t="n">
-        <v>245</v>
+        <v>2933</v>
       </c>
       <c r="C16" t="n">
-        <v>299</v>
+        <v>2998</v>
       </c>
       <c r="D16" t="n">
-        <v>2.796445828206354</v>
+        <v>2.814423313759071</v>
       </c>
       <c r="E16" t="n">
-        <v>2.141061183260432</v>
+        <v>2.208513765552067</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6553846449459224</v>
+        <v>-0.6059095482070032</v>
       </c>
       <c r="G16" t="n">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="H16" t="n">
-        <v>34.0926115877713</v>
+        <v>40.1617373132417</v>
       </c>
       <c r="I16" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J16" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K16" t="n">
-        <v>162.5913155810761</v>
+        <v>182.3890163097392</v>
       </c>
       <c r="L16" t="n">
-        <v>10.89002203944734</v>
+        <v>5.62506727085433</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,20 +1810,20 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8617328011740499</v>
+        <v>0.7634118446816091</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2794841686433453</v>
+        <v>0.671565548050723</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9496357294520933</v>
+        <v>0.8127487551380791</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U16" t="n">
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>417</v>
+        <v>1093</v>
       </c>
       <c r="B17" t="n">
-        <v>454</v>
+        <v>1125</v>
       </c>
       <c r="C17" t="n">
-        <v>545</v>
+        <v>1215</v>
       </c>
       <c r="D17" t="n">
-        <v>2.656549624884937</v>
+        <v>4.054005320214908</v>
       </c>
       <c r="E17" t="n">
-        <v>2.001164979939015</v>
+        <v>3.379800882223089</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6553846449459224</v>
+        <v>-0.6742044379918187</v>
       </c>
       <c r="G17" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H17" t="n">
-        <v>43.74716155819004</v>
+        <v>106.1451141035477</v>
       </c>
       <c r="I17" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J17" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17" t="n">
-        <v>291.3861763214146</v>
+        <v>313.4589278218095</v>
       </c>
       <c r="L17" t="n">
-        <v>10.34523310699646</v>
+        <v>11.40445758144652</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,20 +1896,20 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.6472411302703669</v>
+        <v>0.8159328807519598</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4065934065934066</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09623332152551656</v>
+        <v>0.1419701422745142</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2815170332319342</v>
+        <v>0.9690733984671658</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U17" t="n">
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>545</v>
+        <v>1613</v>
       </c>
       <c r="B18" t="n">
-        <v>572</v>
+        <v>1658</v>
       </c>
       <c r="C18" t="n">
-        <v>684</v>
+        <v>1795</v>
       </c>
       <c r="D18" t="n">
-        <v>2.490916627375971</v>
+        <v>2.560061123261507</v>
       </c>
       <c r="E18" t="n">
-        <v>1.835531982430048</v>
+        <v>1.885856685269689</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6553846449459224</v>
+        <v>-0.6742044379918187</v>
       </c>
       <c r="G18" t="n">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="H18" t="n">
-        <v>31.97167193034556</v>
+        <v>116.5137021388298</v>
       </c>
       <c r="I18" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J18" t="n">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="K18" t="n">
-        <v>264.3035757509972</v>
+        <v>284.3315938132656</v>
       </c>
       <c r="L18" t="n">
-        <v>9.700219005475569</v>
+        <v>7.201793332772063</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,20 +1982,20 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7192940900414786</v>
+        <v>0.8348927220060388</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2410714285714286</v>
+        <v>0.3284671532846715</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1357611871816815</v>
+        <v>0.1594816995958123</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7407317814868919</v>
+        <v>0.8564096675750967</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U18" t="n">
@@ -2019,69 +2019,69 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2185</v>
+        <v>2823</v>
       </c>
       <c r="B19" t="n">
-        <v>2243</v>
+        <v>2860</v>
       </c>
       <c r="C19" t="n">
-        <v>2589</v>
+        <v>2998</v>
       </c>
       <c r="D19" t="n">
-        <v>2.694092932558888</v>
+        <v>2.994692641439999</v>
       </c>
       <c r="E19" t="n">
-        <v>2.173471523356943</v>
+        <v>2.32048820344818</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5206214092019448</v>
+        <v>-0.6742044379918187</v>
       </c>
       <c r="G19" t="n">
-        <v>404</v>
+        <v>175</v>
       </c>
       <c r="H19" t="n">
-        <v>62.34299086410283</v>
+        <v>61.7104741570447</v>
       </c>
       <c r="I19" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="J19" t="n">
-        <v>346</v>
+        <v>138</v>
       </c>
       <c r="K19" t="n">
-        <v>392.6000762272222</v>
+        <v>226.4325202806003</v>
       </c>
       <c r="L19" t="n">
-        <v>7.064887263970778</v>
+        <v>8.424469753029829</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2335), 'value': np.float64(1.5507756670004555), 'amplitude': np.float64(2.0713970762024), 'start_idx': np.int64(2305), 'end_idx': np.int64(2379), 'duration': np.float64(74.0), 'fwhm': np.float64(32.44319220552461), 'rise_time': np.float64(30.0), 'decay_time': np.float64(44.0), 'auc': np.float64(87.13567324505041)}, {'index': np.int64(2422), 'value': np.float64(0.6300192166694437), 'amplitude': np.float64(1.1506406258713886), 'start_idx': np.int64(2404), 'end_idx': np.int64(2426), 'duration': np.float64(22.0), 'fwhm': np.float64(49.03148234583523), 'rise_time': np.float64(18.0), 'decay_time': np.float64(4.0), 'auc': np.float64(20.749446264280518)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.6684610352575715</v>
+        <v>0.9005812524500824</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1676300578034682</v>
+        <v>0.2681159420289855</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5082759955393833</v>
+        <v>0.3352818277318709</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2551792038683658</v>
+        <v>0.6437143804281457</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U19" t="n">
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2007</v>
+        <v>1302</v>
       </c>
       <c r="B20" t="n">
-        <v>2053</v>
+        <v>1353</v>
       </c>
       <c r="C20" t="n">
-        <v>2354</v>
+        <v>1448</v>
       </c>
       <c r="D20" t="n">
-        <v>4.06150074652539</v>
+        <v>2.876695914353542</v>
       </c>
       <c r="E20" t="n">
-        <v>3.602556271265025</v>
+        <v>2.324947116321769</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.458944475260365</v>
+        <v>-0.551748798031773</v>
       </c>
       <c r="G20" t="n">
-        <v>347</v>
+        <v>146</v>
       </c>
       <c r="H20" t="n">
-        <v>133.9586997832209</v>
+        <v>70.04115884523048</v>
       </c>
       <c r="I20" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J20" t="n">
-        <v>301</v>
+        <v>95</v>
       </c>
       <c r="K20" t="n">
-        <v>525.9534965789287</v>
+        <v>232.860040139374</v>
       </c>
       <c r="L20" t="n">
-        <v>14.16960714287207</v>
+        <v>10.18489635884467</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,20 +2154,20 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.892930345927913</v>
+        <v>0.8175934285798404</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1528239202657807</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4043253327540485</v>
+        <v>0.5759166942298897</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8019946104256076</v>
+        <v>0.8164139242266979</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U20" t="n">
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>129</v>
+        <v>1022</v>
       </c>
       <c r="B21" t="n">
-        <v>164</v>
+        <v>1058</v>
       </c>
       <c r="C21" t="n">
-        <v>240</v>
+        <v>1128</v>
       </c>
       <c r="D21" t="n">
-        <v>3.585985272244062</v>
+        <v>2.349134107852699</v>
       </c>
       <c r="E21" t="n">
-        <v>2.981224671671008</v>
+        <v>1.735003142857328</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.604760600573054</v>
+        <v>-0.614130964995372</v>
       </c>
       <c r="G21" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H21" t="n">
-        <v>101.2516353634998</v>
+        <v>203.7934014726923</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K21" t="n">
-        <v>299.685569290879</v>
+        <v>169.8814012726564</v>
       </c>
       <c r="L21" t="n">
-        <v>15.96033555829962</v>
+        <v>5.264780665204082</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,20 +2240,20 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8084605717758315</v>
+        <v>0.7763187174494368</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4605263157894737</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2305964118405743</v>
+        <v>0.6568221698888272</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8273783029580656</v>
+        <v>0.841435007089501</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U21" t="n">
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>240</v>
+        <v>2021</v>
       </c>
       <c r="B22" t="n">
-        <v>287</v>
+        <v>2046</v>
       </c>
       <c r="C22" t="n">
-        <v>385</v>
+        <v>2135</v>
       </c>
       <c r="D22" t="n">
-        <v>3.783780038208856</v>
+        <v>1.994147240079167</v>
       </c>
       <c r="E22" t="n">
-        <v>3.179019437635802</v>
+        <v>1.380016275083795</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.604760600573054</v>
+        <v>-0.614130964995372</v>
       </c>
       <c r="G22" t="n">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="H22" t="n">
-        <v>114.3855767731629</v>
+        <v>36.70589068122672</v>
       </c>
       <c r="I22" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J22" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K22" t="n">
-        <v>368.9187165824293</v>
+        <v>167.1393545184734</v>
       </c>
       <c r="L22" t="n">
-        <v>16.84067125318046</v>
+        <v>4.469199011688436</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,20 +2326,20 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.72195289250383</v>
+        <v>0.8341561783962343</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4795918367346939</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1245835247113589</v>
+        <v>0.462415001106775</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8367066257852656</v>
+        <v>0.3804844958591139</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U22" t="n">
@@ -2363,69 +2363,69 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>385</v>
+        <v>2614</v>
       </c>
       <c r="B23" t="n">
-        <v>421</v>
+        <v>2640</v>
       </c>
       <c r="C23" t="n">
-        <v>564</v>
+        <v>2745</v>
       </c>
       <c r="D23" t="n">
-        <v>2.048924416840982</v>
+        <v>3.093277856970898</v>
       </c>
       <c r="E23" t="n">
-        <v>1.444163816267928</v>
+        <v>2.479146891975526</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.604760600573054</v>
+        <v>-0.614130964995372</v>
       </c>
       <c r="G23" t="n">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="H23" t="n">
-        <v>36.57187864368177</v>
+        <v>36.54347345262295</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J23" t="n">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="K23" t="n">
-        <v>203.965141217076</v>
+        <v>263.014439561909</v>
       </c>
       <c r="L23" t="n">
-        <v>9.119256980637642</v>
+        <v>6.932524371020484</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(485), 'value': np.float64(0.8340614299682204), 'amplitude': np.float64(1.4388220305412744), 'start_idx': np.int64(460), 'end_idx': np.int64(506), 'duration': np.float64(46.0), 'fwhm': np.float64(25.110036644485376), 'rise_time': np.float64(25.0), 'decay_time': np.float64(21.0), 'auc': np.float64(52.54914064333735)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8179097862053322</v>
+        <v>0.9227309246401959</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2517482517482518</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3504338497897846</v>
+        <v>0.2679862242692276</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6455243824570489</v>
+        <v>0.9583540945048706</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U23" t="n">
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>564</v>
+        <v>2745</v>
       </c>
       <c r="B24" t="n">
-        <v>610</v>
+        <v>2798</v>
       </c>
       <c r="C24" t="n">
-        <v>670</v>
+        <v>2998</v>
       </c>
       <c r="D24" t="n">
-        <v>2.192543661821139</v>
+        <v>2.820201630488403</v>
       </c>
       <c r="E24" t="n">
-        <v>1.587783061248085</v>
+        <v>2.206070665493031</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.604760600573054</v>
+        <v>-0.614130964995372</v>
       </c>
       <c r="G24" t="n">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="H24" t="n">
-        <v>36.78100859144058</v>
+        <v>53.19632637149243</v>
       </c>
       <c r="I24" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>129.7232972969637</v>
+        <v>334.6485551784867</v>
       </c>
       <c r="L24" t="n">
-        <v>9.758470800129574</v>
+        <v>6.320517405344909</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,20 +2498,20 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7042639946219179</v>
+        <v>0.8177717833243111</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.265</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1087904150470397</v>
+        <v>0.2504239081509592</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9848435359457236</v>
+        <v>0.8907338965390907</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U24" t="n">
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>368</v>
+        <v>2248</v>
       </c>
       <c r="B25" t="n">
-        <v>453</v>
+        <v>2283</v>
       </c>
       <c r="C25" t="n">
-        <v>613</v>
+        <v>2422</v>
       </c>
       <c r="D25" t="n">
-        <v>4.243277449430323</v>
+        <v>2.847164929411653</v>
       </c>
       <c r="E25" t="n">
-        <v>3.672447482366906</v>
+        <v>2.238807898822912</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5708299670634177</v>
+        <v>-0.6083570305887412</v>
       </c>
       <c r="G25" t="n">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="H25" t="n">
-        <v>191.2984189186748</v>
+        <v>295.1861288840955</v>
       </c>
       <c r="I25" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="K25" t="n">
-        <v>718.5200281170655</v>
+        <v>278.5307165635032</v>
       </c>
       <c r="L25" t="n">
-        <v>21.8474100340693</v>
+        <v>5.588690179187708</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,20 +2584,20 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.7927243110214108</v>
+        <v>0.8507390943155272</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.53125</v>
+        <v>0.2517985611510791</v>
       </c>
       <c r="R25" t="n">
-        <v>0.7394488899298838</v>
+        <v>0.3209202498245851</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8459311375107543</v>
+        <v>0.7660084292343887</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U25" t="n">
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>807</v>
+        <v>848</v>
       </c>
       <c r="B26" t="n">
-        <v>847</v>
+        <v>874</v>
       </c>
       <c r="C26" t="n">
-        <v>990</v>
+        <v>948</v>
       </c>
       <c r="D26" t="n">
-        <v>2.128981464037814</v>
+        <v>2.126440870983194</v>
       </c>
       <c r="E26" t="n">
-        <v>1.558151496974397</v>
+        <v>1.489588320629171</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5708299670634177</v>
+        <v>-0.6368525503540235</v>
       </c>
       <c r="G26" t="n">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>156.2380780587577</v>
+        <v>68.56585207179921</v>
       </c>
       <c r="I26" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="K26" t="n">
-        <v>242.1311435218368</v>
+        <v>145.7830250398875</v>
       </c>
       <c r="L26" t="n">
-        <v>10.96151066106031</v>
+        <v>4.834500740773334</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,20 +2670,20 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.9097958864571909</v>
+        <v>0.8290866042202849</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2797202797202797</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3454686939389716</v>
+        <v>0.3003638025107561</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8923477251431341</v>
+        <v>0.6493721777050615</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>186</v>
+        <v>1175</v>
       </c>
       <c r="B27" t="n">
-        <v>415</v>
+        <v>1243</v>
       </c>
       <c r="C27" t="n">
-        <v>742</v>
+        <v>1397</v>
       </c>
       <c r="D27" t="n">
-        <v>4.051042061952677</v>
+        <v>2.326107400481144</v>
       </c>
       <c r="E27" t="n">
-        <v>3.479503822873021</v>
+        <v>1.68925485012712</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5715382390796568</v>
+        <v>-0.6368525503540235</v>
       </c>
       <c r="G27" t="n">
-        <v>556</v>
+        <v>222</v>
       </c>
       <c r="H27" t="n">
-        <v>104.1924026304823</v>
+        <v>92.27971295092698</v>
       </c>
       <c r="I27" t="n">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="J27" t="n">
-        <v>327</v>
+        <v>154</v>
       </c>
       <c r="K27" t="n">
-        <v>866.878051492926</v>
+        <v>254.0674712257743</v>
       </c>
       <c r="L27" t="n">
-        <v>11.56490540584204</v>
+        <v>5.288446109270301</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,20 +2756,20 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.4543365791464106</v>
+        <v>0.7260354987355864</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7003058103975535</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="R27" t="n">
-        <v>0.9613289614029285</v>
+        <v>0.3435657637310421</v>
       </c>
       <c r="S27" t="n">
-        <v>0.4565280154169549</v>
+        <v>0.8880918397658617</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U27" t="n">
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>449</v>
+        <v>2433</v>
       </c>
       <c r="B28" t="n">
-        <v>481</v>
+        <v>2454</v>
       </c>
       <c r="C28" t="n">
-        <v>630</v>
+        <v>2491</v>
       </c>
       <c r="D28" t="n">
-        <v>3.747156695721805</v>
+        <v>1.804822582089442</v>
       </c>
       <c r="E28" t="n">
-        <v>3.304697736980918</v>
+        <v>1.282870587452278</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4424589587408863</v>
+        <v>-0.5219519946371645</v>
       </c>
       <c r="G28" t="n">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="H28" t="n">
-        <v>44.78633424979859</v>
+        <v>31.28634416157502</v>
       </c>
       <c r="I28" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J28" t="n">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="K28" t="n">
-        <v>272.4287204291181</v>
+        <v>73.65281798021081</v>
       </c>
       <c r="L28" t="n">
-        <v>11.00254846118901</v>
+        <v>4.613779076059418</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,20 +2842,20 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8617464785914145</v>
+        <v>0.7414803925926091</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2147651006711409</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3464549156803964</v>
+        <v>0.1370703406115946</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8307367431815519</v>
+        <v>0.9082519245564143</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U28" t="n">
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>449</v>
+        <v>2185</v>
       </c>
       <c r="B29" t="n">
-        <v>485</v>
+        <v>2236</v>
       </c>
       <c r="C29" t="n">
-        <v>567</v>
+        <v>2352</v>
       </c>
       <c r="D29" t="n">
-        <v>2.468290806726285</v>
+        <v>4.202134014797087</v>
       </c>
       <c r="E29" t="n">
-        <v>1.917685601700446</v>
+        <v>3.632258083160379</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5506052050258388</v>
+        <v>-0.5698759316367082</v>
       </c>
       <c r="G29" t="n">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="H29" t="n">
-        <v>39.78247366864025</v>
+        <v>102.2352419523277</v>
       </c>
       <c r="I29" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="K29" t="n">
-        <v>180.8002811562305</v>
+        <v>398.2384109826772</v>
       </c>
       <c r="L29" t="n">
-        <v>7.172619433476836</v>
+        <v>14.74460809038225</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,20 +2928,20 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8598105730291762</v>
+        <v>0.8183354370913078</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.4396551724137931</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4011171517525833</v>
+        <v>0.1932716858632642</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8083587359809601</v>
+        <v>0.9802647196674894</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U29" t="n">
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>567</v>
+        <v>2352</v>
       </c>
       <c r="B30" t="n">
-        <v>614</v>
+        <v>2387</v>
       </c>
       <c r="C30" t="n">
-        <v>729</v>
+        <v>2456</v>
       </c>
       <c r="D30" t="n">
-        <v>2.443546442779446</v>
+        <v>2.367900440961392</v>
       </c>
       <c r="E30" t="n">
-        <v>1.892941237753607</v>
+        <v>1.798024509324683</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5506052050258388</v>
+        <v>-0.5698759316367082</v>
       </c>
       <c r="G30" t="n">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="H30" t="n">
-        <v>99.96406152607756</v>
+        <v>50.11451752949824</v>
       </c>
       <c r="I30" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J30" t="n">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="K30" t="n">
-        <v>312.8005749927563</v>
+        <v>174.9628761548361</v>
       </c>
       <c r="L30" t="n">
-        <v>7.100714654173497</v>
+        <v>8.308579373260411</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,20 +3014,20 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7625679144733297</v>
+        <v>0.7003234394616746</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4086956521739131</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1454019829123185</v>
+        <v>0.06956999200405045</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7466422034665237</v>
+        <v>0.8606529727318587</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U30" t="n">
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>329</v>
+        <v>2456</v>
       </c>
       <c r="B31" t="n">
-        <v>349</v>
+        <v>2482</v>
       </c>
       <c r="C31" t="n">
-        <v>440</v>
+        <v>2555</v>
       </c>
       <c r="D31" t="n">
-        <v>2.796359668774257</v>
+        <v>1.98539695501518</v>
       </c>
       <c r="E31" t="n">
-        <v>2.255271580580594</v>
+        <v>1.415521023378471</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5410880881936634</v>
+        <v>-0.5698759316367082</v>
       </c>
       <c r="G31" t="n">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H31" t="n">
-        <v>22.91119309167777</v>
+        <v>50.28877106713344</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J31" t="n">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="K31" t="n">
-        <v>182.8292499678203</v>
+        <v>136.5431896850285</v>
       </c>
       <c r="L31" t="n">
-        <v>8.606941268083425</v>
+        <v>6.966436554011399</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,20 +3100,20 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8254986542976273</v>
+        <v>0.8109593848717739</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="R31" t="n">
-        <v>0.353791911975923</v>
+        <v>0.1148452650129923</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7497965202812507</v>
+        <v>0.9150424409615144</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U31" t="n">
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>2383</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>2786</v>
+        <v>77</v>
       </c>
       <c r="D32" t="n">
-        <v>2.687630275981313</v>
+        <v>1.335184813039622</v>
       </c>
       <c r="E32" t="n">
-        <v>2.075058727166649</v>
+        <v>0.6808540450650077</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6125715488146637</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G32" t="n">
-        <v>534</v>
+        <v>77</v>
       </c>
       <c r="H32" t="n">
-        <v>94.93749640477836</v>
+        <v>24.60215515413388</v>
       </c>
       <c r="I32" t="n">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="J32" t="n">
-        <v>403</v>
+        <v>60</v>
       </c>
       <c r="K32" t="n">
-        <v>462.8479572874995</v>
+        <v>71.93659444367125</v>
       </c>
       <c r="L32" t="n">
-        <v>11.22591187255671</v>
+        <v>4.968812341593744</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,20 +3186,20 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.6375316889125366</v>
+        <v>0.9162134519860623</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3250620347394541</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6570338775498021</v>
+        <v>0.2076571266608208</v>
       </c>
       <c r="S32" t="n">
-        <v>0.6542209582229446</v>
+        <v>0.8161286857123076</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U32" t="n">
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2786</v>
+        <v>77</v>
       </c>
       <c r="B33" t="n">
-        <v>2837</v>
+        <v>109</v>
       </c>
       <c r="C33" t="n">
-        <v>2998</v>
+        <v>155</v>
       </c>
       <c r="D33" t="n">
-        <v>3.323650697589247</v>
+        <v>2.07311150968987</v>
       </c>
       <c r="E33" t="n">
-        <v>2.711079148774583</v>
+        <v>1.418780741715256</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6125715488146637</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G33" t="n">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="H33" t="n">
-        <v>137.8397408737424</v>
+        <v>33.41363535898221</v>
       </c>
       <c r="I33" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J33" t="n">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="K33" t="n">
-        <v>538.0968665738101</v>
+        <v>106.4477380441333</v>
       </c>
       <c r="L33" t="n">
-        <v>13.88249349612474</v>
+        <v>7.714963467414294</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,20 +3272,20 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8690112933718108</v>
+        <v>0.7800450703136466</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.3167701863354037</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="R33" t="n">
-        <v>0.5455431850861376</v>
+        <v>0.1796476650608337</v>
       </c>
       <c r="S33" t="n">
-        <v>0.7382764667737153</v>
+        <v>0.9589203633937345</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U33" t="n">
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1830</v>
+        <v>215</v>
       </c>
       <c r="B34" t="n">
-        <v>1956</v>
+        <v>242</v>
       </c>
       <c r="C34" t="n">
-        <v>2236</v>
+        <v>293</v>
       </c>
       <c r="D34" t="n">
-        <v>2.488538029270613</v>
+        <v>3.161621137313585</v>
       </c>
       <c r="E34" t="n">
-        <v>1.978216170636434</v>
+        <v>2.507290369338971</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5103218586341789</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G34" t="n">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="H34" t="n">
-        <v>160.4849904808082</v>
+        <v>25.55195869201438</v>
       </c>
       <c r="I34" t="n">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="J34" t="n">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c r="K34" t="n">
-        <v>444.2963642058521</v>
+        <v>156.928205174436</v>
       </c>
       <c r="L34" t="n">
-        <v>6.458497238308024</v>
+        <v>11.76578850591016</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,20 +3358,20 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.761673596696518</v>
+        <v>0.8450139346893817</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.45</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R34" t="n">
-        <v>0.5417469552626943</v>
+        <v>0.2035191069221161</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7699975178024793</v>
+        <v>0.9831636438747269</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U34" t="n">
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2236</v>
+        <v>413</v>
       </c>
       <c r="B35" t="n">
-        <v>2381</v>
+        <v>447</v>
       </c>
       <c r="C35" t="n">
-        <v>2786</v>
+        <v>493</v>
       </c>
       <c r="D35" t="n">
-        <v>2.78844948339649</v>
+        <v>2.672799981231557</v>
       </c>
       <c r="E35" t="n">
-        <v>2.278127624762311</v>
+        <v>2.018469213256943</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5103218586341789</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G35" t="n">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="H35" t="n">
-        <v>80.76693478875404</v>
+        <v>44.64884412580551</v>
       </c>
       <c r="I35" t="n">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="J35" t="n">
-        <v>405</v>
+        <v>46</v>
       </c>
       <c r="K35" t="n">
-        <v>441.4535990135367</v>
+        <v>182.1113590561954</v>
       </c>
       <c r="L35" t="n">
-        <v>7.236856771265071</v>
+        <v>9.94666910801717</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,20 +3444,20 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.5672812372558605</v>
+        <v>0.6562888071177042</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3580246913580247</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="R35" t="n">
-        <v>0.447096171269174</v>
+        <v>0.08874977862879029</v>
       </c>
       <c r="S35" t="n">
-        <v>0.3540650795568832</v>
+        <v>0.9411105446834813</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U35" t="n">
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2786</v>
+        <v>613</v>
       </c>
       <c r="B36" t="n">
-        <v>2850</v>
+        <v>638</v>
       </c>
       <c r="C36" t="n">
-        <v>2998</v>
+        <v>690</v>
       </c>
       <c r="D36" t="n">
-        <v>3.067775039166267</v>
+        <v>2.177075341087501</v>
       </c>
       <c r="E36" t="n">
-        <v>2.557453180532088</v>
+        <v>1.522744573112887</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5103218586341789</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G36" t="n">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="H36" t="n">
-        <v>140.9651039402161</v>
+        <v>18.67670372427301</v>
       </c>
       <c r="I36" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J36" t="n">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="K36" t="n">
-        <v>494.2751576447241</v>
+        <v>124.4470221731342</v>
       </c>
       <c r="L36" t="n">
-        <v>7.961789767791033</v>
+        <v>8.101858797171607</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,20 +3530,20 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7023974562704389</v>
+        <v>0.8101719736755452</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.4324324324324325</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4623971188987008</v>
+        <v>0.2070977915492699</v>
       </c>
       <c r="S36" t="n">
-        <v>0.5207929809912781</v>
+        <v>0.9263094642088442</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U36" t="n">
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1764</v>
+        <v>2001</v>
       </c>
       <c r="B37" t="n">
-        <v>1803</v>
+        <v>2046</v>
       </c>
       <c r="C37" t="n">
-        <v>1861</v>
+        <v>2129</v>
       </c>
       <c r="D37" t="n">
-        <v>5.35475464218346</v>
+        <v>4.221599529364047</v>
       </c>
       <c r="E37" t="n">
-        <v>4.900616854459074</v>
+        <v>3.751797702326273</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4541377877243866</v>
+        <v>-0.4698018270377747</v>
       </c>
       <c r="G37" t="n">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H37" t="n">
-        <v>70.67262777681685</v>
+        <v>127.5121600735208</v>
       </c>
       <c r="I37" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J37" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="K37" t="n">
-        <v>326.9604018545402</v>
+        <v>325.5537118707409</v>
       </c>
       <c r="L37" t="n">
-        <v>17.87407586424665</v>
+        <v>13.98665176874811</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,20 +3616,20 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.785783684840008</v>
+        <v>0.8064748571303825</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6724137931034483</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2810302069642927</v>
+        <v>0.6914504001897017</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9894364367542637</v>
+        <v>0.9645679514492758</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U37" t="n">
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2786</v>
+        <v>2129</v>
       </c>
       <c r="B38" t="n">
-        <v>2832</v>
+        <v>2141</v>
       </c>
       <c r="C38" t="n">
-        <v>2937</v>
+        <v>2170</v>
       </c>
       <c r="D38" t="n">
-        <v>4.510633427436089</v>
+        <v>2.27978173572542</v>
       </c>
       <c r="E38" t="n">
-        <v>4.091448564360992</v>
+        <v>1.809979908687646</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4191848630750962</v>
+        <v>-0.4698018270377747</v>
       </c>
       <c r="G38" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="H38" t="n">
-        <v>99.53129858632201</v>
+        <v>10.58923329152367</v>
       </c>
       <c r="I38" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="J38" t="n">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="K38" t="n">
-        <v>510.1525420586124</v>
+        <v>74.81295545621242</v>
       </c>
       <c r="L38" t="n">
-        <v>14.92310069558513</v>
+        <v>7.553182869325139</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,20 +3702,20 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.8251348514992802</v>
+        <v>0.7624877489118224</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.4380952380952381</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3607431097591386</v>
+        <v>0.1306941793927022</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7972235232141054</v>
+        <v>0.8662925909528458</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U38" t="n">
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2198</v>
+        <v>201</v>
       </c>
       <c r="B39" t="n">
-        <v>2232</v>
+        <v>216</v>
       </c>
       <c r="C39" t="n">
-        <v>2386</v>
+        <v>244</v>
       </c>
       <c r="D39" t="n">
-        <v>2.991031127082243</v>
+        <v>2.666864123904012</v>
       </c>
       <c r="E39" t="n">
-        <v>2.499490864682673</v>
+        <v>2.070932496784004</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.4915402623995694</v>
+        <v>-0.595931627120008</v>
       </c>
       <c r="G39" t="n">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="H39" t="n">
-        <v>96.60794731803981</v>
+        <v>13.51853665238573</v>
       </c>
       <c r="I39" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J39" t="n">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="K39" t="n">
-        <v>270.8376748183183</v>
+        <v>90.37290381162575</v>
       </c>
       <c r="L39" t="n">
-        <v>10.24202787467173</v>
+        <v>11.55091920688669</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,20 +3788,20 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.9165899845506565</v>
+        <v>0.8052554159159035</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.2207792207792208</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3125495786737859</v>
+        <v>0.1696009454100207</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9278345487508871</v>
+        <v>0.9815431783352941</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U39" t="n">
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>761</v>
+        <v>332</v>
       </c>
       <c r="B40" t="n">
-        <v>808</v>
+        <v>354</v>
       </c>
       <c r="C40" t="n">
-        <v>1003</v>
+        <v>383</v>
       </c>
       <c r="D40" t="n">
-        <v>5.534766319830911</v>
+        <v>2.787992430004071</v>
       </c>
       <c r="E40" t="n">
-        <v>5.124766273995234</v>
+        <v>2.192060802884063</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4100000458356778</v>
+        <v>-0.595931627120008</v>
       </c>
       <c r="G40" t="n">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="H40" t="n">
-        <v>127.720397177961</v>
+        <v>16.48353728677438</v>
       </c>
       <c r="I40" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J40" t="n">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="K40" t="n">
-        <v>719.3068126232544</v>
+        <v>102.0430075070633</v>
       </c>
       <c r="L40" t="n">
-        <v>35.61581423088548</v>
+        <v>12.07555908819441</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,20 +3874,20 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.837331389038511</v>
+        <v>0.7938995400766872</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.241025641025641</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1133082098255904</v>
+        <v>0.2765911501669013</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9725030739341324</v>
+        <v>0.9765676523870906</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U40" t="n">
@@ -3904,6 +3904,2758 @@
         </is>
       </c>
       <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>456</v>
+      </c>
+      <c r="B41" t="n">
+        <v>482</v>
+      </c>
+      <c r="C41" t="n">
+        <v>576</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.54910802762373</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9531764005037221</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.595931627120008</v>
+      </c>
+      <c r="G41" t="n">
+        <v>120</v>
+      </c>
+      <c r="H41" t="n">
+        <v>28.24944373585282</v>
+      </c>
+      <c r="I41" t="n">
+        <v>26</v>
+      </c>
+      <c r="J41" t="n">
+        <v>94</v>
+      </c>
+      <c r="K41" t="n">
+        <v>103.6919107206668</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.709611303191143</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8556251966299983</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.2765957446808511</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2280243699151664</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.6840631149740996</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>40</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>576</v>
+      </c>
+      <c r="B42" t="n">
+        <v>606</v>
+      </c>
+      <c r="C42" t="n">
+        <v>677</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.38334910116192</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.787417474041912</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.595931627120008</v>
+      </c>
+      <c r="G42" t="n">
+        <v>101</v>
+      </c>
+      <c r="H42" t="n">
+        <v>35.32400831379255</v>
+      </c>
+      <c r="I42" t="n">
+        <v>30</v>
+      </c>
+      <c r="J42" t="n">
+        <v>71</v>
+      </c>
+      <c r="K42" t="n">
+        <v>126.5603164091334</v>
+      </c>
+      <c r="L42" t="n">
+        <v>10.32293796394339</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8911565419885134</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.4225352112676056</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.2047091124967553</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.9559667649752502</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>41</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>306</v>
+      </c>
+      <c r="B43" t="n">
+        <v>331</v>
+      </c>
+      <c r="C43" t="n">
+        <v>372</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7224605833714582</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.146056678300795</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.5764039050706632</v>
+      </c>
+      <c r="G43" t="n">
+        <v>66</v>
+      </c>
+      <c r="H43" t="n">
+        <v>35.05490837374714</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>41</v>
+      </c>
+      <c r="K43" t="n">
+        <v>31.40563665313808</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.656564049680722</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.719674842288198</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.1100330504917904</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.9728755110272896</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>42</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>483</v>
+      </c>
+      <c r="B44" t="n">
+        <v>503</v>
+      </c>
+      <c r="C44" t="n">
+        <v>612</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.224417949016212</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.648014043945549</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.5764039050706632</v>
+      </c>
+      <c r="G44" t="n">
+        <v>129</v>
+      </c>
+      <c r="H44" t="n">
+        <v>20.4460632227163</v>
+      </c>
+      <c r="I44" t="n">
+        <v>20</v>
+      </c>
+      <c r="J44" t="n">
+        <v>109</v>
+      </c>
+      <c r="K44" t="n">
+        <v>426.0594512853095</v>
+      </c>
+      <c r="L44" t="n">
+        <v>21.38089628518397</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8130450838751325</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.1834862385321101</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.2205070871140076</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.8720468633377627</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>43</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>612</v>
+      </c>
+      <c r="B45" t="n">
+        <v>640</v>
+      </c>
+      <c r="C45" t="n">
+        <v>720</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.000897090432949</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.424493185362286</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.5764039050706632</v>
+      </c>
+      <c r="G45" t="n">
+        <v>108</v>
+      </c>
+      <c r="H45" t="n">
+        <v>27.09816244813317</v>
+      </c>
+      <c r="I45" t="n">
+        <v>28</v>
+      </c>
+      <c r="J45" t="n">
+        <v>80</v>
+      </c>
+      <c r="K45" t="n">
+        <v>203.9259229750729</v>
+      </c>
+      <c r="L45" t="n">
+        <v>15.18833368937827</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8707227244323515</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.2261212734067157</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.8739860221912827</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>44</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>812</v>
+      </c>
+      <c r="B46" t="n">
+        <v>845</v>
+      </c>
+      <c r="C46" t="n">
+        <v>996</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.161999344450332</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.585595439379669</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.5764039050706632</v>
+      </c>
+      <c r="G46" t="n">
+        <v>184</v>
+      </c>
+      <c r="H46" t="n">
+        <v>156.7785034990173</v>
+      </c>
+      <c r="I46" t="n">
+        <v>33</v>
+      </c>
+      <c r="J46" t="n">
+        <v>151</v>
+      </c>
+      <c r="K46" t="n">
+        <v>248.8453052624523</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10.94245037072937</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8714082221046058</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.2185430463576159</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.3043463384113252</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.8640116649572664</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>45</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>996</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.56840396682257</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9920000617519062</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.5764039050706632</v>
+      </c>
+      <c r="G47" t="n">
+        <v>103</v>
+      </c>
+      <c r="H47" t="n">
+        <v>62.28225278565424</v>
+      </c>
+      <c r="I47" t="n">
+        <v>40</v>
+      </c>
+      <c r="J47" t="n">
+        <v>63</v>
+      </c>
+      <c r="K47" t="n">
+        <v>134.195287539122</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.938107202606192</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.6438799334156819</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.05119793388099442</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.9484403372279522</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>46</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1738</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1759</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1791</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7733614781559608</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1969575730852975</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5764039050706632</v>
+      </c>
+      <c r="G48" t="n">
+        <v>53</v>
+      </c>
+      <c r="H48" t="n">
+        <v>29.10745511315463</v>
+      </c>
+      <c r="I48" t="n">
+        <v>21</v>
+      </c>
+      <c r="J48" t="n">
+        <v>32</v>
+      </c>
+      <c r="K48" t="n">
+        <v>34.18231978501974</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.914186937696326</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.6270466716071345</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.02894784566274223</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9579259838717663</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>47</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>387</v>
+      </c>
+      <c r="B49" t="n">
+        <v>410</v>
+      </c>
+      <c r="C49" t="n">
+        <v>459</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.60965011638156</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.070285246302458</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.5393648700791017</v>
+      </c>
+      <c r="G49" t="n">
+        <v>72</v>
+      </c>
+      <c r="H49" t="n">
+        <v>39.02328865878212</v>
+      </c>
+      <c r="I49" t="n">
+        <v>23</v>
+      </c>
+      <c r="J49" t="n">
+        <v>49</v>
+      </c>
+      <c r="K49" t="n">
+        <v>134.0767605954446</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6.835460445883386</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.860636491797879</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.3678670466207974</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9536084077117615</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>48</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>459</v>
+      </c>
+      <c r="B50" t="n">
+        <v>470</v>
+      </c>
+      <c r="C50" t="n">
+        <v>499</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.940563302905509</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.401198432826408</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.5393648700791017</v>
+      </c>
+      <c r="G50" t="n">
+        <v>40</v>
+      </c>
+      <c r="H50" t="n">
+        <v>28.49063833311021</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11</v>
+      </c>
+      <c r="J50" t="n">
+        <v>29</v>
+      </c>
+      <c r="K50" t="n">
+        <v>69.93323186738658</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5.082920356440606</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6614687726894759</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.06257936485584102</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.6069551827465738</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>49</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2038</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.636132110454286</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.079094337408365</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.5570377730459208</v>
+      </c>
+      <c r="G51" t="n">
+        <v>107</v>
+      </c>
+      <c r="H51" t="n">
+        <v>72.95116014389146</v>
+      </c>
+      <c r="I51" t="n">
+        <v>34</v>
+      </c>
+      <c r="J51" t="n">
+        <v>73</v>
+      </c>
+      <c r="K51" t="n">
+        <v>126.169049196538</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4.593897978402462</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.7665974172540082</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.3005081731115763</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.5896215051207103</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>50</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>109</v>
+      </c>
+      <c r="B52" t="n">
+        <v>140</v>
+      </c>
+      <c r="C52" t="n">
+        <v>179</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.877367563232839</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.418740967734347</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.4586265954984918</v>
+      </c>
+      <c r="G52" t="n">
+        <v>70</v>
+      </c>
+      <c r="H52" t="n">
+        <v>32.48011951842315</v>
+      </c>
+      <c r="I52" t="n">
+        <v>31</v>
+      </c>
+      <c r="J52" t="n">
+        <v>39</v>
+      </c>
+      <c r="K52" t="n">
+        <v>77.84782974860545</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.278922911414639</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.7622548695197401</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2222260566178779</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.8554171642588903</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>51</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>638</v>
+      </c>
+      <c r="B53" t="n">
+        <v>671</v>
+      </c>
+      <c r="C53" t="n">
+        <v>726</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.125198738219336</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.666572142720845</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.4586265954984918</v>
+      </c>
+      <c r="G53" t="n">
+        <v>88</v>
+      </c>
+      <c r="H53" t="n">
+        <v>46.80837203959857</v>
+      </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>55</v>
+      </c>
+      <c r="K53" t="n">
+        <v>109.7050665993767</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.97579319586025</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.799885170197187</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.2305126849167634</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.8706596210637008</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>52</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>454</v>
+      </c>
+      <c r="B54" t="n">
+        <v>481</v>
+      </c>
+      <c r="C54" t="n">
+        <v>574</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.611748273890874</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.038520959265175</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.5732273146256995</v>
+      </c>
+      <c r="G54" t="n">
+        <v>120</v>
+      </c>
+      <c r="H54" t="n">
+        <v>35.28595208528463</v>
+      </c>
+      <c r="I54" t="n">
+        <v>27</v>
+      </c>
+      <c r="J54" t="n">
+        <v>93</v>
+      </c>
+      <c r="K54" t="n">
+        <v>194.0089184221625</v>
+      </c>
+      <c r="L54" t="n">
+        <v>7.436485887746412</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8959226286382551</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.340561788327968</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.7478939992685041</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>53</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>574</v>
+      </c>
+      <c r="B55" t="n">
+        <v>606</v>
+      </c>
+      <c r="C55" t="n">
+        <v>735</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.581719217727404</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.008491903101704</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.5732273146256995</v>
+      </c>
+      <c r="G55" t="n">
+        <v>161</v>
+      </c>
+      <c r="H55" t="n">
+        <v>98.31037546233154</v>
+      </c>
+      <c r="I55" t="n">
+        <v>32</v>
+      </c>
+      <c r="J55" t="n">
+        <v>129</v>
+      </c>
+      <c r="K55" t="n">
+        <v>313.0806807180039</v>
+      </c>
+      <c r="L55" t="n">
+        <v>7.350983523443395</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.840181131871058</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.248062015503876</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.180129093214543</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.7427510593918254</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>54</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>245</v>
+      </c>
+      <c r="B56" t="n">
+        <v>277</v>
+      </c>
+      <c r="C56" t="n">
+        <v>327</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.800524680226464</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.229883015880877</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.5706416643455866</v>
+      </c>
+      <c r="G56" t="n">
+        <v>82</v>
+      </c>
+      <c r="H56" t="n">
+        <v>58.67121247098316</v>
+      </c>
+      <c r="I56" t="n">
+        <v>32</v>
+      </c>
+      <c r="J56" t="n">
+        <v>50</v>
+      </c>
+      <c r="K56" t="n">
+        <v>217.0400207957995</v>
+      </c>
+      <c r="L56" t="n">
+        <v>11.66141863088179</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.7499778064952026</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.3000598857479276</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.7837570419065315</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>55</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>449</v>
+      </c>
+      <c r="B57" t="n">
+        <v>477</v>
+      </c>
+      <c r="C57" t="n">
+        <v>549</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.124003845347115</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.553362181001528</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5706416643455866</v>
+      </c>
+      <c r="G57" t="n">
+        <v>100</v>
+      </c>
+      <c r="H57" t="n">
+        <v>77.24657654515528</v>
+      </c>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
+      <c r="J57" t="n">
+        <v>72</v>
+      </c>
+      <c r="K57" t="n">
+        <v>191.1074225452384</v>
+      </c>
+      <c r="L57" t="n">
+        <v>9.585601912972292</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8264151394229639</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.4080924618550961</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.743311423003463</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>56</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>549</v>
+      </c>
+      <c r="B58" t="n">
+        <v>564</v>
+      </c>
+      <c r="C58" t="n">
+        <v>590</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.836424635245581</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.265782970899995</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5706416643455866</v>
+      </c>
+      <c r="G58" t="n">
+        <v>41</v>
+      </c>
+      <c r="H58" t="n">
+        <v>20.56269668957873</v>
+      </c>
+      <c r="I58" t="n">
+        <v>15</v>
+      </c>
+      <c r="J58" t="n">
+        <v>26</v>
+      </c>
+      <c r="K58" t="n">
+        <v>65.20701646753403</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5.634831571304789</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.6686873403030748</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.04293292464697981</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.9501291700476446</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>57</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>590</v>
+      </c>
+      <c r="B59" t="n">
+        <v>603</v>
+      </c>
+      <c r="C59" t="n">
+        <v>714</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.771932240186085</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.201290575840498</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5706416643455866</v>
+      </c>
+      <c r="G59" t="n">
+        <v>124</v>
+      </c>
+      <c r="H59" t="n">
+        <v>16.42743213387314</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13</v>
+      </c>
+      <c r="J59" t="n">
+        <v>111</v>
+      </c>
+      <c r="K59" t="n">
+        <v>143.2343755576411</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5.43694499495655</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.714675012909499</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.1171171171171171</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.2898506462127272</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.5980545158201501</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>58</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2917</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2943</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.161259287316891</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.552720679469247</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.6085386078476447</v>
+      </c>
+      <c r="G60" t="n">
+        <v>81</v>
+      </c>
+      <c r="H60" t="n">
+        <v>18.8192897655249</v>
+      </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>55</v>
+      </c>
+      <c r="K60" t="n">
+        <v>204.1775004436091</v>
+      </c>
+      <c r="L60" t="n">
+        <v>13.19514773292933</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.756153937271526</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.1718236498388502</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.836639625787178</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>59</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2793</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.18958361345502</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.652771330304137</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5368122831508829</v>
+      </c>
+      <c r="G61" t="n">
+        <v>558</v>
+      </c>
+      <c r="H61" t="n">
+        <v>75.54549457992971</v>
+      </c>
+      <c r="I61" t="n">
+        <v>144</v>
+      </c>
+      <c r="J61" t="n">
+        <v>414</v>
+      </c>
+      <c r="K61" t="n">
+        <v>459.429760550224</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.216939811612695</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.5385579332315819</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.4642822893122385</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3736474814947754</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>60</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2793</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2846</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2917</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.137430877867625</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.600618594716742</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.5368122831508829</v>
+      </c>
+      <c r="G62" t="n">
+        <v>124</v>
+      </c>
+      <c r="H62" t="n">
+        <v>46.01234456674956</v>
+      </c>
+      <c r="I62" t="n">
+        <v>53</v>
+      </c>
+      <c r="J62" t="n">
+        <v>71</v>
+      </c>
+      <c r="K62" t="n">
+        <v>302.2414316179145</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.082585005071545</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.6618515007876075</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.7464788732394366</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.4340743991553864</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.5539996129600281</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>61</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2917</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2943</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.312130734971063</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.77531845182018</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5368122831508829</v>
+      </c>
+      <c r="G63" t="n">
+        <v>81</v>
+      </c>
+      <c r="H63" t="n">
+        <v>34.8409507519932</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>55</v>
+      </c>
+      <c r="K63" t="n">
+        <v>195.536805881581</v>
+      </c>
+      <c r="L63" t="n">
+        <v>8.532643189738893</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8435778589423777</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.1859835090462104</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.9125970582995122</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>62</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1769</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1799</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1858</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.820324929803717</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.365410485616481</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.4549144441872355</v>
+      </c>
+      <c r="G64" t="n">
+        <v>89</v>
+      </c>
+      <c r="H64" t="n">
+        <v>65.23250957846062</v>
+      </c>
+      <c r="I64" t="n">
+        <v>30</v>
+      </c>
+      <c r="J64" t="n">
+        <v>59</v>
+      </c>
+      <c r="K64" t="n">
+        <v>319.2116801874742</v>
+      </c>
+      <c r="L64" t="n">
+        <v>19.32963415197539</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8184258979562821</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.3118895232124314</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9138242172718287</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>63</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1858</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2199</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.17975956437976</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.724845120192525</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.4549144441872355</v>
+      </c>
+      <c r="G65" t="n">
+        <v>341</v>
+      </c>
+      <c r="H65" t="n">
+        <v>69.81349354336317</v>
+      </c>
+      <c r="I65" t="n">
+        <v>60</v>
+      </c>
+      <c r="J65" t="n">
+        <v>281</v>
+      </c>
+      <c r="K65" t="n">
+        <v>486.681516319887</v>
+      </c>
+      <c r="L65" t="n">
+        <v>13.88122213056677</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.6815713768604138</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.2135231316725979</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.65410363478182</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.6285405523317071</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>64</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2790</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2840</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.526968962497195</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.07830256304875</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.4486663994484448</v>
+      </c>
+      <c r="G66" t="n">
+        <v>149</v>
+      </c>
+      <c r="H66" t="n">
+        <v>96.2491289981117</v>
+      </c>
+      <c r="I66" t="n">
+        <v>50</v>
+      </c>
+      <c r="J66" t="n">
+        <v>99</v>
+      </c>
+      <c r="K66" t="n">
+        <v>512.4727458965556</v>
+      </c>
+      <c r="L66" t="n">
+        <v>14.7885928788202</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.7938314163154812</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.2314797827047561</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.7658440892756553</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>65</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>456</v>
+      </c>
+      <c r="B67" t="n">
+        <v>481</v>
+      </c>
+      <c r="C67" t="n">
+        <v>695</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.428888250766827</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.017177462064498</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.4117107887023287</v>
+      </c>
+      <c r="G67" t="n">
+        <v>239</v>
+      </c>
+      <c r="H67" t="n">
+        <v>69.00294230437493</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+      <c r="J67" t="n">
+        <v>214</v>
+      </c>
+      <c r="K67" t="n">
+        <v>152.1451552497982</v>
+      </c>
+      <c r="L67" t="n">
+        <v>8.86784444424301</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8395717561097851</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.1168224299065421</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.3664741207302524</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.832385583693742</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>66</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>766</v>
+      </c>
+      <c r="B68" t="n">
+        <v>836</v>
+      </c>
+      <c r="C68" t="n">
+        <v>955</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5.558429705120036</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5.146718916417708</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.4117107887023287</v>
+      </c>
+      <c r="G68" t="n">
+        <v>189</v>
+      </c>
+      <c r="H68" t="n">
+        <v>128.3830316519075</v>
+      </c>
+      <c r="I68" t="n">
+        <v>70</v>
+      </c>
+      <c r="J68" t="n">
+        <v>119</v>
+      </c>
+      <c r="K68" t="n">
+        <v>662.4132525494434</v>
+      </c>
+      <c r="L68" t="n">
+        <v>34.49625256055634</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.6650344812579028</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.2827929306712215</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9801146108579617</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>67</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>955</v>
+      </c>
+      <c r="B69" t="n">
+        <v>968</v>
+      </c>
+      <c r="C69" t="n">
+        <v>998</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.514704247718983</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.102993459016654</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.4117107887023287</v>
+      </c>
+      <c r="G69" t="n">
+        <v>43</v>
+      </c>
+      <c r="H69" t="n">
+        <v>16.83644849093741</v>
+      </c>
+      <c r="I69" t="n">
+        <v>13</v>
+      </c>
+      <c r="J69" t="n">
+        <v>30</v>
+      </c>
+      <c r="K69" t="n">
+        <v>51.96752606854805</v>
+      </c>
+      <c r="L69" t="n">
+        <v>9.400428368416891</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.8633838832260645</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.1762057577851692</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9095589064755401</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>68</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>561</v>
+      </c>
+      <c r="B70" t="n">
+        <v>576</v>
+      </c>
+      <c r="C70" t="n">
+        <v>599</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.697859447837979</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.235501738090152</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.4623577097478276</v>
+      </c>
+      <c r="G70" t="n">
+        <v>38</v>
+      </c>
+      <c r="H70" t="n">
+        <v>21.99633005942508</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>23</v>
+      </c>
+      <c r="K70" t="n">
+        <v>47.06037755648523</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4.395603803003337</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.6284617786986003</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.03944610628731402</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.9343068535329483</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>69</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>599</v>
+      </c>
+      <c r="B71" t="n">
+        <v>629</v>
+      </c>
+      <c r="C71" t="n">
+        <v>674</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.900873258737152</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.438515548989324</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.4623577097478276</v>
+      </c>
+      <c r="G71" t="n">
+        <v>75</v>
+      </c>
+      <c r="H71" t="n">
+        <v>32.06187942083761</v>
+      </c>
+      <c r="I71" t="n">
+        <v>30</v>
+      </c>
+      <c r="J71" t="n">
+        <v>45</v>
+      </c>
+      <c r="K71" t="n">
+        <v>115.068142685749</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4.921188108810822</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.7638639757106106</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.181204860479313</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.8445990073663703</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>70</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>238</v>
+      </c>
+      <c r="B72" t="n">
+        <v>263</v>
+      </c>
+      <c r="C72" t="n">
+        <v>298</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.005191967281403</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.56192881830032</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.4432631489810837</v>
+      </c>
+      <c r="G72" t="n">
+        <v>60</v>
+      </c>
+      <c r="H72" t="n">
+        <v>21.95840605961584</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
+      <c r="J72" t="n">
+        <v>35</v>
+      </c>
+      <c r="K72" t="n">
+        <v>175.4262785379286</v>
+      </c>
+      <c r="L72" t="n">
+        <v>14.22595266541112</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.6523326393819036</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.1297722062385377</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.9400611607280883</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>71</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace/processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,7 +993,7 @@
         <v>665</v>
       </c>
       <c r="C7" t="n">
-        <v>827</v>
+        <v>770</v>
       </c>
       <c r="D7" t="n">
         <v>2.464993841422364</v>
@@ -1005,7 +1005,7 @@
         <v>-0.6741334931362032</v>
       </c>
       <c r="G7" t="n">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="H7" t="n">
         <v>108.4850064141688</v>
@@ -1014,10 +1014,10 @@
         <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="K7" t="n">
-        <v>251.8787299286754</v>
+        <v>206.4413160216561</v>
       </c>
       <c r="L7" t="n">
         <v>10.73490576219273</v>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8474785936806655</v>
+        <v>0.8752700012222732</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.154320987654321</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="R7" t="n">
-        <v>0.414783930500165</v>
+        <v>0.3037699768369237</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7992220103211534</v>
+        <v>0.8330829540982996</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1706</v>
+        <v>770</v>
       </c>
       <c r="B8" t="n">
-        <v>1774</v>
+        <v>795</v>
       </c>
       <c r="C8" t="n">
-        <v>1866</v>
+        <v>827</v>
       </c>
       <c r="D8" t="n">
-        <v>3.521480864429523</v>
+        <v>1.074215080060885</v>
       </c>
       <c r="E8" t="n">
-        <v>2.847347371293319</v>
+        <v>0.4000815869246817</v>
       </c>
       <c r="F8" t="n">
         <v>-0.6741334931362032</v>
       </c>
       <c r="G8" t="n">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="H8" t="n">
-        <v>210.7050425226676</v>
+        <v>19.23639187935328</v>
       </c>
       <c r="I8" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J8" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K8" t="n">
-        <v>415.0071621948254</v>
+        <v>45.43741390701926</v>
       </c>
       <c r="L8" t="n">
-        <v>15.33584570791574</v>
+        <v>4.678144609937803</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.5716568137416536</v>
+        <v>0.7566975355322334</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.78125</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1841816314602717</v>
+        <v>0.1903989884992052</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9120392097119688</v>
+        <v>0.9201971336519997</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2776</v>
+        <v>1706</v>
       </c>
       <c r="B9" t="n">
-        <v>2801</v>
+        <v>1774</v>
       </c>
       <c r="C9" t="n">
-        <v>2910</v>
+        <v>1866</v>
       </c>
       <c r="D9" t="n">
-        <v>1.889844763718285</v>
+        <v>3.521480864429523</v>
       </c>
       <c r="E9" t="n">
-        <v>1.215711270582082</v>
+        <v>2.847347371293319</v>
       </c>
       <c r="F9" t="n">
         <v>-0.6741334931362032</v>
       </c>
       <c r="G9" t="n">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="H9" t="n">
-        <v>45.93001597220473</v>
+        <v>210.7050425226676</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="J9" t="n">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="K9" t="n">
-        <v>125.0670416467131</v>
+        <v>415.0071621948254</v>
       </c>
       <c r="L9" t="n">
-        <v>8.230164758538654</v>
+        <v>15.33584570791574</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.9391195449954516</v>
+        <v>0.5716568137416536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2293577981651376</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3168233043603397</v>
+        <v>0.1841816314602717</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9326001086882773</v>
+        <v>0.9120392097119688</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>2776</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2801</v>
+      </c>
+      <c r="C10" t="n">
         <v>2910</v>
       </c>
-      <c r="B10" t="n">
-        <v>2945</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2998</v>
-      </c>
       <c r="D10" t="n">
-        <v>1.912350432274859</v>
+        <v>1.889844763718285</v>
       </c>
       <c r="E10" t="n">
-        <v>1.238216939138656</v>
+        <v>1.215711270582082</v>
       </c>
       <c r="F10" t="n">
         <v>-0.6741334931362032</v>
       </c>
       <c r="G10" t="n">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="H10" t="n">
-        <v>30.66351895567368</v>
+        <v>45.93001597220473</v>
       </c>
       <c r="I10" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J10" t="n">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3498976421912</v>
+        <v>125.0670416467131</v>
       </c>
       <c r="L10" t="n">
-        <v>8.328175644817609</v>
+        <v>8.230164758538654</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7699866817246935</v>
+        <v>0.9391195449954516</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.660377358490566</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1833718572685308</v>
+        <v>0.3168233043603397</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8583916018342178</v>
+        <v>0.9326001086882773</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>902</v>
+        <v>2910</v>
       </c>
       <c r="B11" t="n">
-        <v>938</v>
+        <v>2945</v>
       </c>
       <c r="C11" t="n">
-        <v>1092</v>
+        <v>2998</v>
       </c>
       <c r="D11" t="n">
-        <v>5.055500874335028</v>
+        <v>1.912350432274859</v>
       </c>
       <c r="E11" t="n">
-        <v>4.47821895753361</v>
+        <v>1.238216939138656</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5772819168014176</v>
+        <v>-0.6741334931362032</v>
       </c>
       <c r="G11" t="n">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="H11" t="n">
-        <v>122.1572440194313</v>
+        <v>30.66351895567368</v>
       </c>
       <c r="I11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" t="n">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="K11" t="n">
-        <v>534.4627143465849</v>
+        <v>106.3498976421912</v>
       </c>
       <c r="L11" t="n">
-        <v>26.99357035759236</v>
+        <v>8.328175644817609</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,20 +1380,20 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.9021414571842834</v>
+        <v>0.7699866817246935</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2337662337662338</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2035618687724742</v>
+        <v>0.1833718572685308</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9759368091123741</v>
+        <v>0.8583916018342178</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2210</v>
+        <v>902</v>
       </c>
       <c r="B12" t="n">
-        <v>2238</v>
+        <v>938</v>
       </c>
       <c r="C12" t="n">
-        <v>2373</v>
+        <v>1092</v>
       </c>
       <c r="D12" t="n">
-        <v>3.345559794702043</v>
+        <v>5.055500874335028</v>
       </c>
       <c r="E12" t="n">
-        <v>2.768277877900625</v>
+        <v>4.47821895753361</v>
       </c>
       <c r="F12" t="n">
         <v>-0.5772819168014176</v>
       </c>
       <c r="G12" t="n">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="H12" t="n">
-        <v>67.00114446553926</v>
+        <v>122.1572440194313</v>
       </c>
       <c r="I12" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="K12" t="n">
-        <v>258.6654746785709</v>
+        <v>534.4627143465849</v>
       </c>
       <c r="L12" t="n">
-        <v>17.86343350513227</v>
+        <v>26.99357035759236</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.9350474241338055</v>
+        <v>0.9021414571842834</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2074074074074074</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2793264763907391</v>
+        <v>0.2035618687724742</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9241476841732381</v>
+        <v>0.9759368091123741</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1170</v>
+        <v>2210</v>
       </c>
       <c r="B13" t="n">
-        <v>1201</v>
+        <v>2238</v>
       </c>
       <c r="C13" t="n">
-        <v>1254</v>
+        <v>2373</v>
       </c>
       <c r="D13" t="n">
-        <v>2.734465183315018</v>
+        <v>3.345559794702043</v>
       </c>
       <c r="E13" t="n">
-        <v>2.128555635108015</v>
+        <v>2.768277877900625</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6059095482070032</v>
+        <v>-0.5772819168014176</v>
       </c>
       <c r="G13" t="n">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="H13" t="n">
-        <v>165.1403335114333</v>
+        <v>67.00114446553926</v>
       </c>
       <c r="I13" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J13" t="n">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="K13" t="n">
-        <v>158.4777186399521</v>
+        <v>258.6654746785709</v>
       </c>
       <c r="L13" t="n">
-        <v>5.465258381977974</v>
+        <v>17.86343350513227</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,20 +1552,20 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7762879750424596</v>
+        <v>0.9350474241338055</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5849056603773585</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2237003227322766</v>
+        <v>0.2793264763907391</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9474170375440685</v>
+        <v>0.9241476841732381</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U13" t="n">
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1480</v>
+        <v>1170</v>
       </c>
       <c r="B14" t="n">
-        <v>1514</v>
+        <v>1201</v>
       </c>
       <c r="C14" t="n">
-        <v>1583</v>
+        <v>1254</v>
       </c>
       <c r="D14" t="n">
-        <v>2.414795275941323</v>
+        <v>2.734465183315018</v>
       </c>
       <c r="E14" t="n">
-        <v>1.80888572773432</v>
+        <v>2.128555635108015</v>
       </c>
       <c r="F14" t="n">
         <v>-0.6059095482070032</v>
       </c>
       <c r="G14" t="n">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="H14" t="n">
-        <v>44.1318021560669</v>
+        <v>165.1403335114333</v>
       </c>
       <c r="I14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="K14" t="n">
-        <v>183.9171262335707</v>
+        <v>158.4777186399521</v>
       </c>
       <c r="L14" t="n">
-        <v>4.826347836910362</v>
+        <v>5.465258381977974</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,16 +1638,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8628711293859291</v>
+        <v>0.7762879750424596</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4927536231884058</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2010870324547759</v>
+        <v>0.2237003227322766</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9695283675197983</v>
+        <v>0.9474170375440685</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2254</v>
+        <v>1480</v>
       </c>
       <c r="B15" t="n">
-        <v>2284</v>
+        <v>1514</v>
       </c>
       <c r="C15" t="n">
-        <v>2472</v>
+        <v>1583</v>
       </c>
       <c r="D15" t="n">
-        <v>2.110665305849726</v>
+        <v>2.414795275941323</v>
       </c>
       <c r="E15" t="n">
-        <v>1.504755757642723</v>
+        <v>1.80888572773432</v>
       </c>
       <c r="F15" t="n">
         <v>-0.6059095482070032</v>
       </c>
       <c r="G15" t="n">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="H15" t="n">
-        <v>121.6769766338998</v>
+        <v>44.1318021560669</v>
       </c>
       <c r="I15" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J15" t="n">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="K15" t="n">
-        <v>248.5447387137446</v>
+        <v>183.9171262335707</v>
       </c>
       <c r="L15" t="n">
-        <v>4.218496298556243</v>
+        <v>4.826347836910362</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8291232097898794</v>
+        <v>0.8628711293859291</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1595744680851064</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2186712629756805</v>
+        <v>0.2010870324547759</v>
       </c>
       <c r="S15" t="n">
-        <v>0.697659483687046</v>
+        <v>0.9695283675197983</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2882</v>
+        <v>2254</v>
       </c>
       <c r="B16" t="n">
-        <v>2933</v>
+        <v>2284</v>
       </c>
       <c r="C16" t="n">
-        <v>2998</v>
+        <v>2472</v>
       </c>
       <c r="D16" t="n">
-        <v>2.814423313759071</v>
+        <v>2.110665305849726</v>
       </c>
       <c r="E16" t="n">
-        <v>2.208513765552067</v>
+        <v>1.504755757642723</v>
       </c>
       <c r="F16" t="n">
         <v>-0.6059095482070032</v>
       </c>
       <c r="G16" t="n">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="H16" t="n">
-        <v>40.1617373132417</v>
+        <v>121.6769766338998</v>
       </c>
       <c r="I16" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J16" t="n">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="K16" t="n">
-        <v>182.3890163097392</v>
+        <v>248.5447387137446</v>
       </c>
       <c r="L16" t="n">
-        <v>5.62506727085433</v>
+        <v>4.218496298556243</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7634118446816091</v>
+        <v>0.8291232097898794</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7846153846153846</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="R16" t="n">
-        <v>0.671565548050723</v>
+        <v>0.2186712629756805</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8127487551380791</v>
+        <v>0.697659483687046</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1093</v>
+        <v>2882</v>
       </c>
       <c r="B17" t="n">
-        <v>1125</v>
+        <v>2933</v>
       </c>
       <c r="C17" t="n">
-        <v>1215</v>
+        <v>2998</v>
       </c>
       <c r="D17" t="n">
-        <v>4.054005320214908</v>
+        <v>2.814423313759071</v>
       </c>
       <c r="E17" t="n">
-        <v>3.379800882223089</v>
+        <v>2.208513765552067</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6742044379918187</v>
+        <v>-0.6059095482070032</v>
       </c>
       <c r="G17" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H17" t="n">
-        <v>106.1451141035477</v>
+        <v>40.1617373132417</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J17" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K17" t="n">
-        <v>313.4589278218095</v>
+        <v>182.3890163097392</v>
       </c>
       <c r="L17" t="n">
-        <v>11.40445758144652</v>
+        <v>5.62506727085433</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,20 +1896,20 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8159328807519598</v>
+        <v>0.7634118446816091</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3555555555555556</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1419701422745142</v>
+        <v>0.671565548050723</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9690733984671658</v>
+        <v>0.8127487551380791</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U17" t="n">
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1613</v>
+        <v>1093</v>
       </c>
       <c r="B18" t="n">
-        <v>1658</v>
+        <v>1125</v>
       </c>
       <c r="C18" t="n">
-        <v>1795</v>
+        <v>1215</v>
       </c>
       <c r="D18" t="n">
-        <v>2.560061123261507</v>
+        <v>4.054005320214908</v>
       </c>
       <c r="E18" t="n">
-        <v>1.885856685269689</v>
+        <v>3.379800882223089</v>
       </c>
       <c r="F18" t="n">
         <v>-0.6742044379918187</v>
       </c>
       <c r="G18" t="n">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="H18" t="n">
-        <v>116.5137021388298</v>
+        <v>106.1451141035477</v>
       </c>
       <c r="I18" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J18" t="n">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="K18" t="n">
-        <v>284.3315938132656</v>
+        <v>313.4589278218095</v>
       </c>
       <c r="L18" t="n">
-        <v>7.201793332772063</v>
+        <v>11.40445758144652</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,16 +1982,16 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8348927220060388</v>
+        <v>0.8159328807519598</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3284671532846715</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1594816995958123</v>
+        <v>0.1419701422745142</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8564096675750967</v>
+        <v>0.9690733984671658</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2823</v>
+        <v>1613</v>
       </c>
       <c r="B19" t="n">
-        <v>2860</v>
+        <v>1658</v>
       </c>
       <c r="C19" t="n">
-        <v>2998</v>
+        <v>1795</v>
       </c>
       <c r="D19" t="n">
-        <v>2.994692641439999</v>
+        <v>2.560061123261507</v>
       </c>
       <c r="E19" t="n">
-        <v>2.32048820344818</v>
+        <v>1.885856685269689</v>
       </c>
       <c r="F19" t="n">
         <v>-0.6742044379918187</v>
       </c>
       <c r="G19" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H19" t="n">
-        <v>61.7104741570447</v>
+        <v>116.5137021388298</v>
       </c>
       <c r="I19" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J19" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K19" t="n">
-        <v>226.4325202806003</v>
+        <v>284.3315938132656</v>
       </c>
       <c r="L19" t="n">
-        <v>8.424469753029829</v>
+        <v>7.201793332772063</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,16 +2068,16 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.9005812524500824</v>
+        <v>0.8348927220060388</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2681159420289855</v>
+        <v>0.3284671532846715</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3352818277318709</v>
+        <v>0.1594816995958123</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6437143804281457</v>
+        <v>0.8564096675750967</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1302</v>
+        <v>2823</v>
       </c>
       <c r="B20" t="n">
-        <v>1353</v>
+        <v>2860</v>
       </c>
       <c r="C20" t="n">
-        <v>1448</v>
+        <v>2998</v>
       </c>
       <c r="D20" t="n">
-        <v>2.876695914353542</v>
+        <v>2.994692641439999</v>
       </c>
       <c r="E20" t="n">
-        <v>2.324947116321769</v>
+        <v>2.32048820344818</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.551748798031773</v>
+        <v>-0.6742044379918187</v>
       </c>
       <c r="G20" t="n">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="H20" t="n">
-        <v>70.04115884523048</v>
+        <v>61.7104741570447</v>
       </c>
       <c r="I20" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J20" t="n">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="K20" t="n">
-        <v>232.860040139374</v>
+        <v>226.4325202806003</v>
       </c>
       <c r="L20" t="n">
-        <v>10.18489635884467</v>
+        <v>8.424469753029829</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,20 +2154,20 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8175934285798404</v>
+        <v>0.9005812524500824</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.5368421052631579</v>
+        <v>0.2681159420289855</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5759166942298897</v>
+        <v>0.3352818277318709</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8164139242266979</v>
+        <v>0.6437143804281457</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U20" t="n">
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1022</v>
+        <v>1302</v>
       </c>
       <c r="B21" t="n">
-        <v>1058</v>
+        <v>1353</v>
       </c>
       <c r="C21" t="n">
-        <v>1128</v>
+        <v>1448</v>
       </c>
       <c r="D21" t="n">
-        <v>2.349134107852699</v>
+        <v>2.876695914353542</v>
       </c>
       <c r="E21" t="n">
-        <v>1.735003142857328</v>
+        <v>2.324947116321769</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.614130964995372</v>
+        <v>-0.551748798031773</v>
       </c>
       <c r="G21" t="n">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="H21" t="n">
-        <v>203.7934014726923</v>
+        <v>70.04115884523048</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J21" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K21" t="n">
-        <v>169.8814012726564</v>
+        <v>232.860040139374</v>
       </c>
       <c r="L21" t="n">
-        <v>5.264780665204082</v>
+        <v>10.18489635884467</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,20 +2240,20 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7763187174494368</v>
+        <v>0.8175934285798404</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="R21" t="n">
-        <v>0.6568221698888272</v>
+        <v>0.5759166942298897</v>
       </c>
       <c r="S21" t="n">
-        <v>0.841435007089501</v>
+        <v>0.8164139242266979</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U21" t="n">
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2021</v>
+        <v>1022</v>
       </c>
       <c r="B22" t="n">
-        <v>2046</v>
+        <v>1058</v>
       </c>
       <c r="C22" t="n">
-        <v>2135</v>
+        <v>1128</v>
       </c>
       <c r="D22" t="n">
-        <v>1.994147240079167</v>
+        <v>2.349134107852699</v>
       </c>
       <c r="E22" t="n">
-        <v>1.380016275083795</v>
+        <v>1.735003142857328</v>
       </c>
       <c r="F22" t="n">
         <v>-0.614130964995372</v>
       </c>
       <c r="G22" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H22" t="n">
-        <v>36.70589068122672</v>
+        <v>203.7934014726923</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J22" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K22" t="n">
-        <v>167.1393545184734</v>
+        <v>169.8814012726564</v>
       </c>
       <c r="L22" t="n">
-        <v>4.469199011688436</v>
+        <v>5.264780665204082</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8341561783962343</v>
+        <v>0.7763187174494368</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2808988764044944</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="R22" t="n">
-        <v>0.462415001106775</v>
+        <v>0.6568221698888272</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3804844958591139</v>
+        <v>0.841435007089501</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2614</v>
+        <v>2021</v>
       </c>
       <c r="B23" t="n">
-        <v>2640</v>
+        <v>2046</v>
       </c>
       <c r="C23" t="n">
-        <v>2745</v>
+        <v>2135</v>
       </c>
       <c r="D23" t="n">
-        <v>3.093277856970898</v>
+        <v>1.994147240079167</v>
       </c>
       <c r="E23" t="n">
-        <v>2.479146891975526</v>
+        <v>1.380016275083795</v>
       </c>
       <c r="F23" t="n">
         <v>-0.614130964995372</v>
       </c>
       <c r="G23" t="n">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H23" t="n">
-        <v>36.54347345262295</v>
+        <v>36.70589068122672</v>
       </c>
       <c r="I23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="K23" t="n">
-        <v>263.014439561909</v>
+        <v>167.1393545184734</v>
       </c>
       <c r="L23" t="n">
-        <v>6.932524371020484</v>
+        <v>4.469199011688436</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,16 +2412,16 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.9227309246401959</v>
+        <v>0.8341561783962343</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2476190476190476</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2679862242692276</v>
+        <v>0.462415001106775</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9583540945048706</v>
+        <v>0.3804844958591139</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>2614</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2640</v>
+      </c>
+      <c r="C24" t="n">
         <v>2745</v>
       </c>
-      <c r="B24" t="n">
-        <v>2798</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2998</v>
-      </c>
       <c r="D24" t="n">
-        <v>2.820201630488403</v>
+        <v>3.093277856970898</v>
       </c>
       <c r="E24" t="n">
-        <v>2.206070665493031</v>
+        <v>2.479146891975526</v>
       </c>
       <c r="F24" t="n">
         <v>-0.614130964995372</v>
       </c>
       <c r="G24" t="n">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="H24" t="n">
-        <v>53.19632637149243</v>
+        <v>36.54347345262295</v>
       </c>
       <c r="I24" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="K24" t="n">
-        <v>334.6485551784867</v>
+        <v>263.014439561909</v>
       </c>
       <c r="L24" t="n">
-        <v>6.320517405344909</v>
+        <v>6.932524371020484</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,16 +2498,16 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8177717833243111</v>
+        <v>0.9227309246401959</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.265</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2504239081509592</v>
+        <v>0.2679862242692276</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8907338965390907</v>
+        <v>0.9583540945048706</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2248</v>
+        <v>2745</v>
       </c>
       <c r="B25" t="n">
-        <v>2283</v>
+        <v>2798</v>
       </c>
       <c r="C25" t="n">
-        <v>2422</v>
+        <v>2998</v>
       </c>
       <c r="D25" t="n">
-        <v>2.847164929411653</v>
+        <v>2.820201630488403</v>
       </c>
       <c r="E25" t="n">
-        <v>2.238807898822912</v>
+        <v>2.206070665493031</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6083570305887412</v>
+        <v>-0.614130964995372</v>
       </c>
       <c r="G25" t="n">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="H25" t="n">
-        <v>295.1861288840955</v>
+        <v>53.19632637149243</v>
       </c>
       <c r="I25" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J25" t="n">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5307165635032</v>
+        <v>334.6485551784867</v>
       </c>
       <c r="L25" t="n">
-        <v>5.588690179187708</v>
+        <v>6.320517405344909</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,20 +2584,20 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8507390943155272</v>
+        <v>0.8177717833243111</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2517985611510791</v>
+        <v>0.265</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3209202498245851</v>
+        <v>0.2504239081509592</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7660084292343887</v>
+        <v>0.8907338965390907</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U25" t="n">
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>848</v>
+        <v>2248</v>
       </c>
       <c r="B26" t="n">
-        <v>874</v>
+        <v>2283</v>
       </c>
       <c r="C26" t="n">
-        <v>948</v>
+        <v>2422</v>
       </c>
       <c r="D26" t="n">
-        <v>2.126440870983194</v>
+        <v>2.847164929411653</v>
       </c>
       <c r="E26" t="n">
-        <v>1.489588320629171</v>
+        <v>2.238807898822912</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6368525503540235</v>
+        <v>-0.6083570305887412</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="H26" t="n">
-        <v>68.56585207179921</v>
+        <v>295.1861288840955</v>
       </c>
       <c r="I26" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J26" t="n">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="K26" t="n">
-        <v>145.7830250398875</v>
+        <v>278.5307165635032</v>
       </c>
       <c r="L26" t="n">
-        <v>4.834500740773334</v>
+        <v>5.588690179187708</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,20 +2670,20 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8290866042202849</v>
+        <v>0.8507390943155272</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.2517985611510791</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3003638025107561</v>
+        <v>0.3209202498245851</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6493721777050615</v>
+        <v>0.7660084292343887</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1175</v>
+        <v>848</v>
       </c>
       <c r="B27" t="n">
-        <v>1243</v>
+        <v>874</v>
       </c>
       <c r="C27" t="n">
-        <v>1397</v>
+        <v>948</v>
       </c>
       <c r="D27" t="n">
-        <v>2.326107400481144</v>
+        <v>2.126440870983194</v>
       </c>
       <c r="E27" t="n">
-        <v>1.68925485012712</v>
+        <v>1.489588320629171</v>
       </c>
       <c r="F27" t="n">
         <v>-0.6368525503540235</v>
       </c>
       <c r="G27" t="n">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>92.27971295092698</v>
+        <v>68.56585207179921</v>
       </c>
       <c r="I27" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="J27" t="n">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="K27" t="n">
-        <v>254.0674712257743</v>
+        <v>145.7830250398875</v>
       </c>
       <c r="L27" t="n">
-        <v>5.288446109270301</v>
+        <v>4.834500740773334</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,16 +2756,16 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7260354987355864</v>
+        <v>0.8290866042202849</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4415584415584415</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3435657637310421</v>
+        <v>0.3003638025107561</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8880918397658617</v>
+        <v>0.6493721777050615</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2433</v>
+        <v>1175</v>
       </c>
       <c r="B28" t="n">
-        <v>2454</v>
+        <v>1243</v>
       </c>
       <c r="C28" t="n">
-        <v>2491</v>
+        <v>1397</v>
       </c>
       <c r="D28" t="n">
-        <v>1.804822582089442</v>
+        <v>2.326107400481144</v>
       </c>
       <c r="E28" t="n">
-        <v>1.282870587452278</v>
+        <v>1.68925485012712</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5219519946371645</v>
+        <v>-0.6368525503540235</v>
       </c>
       <c r="G28" t="n">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="H28" t="n">
-        <v>31.28634416157502</v>
+        <v>92.27971295092698</v>
       </c>
       <c r="I28" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J28" t="n">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="K28" t="n">
-        <v>73.65281798021081</v>
+        <v>254.0674712257743</v>
       </c>
       <c r="L28" t="n">
-        <v>4.613779076059418</v>
+        <v>5.288446109270301</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,20 +2842,20 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7414803925926091</v>
+        <v>0.7260354987355864</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1370703406115946</v>
+        <v>0.3435657637310421</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9082519245564143</v>
+        <v>0.8880918397658617</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U28" t="n">
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2185</v>
+        <v>1674</v>
       </c>
       <c r="B29" t="n">
-        <v>2236</v>
+        <v>1703</v>
       </c>
       <c r="C29" t="n">
-        <v>2352</v>
+        <v>1801</v>
       </c>
       <c r="D29" t="n">
-        <v>4.202134014797087</v>
+        <v>2.437487113846722</v>
       </c>
       <c r="E29" t="n">
-        <v>3.632258083160379</v>
+        <v>1.800634563492698</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5698759316367082</v>
+        <v>-0.6368525503540235</v>
       </c>
       <c r="G29" t="n">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="H29" t="n">
-        <v>102.2352419523277</v>
+        <v>21.4371883517997</v>
       </c>
       <c r="I29" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J29" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="K29" t="n">
-        <v>398.2384109826772</v>
+        <v>269.1136514918216</v>
       </c>
       <c r="L29" t="n">
-        <v>14.74460809038225</v>
+        <v>5.541669847640247</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,20 +2928,20 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8183354370913078</v>
+        <v>0.7208092368284831</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4396551724137931</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1932716858632642</v>
+        <v>0.1184075338068104</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9802647196674894</v>
+        <v>0.6694305897396916</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U29" t="n">
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2352</v>
+        <v>2433</v>
       </c>
       <c r="B30" t="n">
-        <v>2387</v>
+        <v>2454</v>
       </c>
       <c r="C30" t="n">
-        <v>2456</v>
+        <v>2491</v>
       </c>
       <c r="D30" t="n">
-        <v>2.367900440961392</v>
+        <v>1.804822582089442</v>
       </c>
       <c r="E30" t="n">
-        <v>1.798024509324683</v>
+        <v>1.282870587452278</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5698759316367082</v>
+        <v>-0.5219519946371645</v>
       </c>
       <c r="G30" t="n">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="H30" t="n">
-        <v>50.11451752949824</v>
+        <v>31.28634416157502</v>
       </c>
       <c r="I30" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J30" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="K30" t="n">
-        <v>174.9628761548361</v>
+        <v>73.65281798021081</v>
       </c>
       <c r="L30" t="n">
-        <v>8.308579373260411</v>
+        <v>4.613779076059418</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,20 +3014,20 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7003234394616746</v>
+        <v>0.7414803925926091</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="R30" t="n">
-        <v>0.06956999200405045</v>
+        <v>0.1370703406115946</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8606529727318587</v>
+        <v>0.9082519245564143</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U30" t="n">
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2456</v>
+        <v>2185</v>
       </c>
       <c r="B31" t="n">
-        <v>2482</v>
+        <v>2236</v>
       </c>
       <c r="C31" t="n">
-        <v>2555</v>
+        <v>2352</v>
       </c>
       <c r="D31" t="n">
-        <v>1.98539695501518</v>
+        <v>4.202134014797087</v>
       </c>
       <c r="E31" t="n">
-        <v>1.415521023378471</v>
+        <v>3.632258083160379</v>
       </c>
       <c r="F31" t="n">
         <v>-0.5698759316367082</v>
       </c>
       <c r="G31" t="n">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="H31" t="n">
-        <v>50.28877106713344</v>
+        <v>102.2352419523277</v>
       </c>
       <c r="I31" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J31" t="n">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="K31" t="n">
-        <v>136.5431896850285</v>
+        <v>398.2384109826772</v>
       </c>
       <c r="L31" t="n">
-        <v>6.966436554011399</v>
+        <v>14.74460809038225</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,16 +3100,16 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8109593848717739</v>
+        <v>0.8183354370913078</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3561643835616438</v>
+        <v>0.4396551724137931</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1148452650129923</v>
+        <v>0.1932716858632642</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9150424409615144</v>
+        <v>0.9802647196674894</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>2387</v>
       </c>
       <c r="C32" t="n">
-        <v>77</v>
+        <v>2456</v>
       </c>
       <c r="D32" t="n">
-        <v>1.335184813039622</v>
+        <v>2.367900440961392</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6808540450650077</v>
+        <v>1.798024509324683</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6543307679746141</v>
+        <v>-0.5698759316367082</v>
       </c>
       <c r="G32" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="H32" t="n">
-        <v>24.60215515413388</v>
+        <v>50.11451752949824</v>
       </c>
       <c r="I32" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J32" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K32" t="n">
-        <v>71.93659444367125</v>
+        <v>174.9628761548361</v>
       </c>
       <c r="L32" t="n">
-        <v>4.968812341593744</v>
+        <v>8.308579373260411</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,20 +3186,20 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.9162134519860623</v>
+        <v>0.7003234394616746</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2076571266608208</v>
+        <v>0.06956999200405045</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8161286857123076</v>
+        <v>0.8606529727318587</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U32" t="n">
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>77</v>
+        <v>2456</v>
       </c>
       <c r="B33" t="n">
-        <v>109</v>
+        <v>2482</v>
       </c>
       <c r="C33" t="n">
-        <v>155</v>
+        <v>2555</v>
       </c>
       <c r="D33" t="n">
-        <v>2.07311150968987</v>
+        <v>1.98539695501518</v>
       </c>
       <c r="E33" t="n">
-        <v>1.418780741715256</v>
+        <v>1.415521023378471</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6543307679746141</v>
+        <v>-0.5698759316367082</v>
       </c>
       <c r="G33" t="n">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H33" t="n">
-        <v>33.41363535898221</v>
+        <v>50.28877106713344</v>
       </c>
       <c r="I33" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J33" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="K33" t="n">
-        <v>106.4477380441333</v>
+        <v>136.5431896850285</v>
       </c>
       <c r="L33" t="n">
-        <v>7.714963467414294</v>
+        <v>6.966436554011399</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,20 +3272,20 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.7800450703136466</v>
+        <v>0.8109593848717739</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1796476650608337</v>
+        <v>0.1148452650129923</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9589203633937345</v>
+        <v>0.9150424409615144</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U33" t="n">
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="C34" t="n">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="D34" t="n">
-        <v>3.161621137313585</v>
+        <v>1.335184813039622</v>
       </c>
       <c r="E34" t="n">
-        <v>2.507290369338971</v>
+        <v>0.6808540450650077</v>
       </c>
       <c r="F34" t="n">
         <v>-0.6543307679746141</v>
       </c>
       <c r="G34" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H34" t="n">
-        <v>25.55195869201438</v>
+        <v>24.60215515413388</v>
       </c>
       <c r="I34" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J34" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>156.928205174436</v>
+        <v>71.93659444367125</v>
       </c>
       <c r="L34" t="n">
-        <v>11.76578850591016</v>
+        <v>4.968812341593744</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,16 +3358,16 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8450139346893817</v>
+        <v>0.9162134519860623</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2035191069221161</v>
+        <v>0.2076571266608208</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9831636438747269</v>
+        <v>0.8161286857123076</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="B35" t="n">
-        <v>447</v>
+        <v>109</v>
       </c>
       <c r="C35" t="n">
-        <v>493</v>
+        <v>155</v>
       </c>
       <c r="D35" t="n">
-        <v>2.672799981231557</v>
+        <v>2.07311150968987</v>
       </c>
       <c r="E35" t="n">
-        <v>2.018469213256943</v>
+        <v>1.418780741715256</v>
       </c>
       <c r="F35" t="n">
         <v>-0.6543307679746141</v>
       </c>
       <c r="G35" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H35" t="n">
-        <v>44.64884412580551</v>
+        <v>33.41363535898221</v>
       </c>
       <c r="I35" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J35" t="n">
         <v>46</v>
       </c>
       <c r="K35" t="n">
-        <v>182.1113590561954</v>
+        <v>106.4477380441333</v>
       </c>
       <c r="L35" t="n">
-        <v>9.94666910801717</v>
+        <v>7.714963467414294</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,16 +3444,16 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.6562888071177042</v>
+        <v>0.7800450703136466</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="R35" t="n">
-        <v>0.08874977862879029</v>
+        <v>0.1796476650608337</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9411105446834813</v>
+        <v>0.9589203633937345</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>613</v>
+        <v>215</v>
       </c>
       <c r="B36" t="n">
-        <v>638</v>
+        <v>242</v>
       </c>
       <c r="C36" t="n">
-        <v>690</v>
+        <v>293</v>
       </c>
       <c r="D36" t="n">
-        <v>2.177075341087501</v>
+        <v>3.161621137313585</v>
       </c>
       <c r="E36" t="n">
-        <v>1.522744573112887</v>
+        <v>2.507290369338971</v>
       </c>
       <c r="F36" t="n">
         <v>-0.6543307679746141</v>
       </c>
       <c r="G36" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="n">
-        <v>18.67670372427301</v>
+        <v>25.55195869201438</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J36" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36" t="n">
-        <v>124.4470221731342</v>
+        <v>156.928205174436</v>
       </c>
       <c r="L36" t="n">
-        <v>8.101858797171607</v>
+        <v>11.76578850591016</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,16 +3530,16 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.8101719736755452</v>
+        <v>0.8450139346893817</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2070977915492699</v>
+        <v>0.2035191069221161</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9263094642088442</v>
+        <v>0.9831636438747269</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2001</v>
+        <v>413</v>
       </c>
       <c r="B37" t="n">
-        <v>2046</v>
+        <v>447</v>
       </c>
       <c r="C37" t="n">
-        <v>2129</v>
+        <v>493</v>
       </c>
       <c r="D37" t="n">
-        <v>4.221599529364047</v>
+        <v>2.672799981231557</v>
       </c>
       <c r="E37" t="n">
-        <v>3.751797702326273</v>
+        <v>2.018469213256943</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4698018270377747</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G37" t="n">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="H37" t="n">
-        <v>127.5121600735208</v>
+        <v>44.64884412580551</v>
       </c>
       <c r="I37" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J37" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="K37" t="n">
-        <v>325.5537118707409</v>
+        <v>182.1113590561954</v>
       </c>
       <c r="L37" t="n">
-        <v>13.98665176874811</v>
+        <v>9.94666910801717</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,20 +3616,20 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.8064748571303825</v>
+        <v>0.6562888071177042</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5421686746987951</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="R37" t="n">
-        <v>0.6914504001897017</v>
+        <v>0.08874977862879029</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9645679514492758</v>
+        <v>0.9411105446834813</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U37" t="n">
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2129</v>
+        <v>613</v>
       </c>
       <c r="B38" t="n">
-        <v>2141</v>
+        <v>638</v>
       </c>
       <c r="C38" t="n">
-        <v>2170</v>
+        <v>690</v>
       </c>
       <c r="D38" t="n">
-        <v>2.27978173572542</v>
+        <v>2.177075341087501</v>
       </c>
       <c r="E38" t="n">
-        <v>1.809979908687646</v>
+        <v>1.522744573112887</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4698018270377747</v>
+        <v>-0.6543307679746141</v>
       </c>
       <c r="G38" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H38" t="n">
-        <v>10.58923329152367</v>
+        <v>18.67670372427301</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J38" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="K38" t="n">
-        <v>74.81295545621242</v>
+        <v>124.4470221731342</v>
       </c>
       <c r="L38" t="n">
-        <v>7.553182869325139</v>
+        <v>8.101858797171607</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,20 +3702,20 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7624877489118224</v>
+        <v>0.8101719736755452</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1306941793927022</v>
+        <v>0.2070977915492699</v>
       </c>
       <c r="S38" t="n">
-        <v>0.8662925909528458</v>
+        <v>0.9263094642088442</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U38" t="n">
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>201</v>
+        <v>2001</v>
       </c>
       <c r="B39" t="n">
-        <v>216</v>
+        <v>2046</v>
       </c>
       <c r="C39" t="n">
-        <v>244</v>
+        <v>2129</v>
       </c>
       <c r="D39" t="n">
-        <v>2.666864123904012</v>
+        <v>4.221599529364047</v>
       </c>
       <c r="E39" t="n">
-        <v>2.070932496784004</v>
+        <v>3.751797702326273</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.595931627120008</v>
+        <v>-0.4698018270377747</v>
       </c>
       <c r="G39" t="n">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="H39" t="n">
-        <v>13.51853665238573</v>
+        <v>127.5121600735208</v>
       </c>
       <c r="I39" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J39" t="n">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="K39" t="n">
-        <v>90.37290381162575</v>
+        <v>325.5537118707409</v>
       </c>
       <c r="L39" t="n">
-        <v>11.55091920688669</v>
+        <v>13.98665176874811</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,20 +3788,20 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.8052554159159035</v>
+        <v>0.8064748571303825</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1696009454100207</v>
+        <v>0.6914504001897017</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9815431783352941</v>
+        <v>0.9645679514492758</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U39" t="n">
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>332</v>
+        <v>2129</v>
       </c>
       <c r="B40" t="n">
-        <v>354</v>
+        <v>2141</v>
       </c>
       <c r="C40" t="n">
-        <v>383</v>
+        <v>2170</v>
       </c>
       <c r="D40" t="n">
-        <v>2.787992430004071</v>
+        <v>2.27978173572542</v>
       </c>
       <c r="E40" t="n">
-        <v>2.192060802884063</v>
+        <v>1.809979908687646</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.595931627120008</v>
+        <v>-0.4698018270377747</v>
       </c>
       <c r="G40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H40" t="n">
-        <v>16.48353728677438</v>
+        <v>10.58923329152367</v>
       </c>
       <c r="I40" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J40" t="n">
         <v>29</v>
       </c>
       <c r="K40" t="n">
-        <v>102.0430075070633</v>
+        <v>74.81295545621242</v>
       </c>
       <c r="L40" t="n">
-        <v>12.07555908819441</v>
+        <v>7.553182869325139</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,20 +3874,20 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.7938995400766872</v>
+        <v>0.7624877489118224</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2765911501669013</v>
+        <v>0.1306941793927022</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9765676523870906</v>
+        <v>0.8662925909528458</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U40" t="n">
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>456</v>
+        <v>201</v>
       </c>
       <c r="B41" t="n">
-        <v>482</v>
+        <v>216</v>
       </c>
       <c r="C41" t="n">
-        <v>576</v>
+        <v>244</v>
       </c>
       <c r="D41" t="n">
-        <v>1.54910802762373</v>
+        <v>2.666864123904012</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9531764005037221</v>
+        <v>2.070932496784004</v>
       </c>
       <c r="F41" t="n">
         <v>-0.595931627120008</v>
       </c>
       <c r="G41" t="n">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="H41" t="n">
-        <v>28.24944373585282</v>
+        <v>13.51853665238573</v>
       </c>
       <c r="I41" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J41" t="n">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="K41" t="n">
-        <v>103.6919107206668</v>
+        <v>90.37290381162575</v>
       </c>
       <c r="L41" t="n">
-        <v>6.709611303191143</v>
+        <v>11.55091920688669</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,16 +3960,16 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.8556251966299983</v>
+        <v>0.8052554159159035</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.2765957446808511</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2280243699151664</v>
+        <v>0.1696009454100207</v>
       </c>
       <c r="S41" t="n">
-        <v>0.6840631149740996</v>
+        <v>0.9815431783352941</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>576</v>
+        <v>332</v>
       </c>
       <c r="B42" t="n">
-        <v>606</v>
+        <v>354</v>
       </c>
       <c r="C42" t="n">
-        <v>677</v>
+        <v>383</v>
       </c>
       <c r="D42" t="n">
-        <v>2.38334910116192</v>
+        <v>2.787992430004071</v>
       </c>
       <c r="E42" t="n">
-        <v>1.787417474041912</v>
+        <v>2.192060802884063</v>
       </c>
       <c r="F42" t="n">
         <v>-0.595931627120008</v>
       </c>
       <c r="G42" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H42" t="n">
-        <v>35.32400831379255</v>
+        <v>16.48353728677438</v>
       </c>
       <c r="I42" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J42" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="K42" t="n">
-        <v>126.5603164091334</v>
+        <v>102.0430075070633</v>
       </c>
       <c r="L42" t="n">
-        <v>10.32293796394339</v>
+        <v>12.07555908819441</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,16 +4046,16 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8911565419885134</v>
+        <v>0.7938995400766872</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4225352112676056</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2047091124967553</v>
+        <v>0.2765911501669013</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9559667649752502</v>
+        <v>0.9765676523870906</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>306</v>
+        <v>456</v>
       </c>
       <c r="B43" t="n">
-        <v>331</v>
+        <v>482</v>
       </c>
       <c r="C43" t="n">
-        <v>372</v>
+        <v>576</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7224605833714582</v>
+        <v>1.54910802762373</v>
       </c>
       <c r="E43" t="n">
-        <v>0.146056678300795</v>
+        <v>0.9531764005037221</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5764039050706632</v>
+        <v>-0.595931627120008</v>
       </c>
       <c r="G43" t="n">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="H43" t="n">
-        <v>35.05490837374714</v>
+        <v>28.24944373585282</v>
       </c>
       <c r="I43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J43" t="n">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K43" t="n">
-        <v>31.40563665313808</v>
+        <v>103.6919107206668</v>
       </c>
       <c r="L43" t="n">
-        <v>3.656564049680722</v>
+        <v>6.709611303191143</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,20 +4132,20 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.719674842288198</v>
+        <v>0.8556251966299983</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1100330504917904</v>
+        <v>0.2280243699151664</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9728755110272896</v>
+        <v>0.6840631149740996</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U43" t="n">
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>483</v>
+        <v>576</v>
       </c>
       <c r="B44" t="n">
-        <v>503</v>
+        <v>606</v>
       </c>
       <c r="C44" t="n">
-        <v>612</v>
+        <v>677</v>
       </c>
       <c r="D44" t="n">
-        <v>4.224417949016212</v>
+        <v>2.38334910116192</v>
       </c>
       <c r="E44" t="n">
-        <v>3.648014043945549</v>
+        <v>1.787417474041912</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5764039050706632</v>
+        <v>-0.595931627120008</v>
       </c>
       <c r="G44" t="n">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="H44" t="n">
-        <v>20.4460632227163</v>
+        <v>35.32400831379255</v>
       </c>
       <c r="I44" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J44" t="n">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="K44" t="n">
-        <v>426.0594512853095</v>
+        <v>126.5603164091334</v>
       </c>
       <c r="L44" t="n">
-        <v>21.38089628518397</v>
+        <v>10.32293796394339</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,20 +4218,20 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8130450838751325</v>
+        <v>0.8911565419885134</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.1834862385321101</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="R44" t="n">
-        <v>0.2205070871140076</v>
+        <v>0.2047091124967553</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8720468633377627</v>
+        <v>0.9559667649752502</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U44" t="n">
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>612</v>
+        <v>306</v>
       </c>
       <c r="B45" t="n">
-        <v>640</v>
+        <v>331</v>
       </c>
       <c r="C45" t="n">
-        <v>720</v>
+        <v>372</v>
       </c>
       <c r="D45" t="n">
-        <v>3.000897090432949</v>
+        <v>0.7224605833714582</v>
       </c>
       <c r="E45" t="n">
-        <v>2.424493185362286</v>
+        <v>0.146056678300795</v>
       </c>
       <c r="F45" t="n">
         <v>-0.5764039050706632</v>
       </c>
       <c r="G45" t="n">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="H45" t="n">
-        <v>27.09816244813317</v>
+        <v>35.05490837374714</v>
       </c>
       <c r="I45" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J45" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="K45" t="n">
-        <v>203.9259229750729</v>
+        <v>31.40563665313808</v>
       </c>
       <c r="L45" t="n">
-        <v>15.18833368937827</v>
+        <v>3.656564049680722</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8707227244323515</v>
+        <v>0.719674842288198</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.35</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2261212734067157</v>
+        <v>0.1100330504917904</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8739860221912827</v>
+        <v>0.9728755110272896</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>812</v>
+        <v>483</v>
       </c>
       <c r="B46" t="n">
-        <v>845</v>
+        <v>503</v>
       </c>
       <c r="C46" t="n">
-        <v>996</v>
+        <v>542</v>
       </c>
       <c r="D46" t="n">
-        <v>2.161999344450332</v>
+        <v>4.224417949016212</v>
       </c>
       <c r="E46" t="n">
-        <v>1.585595439379669</v>
+        <v>3.648014043945549</v>
       </c>
       <c r="F46" t="n">
         <v>-0.5764039050706632</v>
       </c>
       <c r="G46" t="n">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="H46" t="n">
-        <v>156.7785034990173</v>
+        <v>20.4460632227163</v>
       </c>
       <c r="I46" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J46" t="n">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="K46" t="n">
-        <v>248.8453052624523</v>
+        <v>227.8653471733189</v>
       </c>
       <c r="L46" t="n">
-        <v>10.94245037072937</v>
+        <v>21.38089628518397</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,16 +4390,16 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.8714082221046058</v>
+        <v>0.7353139776556091</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2185430463576159</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3043463384113252</v>
+        <v>0.06950753059949409</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8640116649572664</v>
+        <v>0.9711906283309442</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>996</v>
+        <v>542</v>
       </c>
       <c r="B47" t="n">
-        <v>1036</v>
+        <v>553</v>
       </c>
       <c r="C47" t="n">
-        <v>1099</v>
+        <v>612</v>
       </c>
       <c r="D47" t="n">
-        <v>1.56840396682257</v>
+        <v>3.532243964314529</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9920000617519062</v>
+        <v>2.955840059243866</v>
       </c>
       <c r="F47" t="n">
         <v>-0.5764039050706632</v>
       </c>
       <c r="G47" t="n">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H47" t="n">
-        <v>62.28225278565424</v>
+        <v>11.4268339708417</v>
       </c>
       <c r="I47" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K47" t="n">
-        <v>134.195287539122</v>
+        <v>198.1941041119906</v>
       </c>
       <c r="L47" t="n">
-        <v>7.938107202606192</v>
+        <v>17.8776207199299</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.6438799334156819</v>
+        <v>0.8084620145650258</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="R47" t="n">
-        <v>0.05119793388099442</v>
+        <v>0.204649752027629</v>
       </c>
       <c r="S47" t="n">
-        <v>0.9484403372279522</v>
+        <v>0.8995476855453721</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1738</v>
+        <v>612</v>
       </c>
       <c r="B48" t="n">
-        <v>1759</v>
+        <v>640</v>
       </c>
       <c r="C48" t="n">
-        <v>1791</v>
+        <v>720</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7733614781559608</v>
+        <v>3.000897090432949</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1969575730852975</v>
+        <v>2.424493185362286</v>
       </c>
       <c r="F48" t="n">
         <v>-0.5764039050706632</v>
       </c>
       <c r="G48" t="n">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="H48" t="n">
-        <v>29.10745511315463</v>
+        <v>27.09816244813317</v>
       </c>
       <c r="I48" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J48" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="K48" t="n">
-        <v>34.18231978501974</v>
+        <v>203.9259229750729</v>
       </c>
       <c r="L48" t="n">
-        <v>3.914186937696326</v>
+        <v>15.18833368937827</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,16 +4562,16 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.6270466716071345</v>
+        <v>0.8707227244323515</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.65625</v>
+        <v>0.35</v>
       </c>
       <c r="R48" t="n">
-        <v>0.02894784566274223</v>
+        <v>0.2261212734067157</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9579259838717663</v>
+        <v>0.8739860221912827</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>387</v>
+        <v>879</v>
       </c>
       <c r="B49" t="n">
-        <v>410</v>
+        <v>896</v>
       </c>
       <c r="C49" t="n">
-        <v>459</v>
+        <v>996</v>
       </c>
       <c r="D49" t="n">
-        <v>2.60965011638156</v>
+        <v>1.726207690644028</v>
       </c>
       <c r="E49" t="n">
-        <v>2.070285246302458</v>
+        <v>1.149803785573365</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5393648700791017</v>
+        <v>-0.5764039050706632</v>
       </c>
       <c r="G49" t="n">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="H49" t="n">
-        <v>39.02328865878212</v>
+        <v>14.84744508733127</v>
       </c>
       <c r="I49" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J49" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>134.0767605954446</v>
+        <v>146.1255477096612</v>
       </c>
       <c r="L49" t="n">
-        <v>6.835460445883386</v>
+        <v>8.736793576246887</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,20 +4648,20 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.860636491797879</v>
+        <v>0.754620514681449</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.17</v>
       </c>
       <c r="R49" t="n">
-        <v>0.3678670466207974</v>
+        <v>0.2434850207901277</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9536084077117615</v>
+        <v>0.6847225112049156</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U49" t="n">
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>459</v>
+        <v>996</v>
       </c>
       <c r="B50" t="n">
-        <v>470</v>
+        <v>1036</v>
       </c>
       <c r="C50" t="n">
-        <v>499</v>
+        <v>1099</v>
       </c>
       <c r="D50" t="n">
-        <v>1.940563302905509</v>
+        <v>1.56840396682257</v>
       </c>
       <c r="E50" t="n">
-        <v>1.401198432826408</v>
+        <v>0.9920000617519062</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.5393648700791017</v>
+        <v>-0.5764039050706632</v>
       </c>
       <c r="G50" t="n">
+        <v>103</v>
+      </c>
+      <c r="H50" t="n">
+        <v>62.28225278565424</v>
+      </c>
+      <c r="I50" t="n">
         <v>40</v>
       </c>
-      <c r="H50" t="n">
-        <v>28.49063833311021</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11</v>
-      </c>
       <c r="J50" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="K50" t="n">
-        <v>69.93323186738658</v>
+        <v>134.195287539122</v>
       </c>
       <c r="L50" t="n">
-        <v>5.082920356440606</v>
+        <v>7.938107202606192</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,20 +4734,20 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.6614687726894759</v>
+        <v>0.6438799334156819</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="R50" t="n">
-        <v>0.06257936485584102</v>
+        <v>0.05119793388099442</v>
       </c>
       <c r="S50" t="n">
-        <v>0.6069551827465738</v>
+        <v>0.9484403372279522</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U50" t="n">
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1931</v>
+        <v>1738</v>
       </c>
       <c r="B51" t="n">
-        <v>1965</v>
+        <v>1759</v>
       </c>
       <c r="C51" t="n">
-        <v>2038</v>
+        <v>1791</v>
       </c>
       <c r="D51" t="n">
-        <v>1.636132110454286</v>
+        <v>0.7733614781559608</v>
       </c>
       <c r="E51" t="n">
-        <v>1.079094337408365</v>
+        <v>0.1969575730852975</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5570377730459208</v>
+        <v>-0.5764039050706632</v>
       </c>
       <c r="G51" t="n">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="H51" t="n">
-        <v>72.95116014389146</v>
+        <v>29.10745511315463</v>
       </c>
       <c r="I51" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J51" t="n">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K51" t="n">
-        <v>126.169049196538</v>
+        <v>34.18231978501974</v>
       </c>
       <c r="L51" t="n">
-        <v>4.593897978402462</v>
+        <v>3.914186937696326</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,20 +4820,20 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.7665974172540082</v>
+        <v>0.6270466716071345</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.4657534246575342</v>
+        <v>0.65625</v>
       </c>
       <c r="R51" t="n">
-        <v>0.3005081731115763</v>
+        <v>0.02894784566274223</v>
       </c>
       <c r="S51" t="n">
-        <v>0.5896215051207103</v>
+        <v>0.9579259838717663</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U51" t="n">
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="D52" t="n">
-        <v>1.877367563232839</v>
+        <v>1.78389290637363</v>
       </c>
       <c r="E52" t="n">
-        <v>1.418740967734347</v>
+        <v>1.244528036294528</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.4586265954984918</v>
+        <v>-0.5393648700791017</v>
       </c>
       <c r="G52" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H52" t="n">
-        <v>32.48011951842315</v>
+        <v>16.9710073746418</v>
       </c>
       <c r="I52" t="n">
+        <v>11</v>
+      </c>
+      <c r="J52" t="n">
         <v>31</v>
       </c>
-      <c r="J52" t="n">
-        <v>39</v>
-      </c>
       <c r="K52" t="n">
-        <v>77.84782974860545</v>
+        <v>52.60446368719126</v>
       </c>
       <c r="L52" t="n">
-        <v>5.278922911414639</v>
+        <v>4.672553352905507</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,20 +4906,20 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.7622548695197401</v>
+        <v>0.9377797092556012</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7948717948717948</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2222260566178779</v>
+        <v>0.3089703729918313</v>
       </c>
       <c r="S52" t="n">
-        <v>0.8554171642588903</v>
+        <v>0.9299622385474794</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U52" t="n">
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>638</v>
+        <v>387</v>
       </c>
       <c r="B53" t="n">
-        <v>671</v>
+        <v>410</v>
       </c>
       <c r="C53" t="n">
-        <v>726</v>
+        <v>459</v>
       </c>
       <c r="D53" t="n">
-        <v>2.125198738219336</v>
+        <v>2.60965011638156</v>
       </c>
       <c r="E53" t="n">
-        <v>1.666572142720845</v>
+        <v>2.070285246302458</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.4586265954984918</v>
+        <v>-0.5393648700791017</v>
       </c>
       <c r="G53" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H53" t="n">
-        <v>46.80837203959857</v>
+        <v>39.02328865878212</v>
       </c>
       <c r="I53" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J53" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K53" t="n">
-        <v>109.7050665993767</v>
+        <v>134.0767605954446</v>
       </c>
       <c r="L53" t="n">
-        <v>5.97579319586025</v>
+        <v>6.835460445883386</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,20 +4992,20 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.799885170197187</v>
+        <v>0.860636491797879</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2305126849167634</v>
+        <v>0.3678670466207974</v>
       </c>
       <c r="S53" t="n">
-        <v>0.8706596210637008</v>
+        <v>0.9536084077117615</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U53" t="n">
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B54" t="n">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="C54" t="n">
-        <v>574</v>
+        <v>499</v>
       </c>
       <c r="D54" t="n">
-        <v>2.611748273890874</v>
+        <v>1.940563302905509</v>
       </c>
       <c r="E54" t="n">
-        <v>2.038520959265175</v>
+        <v>1.401198432826408</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.5732273146256995</v>
+        <v>-0.5393648700791017</v>
       </c>
       <c r="G54" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H54" t="n">
-        <v>35.28595208528463</v>
+        <v>28.49063833311021</v>
       </c>
       <c r="I54" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K54" t="n">
-        <v>194.0089184221625</v>
+        <v>69.93323186738658</v>
       </c>
       <c r="L54" t="n">
-        <v>7.436485887746412</v>
+        <v>5.082920356440606</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,20 +5078,20 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.8959226286382551</v>
+        <v>0.6614687726894759</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="R54" t="n">
-        <v>0.340561788327968</v>
+        <v>0.06257936485584102</v>
       </c>
       <c r="S54" t="n">
-        <v>0.7478939992685041</v>
+        <v>0.6069551827465738</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U54" t="n">
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>574</v>
+        <v>2455</v>
       </c>
       <c r="B55" t="n">
-        <v>606</v>
+        <v>2477</v>
       </c>
       <c r="C55" t="n">
-        <v>735</v>
+        <v>2506</v>
       </c>
       <c r="D55" t="n">
-        <v>2.581719217727404</v>
+        <v>2.062859094530149</v>
       </c>
       <c r="E55" t="n">
-        <v>2.008491903101704</v>
+        <v>1.523494224451047</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.5732273146256995</v>
+        <v>-0.5393648700791017</v>
       </c>
       <c r="G55" t="n">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="H55" t="n">
-        <v>98.31037546233154</v>
+        <v>68.96975720511318</v>
       </c>
       <c r="I55" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J55" t="n">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="K55" t="n">
-        <v>313.0806807180039</v>
+        <v>72.09633420425565</v>
       </c>
       <c r="L55" t="n">
-        <v>7.350983523443395</v>
+        <v>5.40324990602303</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,20 +5164,20 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.840181131871058</v>
+        <v>0.7270400664880284</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.248062015503876</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="R55" t="n">
-        <v>0.180129093214543</v>
+        <v>0.4979422403756935</v>
       </c>
       <c r="S55" t="n">
-        <v>0.7427510593918254</v>
+        <v>0.901163195450525</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U55" t="n">
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>245</v>
+        <v>1931</v>
       </c>
       <c r="B56" t="n">
-        <v>277</v>
+        <v>1965</v>
       </c>
       <c r="C56" t="n">
-        <v>327</v>
+        <v>2038</v>
       </c>
       <c r="D56" t="n">
-        <v>3.800524680226464</v>
+        <v>1.636132110454286</v>
       </c>
       <c r="E56" t="n">
-        <v>3.229883015880877</v>
+        <v>1.079094337408365</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.5706416643455866</v>
+        <v>-0.5570377730459208</v>
       </c>
       <c r="G56" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="H56" t="n">
-        <v>58.67121247098316</v>
+        <v>72.95116014389146</v>
       </c>
       <c r="I56" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K56" t="n">
-        <v>217.0400207957995</v>
+        <v>126.169049196538</v>
       </c>
       <c r="L56" t="n">
-        <v>11.66141863088179</v>
+        <v>4.593897978402462</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,20 +5250,20 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.7499778064952026</v>
+        <v>0.7665974172540082</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.64</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="R56" t="n">
-        <v>0.3000598857479276</v>
+        <v>0.3005081731115763</v>
       </c>
       <c r="S56" t="n">
-        <v>0.7837570419065315</v>
+        <v>0.5896215051207103</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U56" t="n">
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>449</v>
+        <v>109</v>
       </c>
       <c r="B57" t="n">
-        <v>477</v>
+        <v>140</v>
       </c>
       <c r="C57" t="n">
-        <v>549</v>
+        <v>179</v>
       </c>
       <c r="D57" t="n">
-        <v>3.124003845347115</v>
+        <v>1.877367563232839</v>
       </c>
       <c r="E57" t="n">
-        <v>2.553362181001528</v>
+        <v>1.418740967734347</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.5706416643455866</v>
+        <v>-0.4586265954984918</v>
       </c>
       <c r="G57" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H57" t="n">
-        <v>77.24657654515528</v>
+        <v>32.48011951842315</v>
       </c>
       <c r="I57" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J57" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="K57" t="n">
-        <v>191.1074225452384</v>
+        <v>77.84782974860545</v>
       </c>
       <c r="L57" t="n">
-        <v>9.585601912972292</v>
+        <v>5.278922911414639</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,20 +5336,20 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.8264151394229639</v>
+        <v>0.7622548695197401</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="R57" t="n">
-        <v>0.4080924618550961</v>
+        <v>0.2222260566178779</v>
       </c>
       <c r="S57" t="n">
-        <v>0.743311423003463</v>
+        <v>0.8554171642588903</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U57" t="n">
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>549</v>
+        <v>638</v>
       </c>
       <c r="B58" t="n">
-        <v>564</v>
+        <v>671</v>
       </c>
       <c r="C58" t="n">
-        <v>590</v>
+        <v>726</v>
       </c>
       <c r="D58" t="n">
-        <v>1.836424635245581</v>
+        <v>2.125198738219336</v>
       </c>
       <c r="E58" t="n">
-        <v>1.265782970899995</v>
+        <v>1.666572142720845</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.5706416643455866</v>
+        <v>-0.4586265954984918</v>
       </c>
       <c r="G58" t="n">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="H58" t="n">
-        <v>20.56269668957873</v>
+        <v>46.80837203959857</v>
       </c>
       <c r="I58" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J58" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="K58" t="n">
-        <v>65.20701646753403</v>
+        <v>109.7050665993767</v>
       </c>
       <c r="L58" t="n">
-        <v>5.634831571304789</v>
+        <v>5.97579319586025</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,20 +5422,20 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.6686873403030748</v>
+        <v>0.799885170197187</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.6</v>
       </c>
       <c r="R58" t="n">
-        <v>0.04293292464697981</v>
+        <v>0.2305126849167634</v>
       </c>
       <c r="S58" t="n">
-        <v>0.9501291700476446</v>
+        <v>0.8706596210637008</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U58" t="n">
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>590</v>
+        <v>454</v>
       </c>
       <c r="B59" t="n">
-        <v>603</v>
+        <v>481</v>
       </c>
       <c r="C59" t="n">
-        <v>714</v>
+        <v>574</v>
       </c>
       <c r="D59" t="n">
-        <v>1.771932240186085</v>
+        <v>2.611748273890874</v>
       </c>
       <c r="E59" t="n">
-        <v>1.201290575840498</v>
+        <v>2.038520959265175</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.5706416643455866</v>
+        <v>-0.5732273146256995</v>
       </c>
       <c r="G59" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H59" t="n">
-        <v>16.42743213387314</v>
+        <v>35.28595208528463</v>
       </c>
       <c r="I59" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J59" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K59" t="n">
-        <v>143.2343755576411</v>
+        <v>194.0089184221625</v>
       </c>
       <c r="L59" t="n">
-        <v>5.43694499495655</v>
+        <v>7.436485887746412</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,20 +5508,20 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.714675012909499</v>
+        <v>0.8959226286382551</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.1171171171171171</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2898506462127272</v>
+        <v>0.340561788327968</v>
       </c>
       <c r="S59" t="n">
-        <v>0.5980545158201501</v>
+        <v>0.7478939992685041</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U59" t="n">
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2917</v>
+        <v>574</v>
       </c>
       <c r="B60" t="n">
-        <v>2943</v>
+        <v>606</v>
       </c>
       <c r="C60" t="n">
-        <v>2998</v>
+        <v>735</v>
       </c>
       <c r="D60" t="n">
-        <v>3.161259287316891</v>
+        <v>2.581719217727404</v>
       </c>
       <c r="E60" t="n">
-        <v>2.552720679469247</v>
+        <v>2.008491903101704</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.6085386078476447</v>
+        <v>-0.5732273146256995</v>
       </c>
       <c r="G60" t="n">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="H60" t="n">
-        <v>18.8192897655249</v>
+        <v>98.31037546233154</v>
       </c>
       <c r="I60" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J60" t="n">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="K60" t="n">
-        <v>204.1775004436091</v>
+        <v>313.0806807180039</v>
       </c>
       <c r="L60" t="n">
-        <v>13.19514773292933</v>
+        <v>7.350983523443395</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,20 +5594,20 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.756153937271526</v>
+        <v>0.840181131871058</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1718236498388502</v>
+        <v>0.180129093214543</v>
       </c>
       <c r="S60" t="n">
-        <v>0.836639625787178</v>
+        <v>0.7427510593918254</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U60" t="n">
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2235</v>
+        <v>245</v>
       </c>
       <c r="B61" t="n">
-        <v>2379</v>
+        <v>277</v>
       </c>
       <c r="C61" t="n">
-        <v>2793</v>
+        <v>327</v>
       </c>
       <c r="D61" t="n">
-        <v>3.18958361345502</v>
+        <v>3.800524680226464</v>
       </c>
       <c r="E61" t="n">
-        <v>2.652771330304137</v>
+        <v>3.229883015880877</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5368122831508829</v>
+        <v>-0.5706416643455866</v>
       </c>
       <c r="G61" t="n">
-        <v>558</v>
+        <v>82</v>
       </c>
       <c r="H61" t="n">
-        <v>75.54549457992971</v>
+        <v>58.67121247098316</v>
       </c>
       <c r="I61" t="n">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="J61" t="n">
-        <v>414</v>
+        <v>50</v>
       </c>
       <c r="K61" t="n">
-        <v>459.429760550224</v>
+        <v>217.0400207957995</v>
       </c>
       <c r="L61" t="n">
-        <v>8.216939811612695</v>
+        <v>11.66141863088179</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,20 +5680,20 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.5385579332315819</v>
+        <v>0.7499778064952026</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.64</v>
       </c>
       <c r="R61" t="n">
-        <v>0.4642822893122385</v>
+        <v>0.3000598857479276</v>
       </c>
       <c r="S61" t="n">
-        <v>0.3736474814947754</v>
+        <v>0.7837570419065315</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U61" t="n">
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2793</v>
+        <v>449</v>
       </c>
       <c r="B62" t="n">
-        <v>2846</v>
+        <v>477</v>
       </c>
       <c r="C62" t="n">
-        <v>2917</v>
+        <v>549</v>
       </c>
       <c r="D62" t="n">
-        <v>3.137430877867625</v>
+        <v>3.124003845347115</v>
       </c>
       <c r="E62" t="n">
-        <v>2.600618594716742</v>
+        <v>2.553362181001528</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.5368122831508829</v>
+        <v>-0.5706416643455866</v>
       </c>
       <c r="G62" t="n">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="H62" t="n">
-        <v>46.01234456674956</v>
+        <v>77.24657654515528</v>
       </c>
       <c r="I62" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J62" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K62" t="n">
-        <v>302.2414316179145</v>
+        <v>191.1074225452384</v>
       </c>
       <c r="L62" t="n">
-        <v>8.082585005071545</v>
+        <v>9.585601912972292</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,20 +5766,20 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.6618515007876075</v>
+        <v>0.8264151394229639</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.7464788732394366</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="R62" t="n">
-        <v>0.4340743991553864</v>
+        <v>0.4080924618550961</v>
       </c>
       <c r="S62" t="n">
-        <v>0.5539996129600281</v>
+        <v>0.743311423003463</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U62" t="n">
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2917</v>
+        <v>549</v>
       </c>
       <c r="B63" t="n">
-        <v>2943</v>
+        <v>564</v>
       </c>
       <c r="C63" t="n">
-        <v>2998</v>
+        <v>590</v>
       </c>
       <c r="D63" t="n">
-        <v>3.312130734971063</v>
+        <v>1.836424635245581</v>
       </c>
       <c r="E63" t="n">
-        <v>2.77531845182018</v>
+        <v>1.265782970899995</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5368122831508829</v>
+        <v>-0.5706416643455866</v>
       </c>
       <c r="G63" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="H63" t="n">
-        <v>34.8409507519932</v>
+        <v>20.56269668957873</v>
       </c>
       <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
         <v>26</v>
       </c>
-      <c r="J63" t="n">
-        <v>55</v>
-      </c>
       <c r="K63" t="n">
-        <v>195.536805881581</v>
+        <v>65.20701646753403</v>
       </c>
       <c r="L63" t="n">
-        <v>8.532643189738893</v>
+        <v>5.634831571304789</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,20 +5852,20 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.8435778589423777</v>
+        <v>0.6686873403030748</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1859835090462104</v>
+        <v>0.04293292464697981</v>
       </c>
       <c r="S63" t="n">
-        <v>0.9125970582995122</v>
+        <v>0.9501291700476446</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U63" t="n">
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1769</v>
+        <v>590</v>
       </c>
       <c r="B64" t="n">
-        <v>1799</v>
+        <v>603</v>
       </c>
       <c r="C64" t="n">
-        <v>1858</v>
+        <v>714</v>
       </c>
       <c r="D64" t="n">
-        <v>5.820324929803717</v>
+        <v>1.771932240186085</v>
       </c>
       <c r="E64" t="n">
-        <v>5.365410485616481</v>
+        <v>1.201290575840498</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4549144441872355</v>
+        <v>-0.5706416643455866</v>
       </c>
       <c r="G64" t="n">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="H64" t="n">
-        <v>65.23250957846062</v>
+        <v>16.42743213387314</v>
       </c>
       <c r="I64" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J64" t="n">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="K64" t="n">
-        <v>319.2116801874742</v>
+        <v>143.2343755576411</v>
       </c>
       <c r="L64" t="n">
-        <v>19.32963415197539</v>
+        <v>5.43694499495655</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,20 +5938,20 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.8184258979562821</v>
+        <v>0.714675012909499</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="R64" t="n">
-        <v>0.3118895232124314</v>
+        <v>0.2898506462127272</v>
       </c>
       <c r="S64" t="n">
-        <v>0.9138242172718287</v>
+        <v>0.5980545158201501</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U64" t="n">
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1858</v>
+        <v>2917</v>
       </c>
       <c r="B65" t="n">
-        <v>1918</v>
+        <v>2943</v>
       </c>
       <c r="C65" t="n">
-        <v>2199</v>
+        <v>2998</v>
       </c>
       <c r="D65" t="n">
-        <v>4.17975956437976</v>
+        <v>3.161259287316891</v>
       </c>
       <c r="E65" t="n">
-        <v>3.724845120192525</v>
+        <v>2.552720679469247</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4549144441872355</v>
+        <v>-0.6085386078476447</v>
       </c>
       <c r="G65" t="n">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="H65" t="n">
-        <v>69.81349354336317</v>
+        <v>18.8192897655249</v>
       </c>
       <c r="I65" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="J65" t="n">
-        <v>281</v>
+        <v>55</v>
       </c>
       <c r="K65" t="n">
-        <v>486.681516319887</v>
+        <v>204.1775004436091</v>
       </c>
       <c r="L65" t="n">
-        <v>13.88122213056677</v>
+        <v>13.19514773292933</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,20 +6024,20 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.6815713768604138</v>
+        <v>0.756153937271526</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.2135231316725979</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="R65" t="n">
-        <v>0.65410363478182</v>
+        <v>0.1718236498388502</v>
       </c>
       <c r="S65" t="n">
-        <v>0.6285405523317071</v>
+        <v>0.836639625787178</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U65" t="n">
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2790</v>
+        <v>2235</v>
       </c>
       <c r="B66" t="n">
-        <v>2840</v>
+        <v>2379</v>
       </c>
       <c r="C66" t="n">
-        <v>2939</v>
+        <v>2793</v>
       </c>
       <c r="D66" t="n">
-        <v>4.526968962497195</v>
+        <v>3.18958361345502</v>
       </c>
       <c r="E66" t="n">
-        <v>4.07830256304875</v>
+        <v>2.652771330304137</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4486663994484448</v>
+        <v>-0.5368122831508829</v>
       </c>
       <c r="G66" t="n">
-        <v>149</v>
+        <v>558</v>
       </c>
       <c r="H66" t="n">
-        <v>96.2491289981117</v>
+        <v>75.54549457992971</v>
       </c>
       <c r="I66" t="n">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="J66" t="n">
-        <v>99</v>
+        <v>414</v>
       </c>
       <c r="K66" t="n">
-        <v>512.4727458965556</v>
+        <v>459.429760550224</v>
       </c>
       <c r="L66" t="n">
-        <v>14.7885928788202</v>
+        <v>8.216939811612695</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,20 +6110,20 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.7938314163154812</v>
+        <v>0.5385579332315819</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2314797827047561</v>
+        <v>0.4642822893122385</v>
       </c>
       <c r="S66" t="n">
-        <v>0.7658440892756553</v>
+        <v>0.3736474814947754</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U66" t="n">
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>456</v>
+        <v>2793</v>
       </c>
       <c r="B67" t="n">
-        <v>481</v>
+        <v>2846</v>
       </c>
       <c r="C67" t="n">
-        <v>695</v>
+        <v>2917</v>
       </c>
       <c r="D67" t="n">
-        <v>1.428888250766827</v>
+        <v>3.137430877867625</v>
       </c>
       <c r="E67" t="n">
-        <v>1.017177462064498</v>
+        <v>2.600618594716742</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4117107887023287</v>
+        <v>-0.5368122831508829</v>
       </c>
       <c r="G67" t="n">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="H67" t="n">
-        <v>69.00294230437493</v>
+        <v>46.01234456674956</v>
       </c>
       <c r="I67" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J67" t="n">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="K67" t="n">
-        <v>152.1451552497982</v>
+        <v>302.2414316179145</v>
       </c>
       <c r="L67" t="n">
-        <v>8.86784444424301</v>
+        <v>8.082585005071545</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,20 +6196,20 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.8395717561097851</v>
+        <v>0.6618515007876075</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.1168224299065421</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="R67" t="n">
-        <v>0.3664741207302524</v>
+        <v>0.4340743991553864</v>
       </c>
       <c r="S67" t="n">
-        <v>0.832385583693742</v>
+        <v>0.5539996129600281</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U67" t="n">
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>766</v>
+        <v>2917</v>
       </c>
       <c r="B68" t="n">
-        <v>836</v>
+        <v>2943</v>
       </c>
       <c r="C68" t="n">
-        <v>955</v>
+        <v>2998</v>
       </c>
       <c r="D68" t="n">
-        <v>5.558429705120036</v>
+        <v>3.312130734971063</v>
       </c>
       <c r="E68" t="n">
-        <v>5.146718916417708</v>
+        <v>2.77531845182018</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4117107887023287</v>
+        <v>-0.5368122831508829</v>
       </c>
       <c r="G68" t="n">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="H68" t="n">
-        <v>128.3830316519075</v>
+        <v>34.8409507519932</v>
       </c>
       <c r="I68" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="J68" t="n">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="K68" t="n">
-        <v>662.4132525494434</v>
+        <v>195.536805881581</v>
       </c>
       <c r="L68" t="n">
-        <v>34.49625256055634</v>
+        <v>8.532643189738893</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,20 +6282,20 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.6650344812579028</v>
+        <v>0.8435778589423777</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="R68" t="n">
-        <v>0.2827929306712215</v>
+        <v>0.1859835090462104</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9801146108579617</v>
+        <v>0.9125970582995122</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U68" t="n">
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>955</v>
+        <v>1769</v>
       </c>
       <c r="B69" t="n">
-        <v>968</v>
+        <v>1799</v>
       </c>
       <c r="C69" t="n">
-        <v>998</v>
+        <v>1858</v>
       </c>
       <c r="D69" t="n">
-        <v>1.514704247718983</v>
+        <v>5.820324929803717</v>
       </c>
       <c r="E69" t="n">
-        <v>1.102993459016654</v>
+        <v>5.365410485616481</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4117107887023287</v>
+        <v>-0.4549144441872355</v>
       </c>
       <c r="G69" t="n">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="H69" t="n">
-        <v>16.83644849093741</v>
+        <v>65.23250957846062</v>
       </c>
       <c r="I69" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J69" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K69" t="n">
-        <v>51.96752606854805</v>
+        <v>319.2116801874742</v>
       </c>
       <c r="L69" t="n">
-        <v>9.400428368416891</v>
+        <v>19.32963415197539</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,20 +6368,20 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.8633838832260645</v>
+        <v>0.8184258979562821</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="R69" t="n">
-        <v>0.1762057577851692</v>
+        <v>0.3118895232124314</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9095589064755401</v>
+        <v>0.9138242172718287</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U69" t="n">
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>561</v>
+        <v>1858</v>
       </c>
       <c r="B70" t="n">
-        <v>576</v>
+        <v>1918</v>
       </c>
       <c r="C70" t="n">
-        <v>599</v>
+        <v>2199</v>
       </c>
       <c r="D70" t="n">
-        <v>1.697859447837979</v>
+        <v>4.17975956437976</v>
       </c>
       <c r="E70" t="n">
-        <v>1.235501738090152</v>
+        <v>3.724845120192525</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.4623577097478276</v>
+        <v>-0.4549144441872355</v>
       </c>
       <c r="G70" t="n">
-        <v>38</v>
+        <v>341</v>
       </c>
       <c r="H70" t="n">
-        <v>21.99633005942508</v>
+        <v>69.81349354336317</v>
       </c>
       <c r="I70" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J70" t="n">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c r="K70" t="n">
-        <v>47.06037755648523</v>
+        <v>486.681516319887</v>
       </c>
       <c r="L70" t="n">
-        <v>4.395603803003337</v>
+        <v>13.88122213056677</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,20 +6454,20 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.6284617786986003</v>
+        <v>0.6815713768604138</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.2135231316725979</v>
       </c>
       <c r="R70" t="n">
-        <v>0.03944610628731402</v>
+        <v>0.65410363478182</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9343068535329483</v>
+        <v>0.6285405523317071</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U70" t="n">
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>599</v>
+        <v>2790</v>
       </c>
       <c r="B71" t="n">
-        <v>629</v>
+        <v>2840</v>
       </c>
       <c r="C71" t="n">
-        <v>674</v>
+        <v>2939</v>
       </c>
       <c r="D71" t="n">
-        <v>1.900873258737152</v>
+        <v>4.526968962497195</v>
       </c>
       <c r="E71" t="n">
-        <v>1.438515548989324</v>
+        <v>4.07830256304875</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.4623577097478276</v>
+        <v>-0.4486663994484448</v>
       </c>
       <c r="G71" t="n">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="H71" t="n">
-        <v>32.06187942083761</v>
+        <v>96.2491289981117</v>
       </c>
       <c r="I71" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J71" t="n">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="K71" t="n">
-        <v>115.068142685749</v>
+        <v>512.4727458965556</v>
       </c>
       <c r="L71" t="n">
-        <v>4.921188108810822</v>
+        <v>14.7885928788202</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,20 +6540,20 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.7638639757106106</v>
+        <v>0.7938314163154812</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="R71" t="n">
-        <v>0.181204860479313</v>
+        <v>0.2314797827047561</v>
       </c>
       <c r="S71" t="n">
-        <v>0.8445990073663703</v>
+        <v>0.7658440892756553</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U71" t="n">
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>238</v>
+        <v>456</v>
       </c>
       <c r="B72" t="n">
-        <v>263</v>
+        <v>481</v>
       </c>
       <c r="C72" t="n">
-        <v>298</v>
+        <v>695</v>
       </c>
       <c r="D72" t="n">
-        <v>4.005191967281403</v>
+        <v>1.428888250766827</v>
       </c>
       <c r="E72" t="n">
-        <v>3.56192881830032</v>
+        <v>1.017177462064498</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4432631489810837</v>
+        <v>-0.4117107887023287</v>
       </c>
       <c r="G72" t="n">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="H72" t="n">
-        <v>21.95840605961584</v>
+        <v>69.00294230437493</v>
       </c>
       <c r="I72" t="n">
         <v>25</v>
       </c>
       <c r="J72" t="n">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="K72" t="n">
-        <v>175.4262785379286</v>
+        <v>152.1451552497982</v>
       </c>
       <c r="L72" t="n">
-        <v>14.22595266541112</v>
+        <v>8.86784444424301</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,20 +6626,20 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.6523326393819036</v>
+        <v>0.8395717561097851</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.1168224299065421</v>
       </c>
       <c r="R72" t="n">
-        <v>0.1297722062385377</v>
+        <v>0.3664741207302524</v>
       </c>
       <c r="S72" t="n">
-        <v>0.9400611607280883</v>
+        <v>0.832385583693742</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U72" t="n">
@@ -6656,6 +6656,436 @@
         </is>
       </c>
       <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>766</v>
+      </c>
+      <c r="B73" t="n">
+        <v>836</v>
+      </c>
+      <c r="C73" t="n">
+        <v>955</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5.558429705120036</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5.146718916417708</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.4117107887023287</v>
+      </c>
+      <c r="G73" t="n">
+        <v>189</v>
+      </c>
+      <c r="H73" t="n">
+        <v>128.3830316519075</v>
+      </c>
+      <c r="I73" t="n">
+        <v>70</v>
+      </c>
+      <c r="J73" t="n">
+        <v>119</v>
+      </c>
+      <c r="K73" t="n">
+        <v>662.4132525494434</v>
+      </c>
+      <c r="L73" t="n">
+        <v>34.49625256055634</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.6650344812579028</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.2827929306712215</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.9801146108579617</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>72</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>955</v>
+      </c>
+      <c r="B74" t="n">
+        <v>968</v>
+      </c>
+      <c r="C74" t="n">
+        <v>998</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.514704247718983</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.102993459016654</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.4117107887023287</v>
+      </c>
+      <c r="G74" t="n">
+        <v>43</v>
+      </c>
+      <c r="H74" t="n">
+        <v>16.83644849093741</v>
+      </c>
+      <c r="I74" t="n">
+        <v>13</v>
+      </c>
+      <c r="J74" t="n">
+        <v>30</v>
+      </c>
+      <c r="K74" t="n">
+        <v>51.96752606854805</v>
+      </c>
+      <c r="L74" t="n">
+        <v>9.400428368416891</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.8633838832260645</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.1762057577851692</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.9095589064755401</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>73</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>561</v>
+      </c>
+      <c r="B75" t="n">
+        <v>576</v>
+      </c>
+      <c r="C75" t="n">
+        <v>599</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.697859447837979</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.235501738090152</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.4623577097478276</v>
+      </c>
+      <c r="G75" t="n">
+        <v>38</v>
+      </c>
+      <c r="H75" t="n">
+        <v>21.99633005942508</v>
+      </c>
+      <c r="I75" t="n">
+        <v>15</v>
+      </c>
+      <c r="J75" t="n">
+        <v>23</v>
+      </c>
+      <c r="K75" t="n">
+        <v>47.06037755648523</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4.395603803003337</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.6284617786986003</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.03944610628731402</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.9343068535329483</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>74</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>599</v>
+      </c>
+      <c r="B76" t="n">
+        <v>629</v>
+      </c>
+      <c r="C76" t="n">
+        <v>674</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.900873258737152</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.438515548989324</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.4623577097478276</v>
+      </c>
+      <c r="G76" t="n">
+        <v>75</v>
+      </c>
+      <c r="H76" t="n">
+        <v>32.06187942083761</v>
+      </c>
+      <c r="I76" t="n">
+        <v>30</v>
+      </c>
+      <c r="J76" t="n">
+        <v>45</v>
+      </c>
+      <c r="K76" t="n">
+        <v>115.068142685749</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4.921188108810822</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.7638639757106106</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.181204860479313</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.8445990073663703</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>75</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>238</v>
+      </c>
+      <c r="B77" t="n">
+        <v>263</v>
+      </c>
+      <c r="C77" t="n">
+        <v>298</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.005191967281403</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.56192881830032</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.4432631489810837</v>
+      </c>
+      <c r="G77" t="n">
+        <v>60</v>
+      </c>
+      <c r="H77" t="n">
+        <v>21.95840605961584</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+      <c r="J77" t="n">
+        <v>35</v>
+      </c>
+      <c r="K77" t="n">
+        <v>175.4262785379286</v>
+      </c>
+      <c r="L77" t="n">
+        <v>14.22595266541112</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.6523326393819036</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.1297722062385377</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.9400611607280883</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>76</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3EMCellVedio22024-12-05194348trace.xlsx</t>
         </is>
